--- a/data/nzd0500/nzd0500.xlsx
+++ b/data/nzd0500/nzd0500.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M493"/>
+  <dimension ref="A1:M495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21691,6 +21691,76 @@
         </is>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="n">
+        <v>379.8257142857143</v>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:51+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>353.11</v>
+      </c>
+      <c r="C495" t="n">
+        <v>360.09</v>
+      </c>
+      <c r="D495" t="n">
+        <v>353.1</v>
+      </c>
+      <c r="E495" t="n">
+        <v>350.0188888888889</v>
+      </c>
+      <c r="F495" t="n">
+        <v>345.99</v>
+      </c>
+      <c r="G495" t="n">
+        <v>352.0185714285714</v>
+      </c>
+      <c r="H495" t="n">
+        <v>351.02</v>
+      </c>
+      <c r="I495" t="n">
+        <v>359.6733333333333</v>
+      </c>
+      <c r="J495" t="n">
+        <v>364.03</v>
+      </c>
+      <c r="K495" t="n">
+        <v>358.4</v>
+      </c>
+      <c r="L495" t="n">
+        <v>353.4471428571428</v>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21702,7 +21772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B586"/>
+  <dimension ref="A1:B588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27570,6 +27640,26 @@
       </c>
       <c r="B586" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>-0.95</v>
       </c>
     </row>
   </sheetData>
@@ -27738,28 +27828,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2719718886665655</v>
+        <v>-0.2768609344714236</v>
       </c>
       <c r="J2" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K2" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02346269532028666</v>
+        <v>0.02434965222012042</v>
       </c>
       <c r="M2" t="n">
-        <v>9.448939317766957</v>
+        <v>9.453721398075551</v>
       </c>
       <c r="N2" t="n">
-        <v>143.9228787683583</v>
+        <v>143.8669561106251</v>
       </c>
       <c r="O2" t="n">
-        <v>11.99678618498964</v>
+        <v>11.99445522358665</v>
       </c>
       <c r="P2" t="n">
-        <v>370.9844850995323</v>
+        <v>371.0388970393536</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27815,28 +27905,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2738151366593958</v>
+        <v>-0.2759428489091498</v>
       </c>
       <c r="J3" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K3" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02394044207751644</v>
+        <v>0.02439581556043702</v>
       </c>
       <c r="M3" t="n">
-        <v>9.363756844982715</v>
+        <v>9.35376771370548</v>
       </c>
       <c r="N3" t="n">
-        <v>139.8510667730052</v>
+        <v>139.5945612730564</v>
       </c>
       <c r="O3" t="n">
-        <v>11.82586431399436</v>
+        <v>11.81501423075979</v>
       </c>
       <c r="P3" t="n">
-        <v>371.8482060864092</v>
+        <v>371.8721754560164</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -27892,28 +27982,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3328590517504749</v>
+        <v>-0.3363437188290718</v>
       </c>
       <c r="J4" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K4" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0362475560385096</v>
+        <v>0.03709409853680823</v>
       </c>
       <c r="M4" t="n">
-        <v>8.851534422078306</v>
+        <v>8.850455660058447</v>
       </c>
       <c r="N4" t="n">
-        <v>133.9791030233497</v>
+        <v>133.8239242753405</v>
       </c>
       <c r="O4" t="n">
-        <v>11.57493425568153</v>
+        <v>11.56822908985383</v>
       </c>
       <c r="P4" t="n">
-        <v>369.4898756796824</v>
+        <v>369.5292510667368</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -27969,28 +28059,28 @@
         <v>0.0483</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3639227243597377</v>
+        <v>-0.3685046490695491</v>
       </c>
       <c r="J5" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K5" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04235765150531634</v>
+        <v>0.04348757824424054</v>
       </c>
       <c r="M5" t="n">
-        <v>8.967957014638806</v>
+        <v>8.971614355459998</v>
       </c>
       <c r="N5" t="n">
-        <v>135.3007009830425</v>
+        <v>135.2341666872506</v>
       </c>
       <c r="O5" t="n">
-        <v>11.631882950883</v>
+        <v>11.62902260240518</v>
       </c>
       <c r="P5" t="n">
-        <v>369.5685861030119</v>
+        <v>369.6205772870293</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -28046,28 +28136,28 @@
         <v>0.0541</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3534140811188957</v>
+        <v>-0.3590725969810135</v>
       </c>
       <c r="J6" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K6" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04334824344671984</v>
+        <v>0.04474969859830913</v>
       </c>
       <c r="M6" t="n">
-        <v>8.615317373595024</v>
+        <v>8.625891139927722</v>
       </c>
       <c r="N6" t="n">
-        <v>124.1565696894387</v>
+        <v>124.2241411536286</v>
       </c>
       <c r="O6" t="n">
-        <v>11.14255669446823</v>
+        <v>11.14558841666193</v>
       </c>
       <c r="P6" t="n">
-        <v>367.4985596717809</v>
+        <v>367.5627261765849</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28123,28 +28213,28 @@
         <v>0.0825</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3407961263264575</v>
+        <v>-0.3430332653129964</v>
       </c>
       <c r="J7" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K7" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04535822730394623</v>
+        <v>0.04609305537408359</v>
       </c>
       <c r="M7" t="n">
-        <v>8.065840500040137</v>
+        <v>8.059109227788859</v>
       </c>
       <c r="N7" t="n">
-        <v>110.0522930598528</v>
+        <v>109.8646337604608</v>
       </c>
       <c r="O7" t="n">
-        <v>10.49058115929965</v>
+        <v>10.48163316284542</v>
       </c>
       <c r="P7" t="n">
-        <v>365.6582148248762</v>
+        <v>365.6836052417341</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28200,28 +28290,28 @@
         <v>0.0548</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3346187396562222</v>
+        <v>-0.3372754176720065</v>
       </c>
       <c r="J8" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K8" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04248860868815707</v>
+        <v>0.04328753843212452</v>
       </c>
       <c r="M8" t="n">
-        <v>8.207629451714963</v>
+        <v>8.203152019259885</v>
       </c>
       <c r="N8" t="n">
-        <v>113.2491007967411</v>
+        <v>113.0722257203416</v>
       </c>
       <c r="O8" t="n">
-        <v>10.64185607855796</v>
+        <v>10.6335424821807</v>
       </c>
       <c r="P8" t="n">
-        <v>365.347050025989</v>
+        <v>365.3772417301977</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28277,28 +28367,28 @@
         <v>0.0907</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2405822458666371</v>
+        <v>-0.2404804196473632</v>
       </c>
       <c r="J9" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K9" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02171775384202157</v>
+        <v>0.02179284229360856</v>
       </c>
       <c r="M9" t="n">
-        <v>8.155931433333466</v>
+        <v>8.138273569457294</v>
       </c>
       <c r="N9" t="n">
-        <v>115.9370083116264</v>
+        <v>115.6800471373514</v>
       </c>
       <c r="O9" t="n">
-        <v>10.76740490144336</v>
+        <v>10.75546591911998</v>
       </c>
       <c r="P9" t="n">
-        <v>365.5928483863094</v>
+        <v>365.5916881542478</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28348,28 +28438,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.1156690868827985</v>
+        <v>-0.1143881159823034</v>
       </c>
       <c r="J10" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K10" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005687548316988478</v>
+        <v>0.005586493410568938</v>
       </c>
       <c r="M10" t="n">
-        <v>7.870211025982667</v>
+        <v>7.858797861041379</v>
       </c>
       <c r="N10" t="n">
-        <v>103.9853652610062</v>
+        <v>103.7687814731104</v>
       </c>
       <c r="O10" t="n">
-        <v>10.19732147482888</v>
+        <v>10.18669629826621</v>
       </c>
       <c r="P10" t="n">
-        <v>364.2538638610208</v>
+        <v>364.2392513291156</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28425,28 +28515,28 @@
         <v>0.0572</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02947460180127792</v>
+        <v>0.02639191820780254</v>
       </c>
       <c r="J11" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K11" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003394688911795285</v>
+        <v>0.0002732230307257444</v>
       </c>
       <c r="M11" t="n">
-        <v>8.119431469073671</v>
+        <v>8.116690566483927</v>
       </c>
       <c r="N11" t="n">
-        <v>113.3636333289434</v>
+        <v>113.1965071051467</v>
       </c>
       <c r="O11" t="n">
-        <v>10.64723594783845</v>
+        <v>10.63938471459448</v>
       </c>
       <c r="P11" t="n">
-        <v>364.0071933016894</v>
+        <v>364.0422555118149</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28502,28 +28592,28 @@
         <v>0.0395</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03489343197334475</v>
+        <v>0.03270332648229511</v>
       </c>
       <c r="J12" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K12" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003962237123915635</v>
+        <v>0.000349141725847657</v>
       </c>
       <c r="M12" t="n">
-        <v>8.803326876778968</v>
+        <v>8.825519516186283</v>
       </c>
       <c r="N12" t="n">
-        <v>132.7338061066311</v>
+        <v>132.9504172679833</v>
       </c>
       <c r="O12" t="n">
-        <v>11.52101584525562</v>
+        <v>11.53041271021915</v>
       </c>
       <c r="P12" t="n">
-        <v>367.7229622567037</v>
+        <v>367.7488687138978</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28560,7 +28650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M493"/>
+  <dimension ref="A1:M495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59695,6 +59785,100 @@
         </is>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>-45.761355496380425,170.68669667936422</t>
+        </is>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:51+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-45.760077195524325,170.67816472321857</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-45.7603089146164,170.6789889722105</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-45.760588339614024,170.6797815488215</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-45.76086546569757,170.68057876197636</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-45.76109133069917,170.68139799247922</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-45.761196675678114,170.68228572082435</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>-45.76136458576573,170.6831468127504</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>-45.76141169274383,170.68403492197797</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>-45.76144294641848,170.68491603512706</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>-45.76153452119894,170.6857925340229</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>-45.7615926179413,170.68668241293915</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0500/nzd0500.xlsx
+++ b/data/nzd0500/nzd0500.xlsx
@@ -27673,7 +27673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27764,35 +27764,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -27851,27 +27856,28 @@
       <c r="P2" t="n">
         <v>371.0388970393536</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.67596621773322 -45.76285661902802, 170.68143706185495 -45.755939587557265)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.6759662177332</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.76285661902802</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.681437061855</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.75593958755726</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.6787016397941</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.75939810329264</v>
       </c>
     </row>
@@ -27928,27 +27934,28 @@
       <c r="P3" t="n">
         <v>371.8721754560164</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.67698910975193 -45.76323068898706, 170.6818689219035 -45.75610072432189)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.6769891097519</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.76323068898706</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.6818689219035</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.75610072432189</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.6794290158277</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.75966570665447</v>
       </c>
     </row>
@@ -28005,27 +28012,28 @@
       <c r="P4" t="n">
         <v>369.5292510667368</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.6779599400303 -45.76349814429252, 170.68249265522317 -45.75625702960382)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.6779599400303</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.76349814429252</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.6824926552232</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.75625702960382</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.6802262976267</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.75987758694817</v>
       </c>
     </row>
@@ -28082,27 +28090,28 @@
       <c r="P5" t="n">
         <v>369.6205772870293</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.6788730122922 -45.763779539844286, 170.68315470903713 -45.75646411183209)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.6788730122922</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.76377953984429</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.6831547090371</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.75646411183209</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.6810138606647</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.76012182583818</v>
       </c>
     </row>
@@ -28159,27 +28168,28 @@
       <c r="P6" t="n">
         <v>367.5627261765849</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.68005280774005 -45.764058444690754, 170.68346855126478 -45.75652355915141)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.6800528077401</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.76405844469075</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.6834685512648</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.75652355915141</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.6817606795024</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.76029100192108</v>
       </c>
     </row>
@@ -28236,27 +28246,28 @@
       <c r="P7" t="n">
         <v>365.6836052417341</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.68104776598315 -45.76424300124814, 170.68413733791598 -45.75663958704344)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.6810477659832</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.76424300124814</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.684137337916</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.75663958704344</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.6825925519496</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.76044129414579</v>
       </c>
     </row>
@@ -28313,27 +28324,28 @@
       <c r="P8" t="n">
         <v>365.3772417301977</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.6820273007016 -45.764424008834865, 170.6848291789702 -45.756766295444606)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.6820273007016</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.76442400883487</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.6848291789702</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.75676629544461</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.6834282398359</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.76059515213974</v>
       </c>
     </row>
@@ -28390,27 +28402,28 @@
       <c r="P9" t="n">
         <v>365.5916881542478</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.68321009763147 -45.76459580786716, 170.68522471069005 -45.75681798326326)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.6832100976315</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.76459580786716</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.6852247106901</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.75681798326326</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.6842174041608</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.76070689556521</v>
       </c>
     </row>
@@ -28461,27 +28474,28 @@
       <c r="P10" t="n">
         <v>364.2392513291156</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (170.68439405631497 -45.76469773237483, 170.68565368923413 -45.75684258932471)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>170.684394056315</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-45.76469773237483</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>170.6856536892341</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-45.75684258932471</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>170.6850238727745</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-45.76077016084977</v>
       </c>
     </row>
@@ -28538,27 +28552,28 @@
       <c r="P11" t="n">
         <v>364.0422555118149</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (170.6854942139815 -45.76475232725484, 170.68622541272885 -45.756864505486895)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>170.6854942139815</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-45.76475232725484</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>170.6862254127288</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-45.7568645054869</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>170.6858598133552</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-45.76080841637086</v>
       </c>
     </row>
@@ -28615,27 +28630,28 @@
       <c r="P12" t="n">
         <v>367.7488687138978</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (170.68649124127825 -45.76476981443417, 170.68696637344257 -45.75687242012164)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>170.6864912412782</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-45.76476981443417</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>170.6869663734426</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-45.75687242012164</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>170.6867288073604</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-45.7608211172779</v>
       </c>
     </row>

--- a/data/nzd0500/nzd0500.xlsx
+++ b/data/nzd0500/nzd0500.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M495"/>
+  <dimension ref="A1:M502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21761,6 +21761,321 @@
         </is>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>376.85</v>
+      </c>
+      <c r="C496" t="n">
+        <v>379.69</v>
+      </c>
+      <c r="D496" t="n">
+        <v>373.88</v>
+      </c>
+      <c r="E496" t="n">
+        <v>369.0877777777778</v>
+      </c>
+      <c r="F496" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="G496" t="n">
+        <v>372.5857142857143</v>
+      </c>
+      <c r="H496" t="n">
+        <v>372.94</v>
+      </c>
+      <c r="I496" t="n">
+        <v>372.0166666666667</v>
+      </c>
+      <c r="J496" t="n">
+        <v>375.47</v>
+      </c>
+      <c r="K496" t="n">
+        <v>377.95</v>
+      </c>
+      <c r="L496" t="n">
+        <v>375.0314285714285</v>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>385.6</v>
+      </c>
+      <c r="C497" t="n">
+        <v>389.14</v>
+      </c>
+      <c r="D497" t="n">
+        <v>379.8</v>
+      </c>
+      <c r="E497" t="n">
+        <v>380.5422222222222</v>
+      </c>
+      <c r="F497" t="n">
+        <v>372.36</v>
+      </c>
+      <c r="G497" t="n">
+        <v>372.63</v>
+      </c>
+      <c r="H497" t="n">
+        <v>373.36</v>
+      </c>
+      <c r="I497" t="n">
+        <v>375.3233333333333</v>
+      </c>
+      <c r="J497" t="n">
+        <v>382.07</v>
+      </c>
+      <c r="K497" t="n">
+        <v>382.98</v>
+      </c>
+      <c r="L497" t="n">
+        <v>386.32</v>
+      </c>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>358.92</v>
+      </c>
+      <c r="C498" t="n">
+        <v>353.06</v>
+      </c>
+      <c r="D498" t="n">
+        <v>349.1</v>
+      </c>
+      <c r="E498" t="n">
+        <v>339.6888888888889</v>
+      </c>
+      <c r="F498" t="n">
+        <v>350.18</v>
+      </c>
+      <c r="G498" t="n">
+        <v>344.9685714285715</v>
+      </c>
+      <c r="H498" t="n">
+        <v>349.11</v>
+      </c>
+      <c r="I498" t="n">
+        <v>345.5633333333333</v>
+      </c>
+      <c r="J498" t="n">
+        <v>353.94</v>
+      </c>
+      <c r="K498" t="n">
+        <v>359.06</v>
+      </c>
+      <c r="L498" t="n">
+        <v>361.6971428571428</v>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>376.29</v>
+      </c>
+      <c r="C499" t="n">
+        <v>380.77</v>
+      </c>
+      <c r="D499" t="n">
+        <v>373.19</v>
+      </c>
+      <c r="E499" t="n">
+        <v>372.8066666666667</v>
+      </c>
+      <c r="F499" t="n">
+        <v>373.15</v>
+      </c>
+      <c r="G499" t="n">
+        <v>370.0057142857143</v>
+      </c>
+      <c r="H499" t="n">
+        <v>370.1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>373.5700000000001</v>
+      </c>
+      <c r="J499" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="K499" t="n">
+        <v>375.23</v>
+      </c>
+      <c r="L499" t="n">
+        <v>372.3114285714286</v>
+      </c>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>375.44</v>
+      </c>
+      <c r="C500" t="n">
+        <v>377.21</v>
+      </c>
+      <c r="D500" t="n">
+        <v>373.28</v>
+      </c>
+      <c r="E500" t="n">
+        <v>369.1633333333333</v>
+      </c>
+      <c r="F500" t="n">
+        <v>371.88</v>
+      </c>
+      <c r="G500" t="n">
+        <v>369.9471428571428</v>
+      </c>
+      <c r="H500" t="n">
+        <v>367.36</v>
+      </c>
+      <c r="I500" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="J500" t="n">
+        <v>369.8</v>
+      </c>
+      <c r="K500" t="n">
+        <v>371.65</v>
+      </c>
+      <c r="L500" t="n">
+        <v>367.6942857142857</v>
+      </c>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>359.84</v>
+      </c>
+      <c r="C501" t="n">
+        <v>364.41</v>
+      </c>
+      <c r="D501" t="n">
+        <v>355.74</v>
+      </c>
+      <c r="E501" t="n">
+        <v>359.5322222222222</v>
+      </c>
+      <c r="F501" t="n">
+        <v>354.7</v>
+      </c>
+      <c r="G501" t="n">
+        <v>357.5628571428572</v>
+      </c>
+      <c r="H501" t="n">
+        <v>358.53</v>
+      </c>
+      <c r="I501" t="n">
+        <v>353.8533333333333</v>
+      </c>
+      <c r="J501" t="n">
+        <v>352.74</v>
+      </c>
+      <c r="K501" t="n">
+        <v>357.16</v>
+      </c>
+      <c r="L501" t="n">
+        <v>353.4057142857143</v>
+      </c>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>375.96</v>
+      </c>
+      <c r="C502" t="n">
+        <v>385</v>
+      </c>
+      <c r="D502" t="n">
+        <v>379.29</v>
+      </c>
+      <c r="E502" t="n">
+        <v>378.9088888888889</v>
+      </c>
+      <c r="F502" t="n">
+        <v>371.4</v>
+      </c>
+      <c r="G502" t="n">
+        <v>369.5357142857143</v>
+      </c>
+      <c r="H502" t="n">
+        <v>373.54</v>
+      </c>
+      <c r="I502" t="n">
+        <v>375.1533333333334</v>
+      </c>
+      <c r="J502" t="n">
+        <v>376.39</v>
+      </c>
+      <c r="K502" t="n">
+        <v>370.19</v>
+      </c>
+      <c r="L502" t="n">
+        <v>373.1314285714286</v>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21772,7 +22087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B588"/>
+  <dimension ref="A1:B595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27660,6 +27975,76 @@
       </c>
       <c r="B588" t="n">
         <v>-0.95</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -27833,28 +28218,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2768609344714236</v>
+        <v>-0.2503992357993333</v>
       </c>
       <c r="J2" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K2" t="n">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02434965222012042</v>
+        <v>0.02025419856496868</v>
       </c>
       <c r="M2" t="n">
-        <v>9.453721398075551</v>
+        <v>9.47518923915371</v>
       </c>
       <c r="N2" t="n">
-        <v>143.8669561106251</v>
+        <v>144.0325774339113</v>
       </c>
       <c r="O2" t="n">
-        <v>11.99445522358665</v>
+        <v>12.00135731631682</v>
       </c>
       <c r="P2" t="n">
-        <v>371.0388970393536</v>
+        <v>370.7430925736843</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27911,28 +28296,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2759428489091498</v>
+        <v>-0.2433063386440109</v>
       </c>
       <c r="J3" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K3" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02439581556043702</v>
+        <v>0.01910974101100715</v>
       </c>
       <c r="M3" t="n">
-        <v>9.35376771370548</v>
+        <v>9.425238992509769</v>
       </c>
       <c r="N3" t="n">
-        <v>139.5945612730564</v>
+        <v>141.2244747444247</v>
       </c>
       <c r="O3" t="n">
-        <v>11.81501423075979</v>
+        <v>11.88379041991337</v>
       </c>
       <c r="P3" t="n">
-        <v>371.8721754560164</v>
+        <v>371.5027526695294</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27989,28 +28374,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3363437188290718</v>
+        <v>-0.3116146636069528</v>
       </c>
       <c r="J4" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K4" t="n">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03709409853680823</v>
+        <v>0.03224781455600878</v>
       </c>
       <c r="M4" t="n">
-        <v>8.850455660058447</v>
+        <v>8.905335892256881</v>
       </c>
       <c r="N4" t="n">
-        <v>133.8239242753405</v>
+        <v>134.6209670525814</v>
       </c>
       <c r="O4" t="n">
-        <v>11.56822908985383</v>
+        <v>11.6026275926008</v>
       </c>
       <c r="P4" t="n">
-        <v>369.5292510667368</v>
+        <v>369.2484835061898</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28067,28 +28452,28 @@
         <v>0.0483</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3685046490695491</v>
+        <v>-0.3475461331263274</v>
       </c>
       <c r="J5" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K5" t="n">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04348757824424054</v>
+        <v>0.03906143893525527</v>
       </c>
       <c r="M5" t="n">
-        <v>8.971614355459998</v>
+        <v>9.026106301032888</v>
       </c>
       <c r="N5" t="n">
-        <v>135.2341666872506</v>
+        <v>136.3999120324469</v>
       </c>
       <c r="O5" t="n">
-        <v>11.62902260240518</v>
+        <v>11.67903729048105</v>
       </c>
       <c r="P5" t="n">
-        <v>369.6205772870293</v>
+        <v>369.3815271652475</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28145,28 +28530,28 @@
         <v>0.0541</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3590725969810135</v>
+        <v>-0.3323214294868977</v>
       </c>
       <c r="J6" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K6" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04474969859830913</v>
+        <v>0.0389360135023511</v>
       </c>
       <c r="M6" t="n">
-        <v>8.625891139927722</v>
+        <v>8.667021752722102</v>
       </c>
       <c r="N6" t="n">
-        <v>124.2241411536286</v>
+        <v>124.7954687030479</v>
       </c>
       <c r="O6" t="n">
-        <v>11.14558841666193</v>
+        <v>11.17118922510258</v>
       </c>
       <c r="P6" t="n">
-        <v>367.5627261765849</v>
+        <v>367.2580462321818</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28223,28 +28608,28 @@
         <v>0.0825</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3430332653129964</v>
+        <v>-0.3172427454067759</v>
       </c>
       <c r="J7" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K7" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04609305537408359</v>
+        <v>0.03996746463476175</v>
       </c>
       <c r="M7" t="n">
-        <v>8.059109227788859</v>
+        <v>8.111514839624794</v>
       </c>
       <c r="N7" t="n">
-        <v>109.8646337604608</v>
+        <v>110.6137457018393</v>
       </c>
       <c r="O7" t="n">
-        <v>10.48163316284542</v>
+        <v>10.51730696052175</v>
       </c>
       <c r="P7" t="n">
-        <v>365.6836052417341</v>
+        <v>365.3895760803067</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28301,28 +28686,28 @@
         <v>0.0548</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3372754176720065</v>
+        <v>-0.3072142644582274</v>
       </c>
       <c r="J8" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K8" t="n">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04328753843212452</v>
+        <v>0.03644663016856908</v>
       </c>
       <c r="M8" t="n">
-        <v>8.203152019259885</v>
+        <v>8.246669893981458</v>
       </c>
       <c r="N8" t="n">
-        <v>113.0722257203416</v>
+        <v>113.8424690836292</v>
       </c>
       <c r="O8" t="n">
-        <v>10.6335424821807</v>
+        <v>10.66969864071283</v>
       </c>
       <c r="P8" t="n">
-        <v>365.3772417301977</v>
+        <v>365.034027648762</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28379,28 +28764,28 @@
         <v>0.0907</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2404804196473632</v>
+        <v>-0.217469365795473</v>
       </c>
       <c r="J9" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K9" t="n">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02179284229360856</v>
+        <v>0.01802004537675683</v>
       </c>
       <c r="M9" t="n">
-        <v>8.138273569457294</v>
+        <v>8.198376441878613</v>
       </c>
       <c r="N9" t="n">
-        <v>115.6800471373514</v>
+        <v>116.5655743083437</v>
       </c>
       <c r="O9" t="n">
-        <v>10.75546591911998</v>
+        <v>10.79655381630378</v>
       </c>
       <c r="P9" t="n">
-        <v>365.5916881542478</v>
+        <v>365.3282889599773</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28451,28 +28836,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.1143881159823034</v>
+        <v>-0.08967282318606597</v>
       </c>
       <c r="J10" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K10" t="n">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005586493410568938</v>
+        <v>0.003458396020647125</v>
       </c>
       <c r="M10" t="n">
-        <v>7.858797861041379</v>
+        <v>7.93015071875905</v>
       </c>
       <c r="N10" t="n">
-        <v>103.7687814731104</v>
+        <v>104.7776825859106</v>
       </c>
       <c r="O10" t="n">
-        <v>10.18669629826621</v>
+        <v>10.23609703871112</v>
       </c>
       <c r="P10" t="n">
-        <v>364.2392513291156</v>
+        <v>363.9561407048393</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28529,28 +28914,28 @@
         <v>0.0572</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02639191820780254</v>
+        <v>0.04558855781737921</v>
       </c>
       <c r="J11" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K11" t="n">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002732230307257444</v>
+        <v>0.000828081207526532</v>
       </c>
       <c r="M11" t="n">
-        <v>8.116690566483927</v>
+        <v>8.132722082999909</v>
       </c>
       <c r="N11" t="n">
-        <v>113.1965071051467</v>
+        <v>113.1575395528099</v>
       </c>
       <c r="O11" t="n">
-        <v>10.63938471459448</v>
+        <v>10.63755326909388</v>
       </c>
       <c r="P11" t="n">
-        <v>364.0422555118149</v>
+        <v>363.8231882192943</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28607,28 +28992,28 @@
         <v>0.0395</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03270332648229511</v>
+        <v>0.0373659989472066</v>
       </c>
       <c r="J12" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K12" t="n">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000349141725847657</v>
+        <v>0.0004656676859366993</v>
       </c>
       <c r="M12" t="n">
-        <v>8.825519516186283</v>
+        <v>8.807970161051879</v>
       </c>
       <c r="N12" t="n">
-        <v>132.9504172679833</v>
+        <v>132.3326191515105</v>
       </c>
       <c r="O12" t="n">
-        <v>11.53041271021915</v>
+        <v>11.50359157617787</v>
       </c>
       <c r="P12" t="n">
-        <v>367.7488687138978</v>
+        <v>367.6952131432823</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28666,7 +29051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M495"/>
+  <dimension ref="A1:M502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59895,6 +60280,475 @@
         </is>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-45.759890329902994,170.6783125233501</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-45.76014987883209,170.67909782026862</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-45.76041709601093,170.67988874477868</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-45.76070670723521,170.68067168528762</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>-45.7608340581013,170.68151462337852</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-45.761018689603,170.68235804559075</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>-45.76117353475274,170.6832167181869</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>-45.76130241954859,170.68406322665723</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>-45.76134066149028,170.68493243771977</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>-45.76135899625343,170.68580880558628</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>-45.76139859304852,170.686694086464</t>
+        </is>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-45.75982145561992,170.67836699871384</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-45.76007320082182,170.6791503003563</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-45.76036831051627,170.6799192836385</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-45.76061134295773,170.68072750290457</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-45.76086518809365,170.681500511099</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-45.76101830635862,170.68235820132182</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>-45.7611698741032,170.683218057611</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>-45.761273146252165,170.68407080920304</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>-45.76128165095241,170.68494190072343</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>-45.76131383561376,170.68581299206056</t>
+        </is>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>-45.761297118115976,170.68670019166936</t>
+        </is>
+      </c>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-45.76003146305651,170.67820089512122</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-45.76036595650373,170.6789499311457</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-45.76062130275795,170.67976091429625</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-45.76095146830684,170.68052842332636</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-45.76105539830205,170.6814142819951</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-45.761257685685926,170.68226092924866</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>-45.76138123299999,170.68314072151392</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>-45.76153660589133,170.68400256598392</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>-45.76153316100556,170.68490156809918</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>-45.761528595548754,170.68579308334625</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>-45.761518457259555,170.68668687483589</t>
+        </is>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-45.75989473785611,170.67830903692217</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-45.76014111563231,170.67910381800039</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-45.760422782157505,170.6798851853472</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-45.760675745531834,170.68068980749007</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-45.76085841324703,170.68150358236784</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>-45.76104101667801,170.68234897299587</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>-45.76119828771572,170.68320766112396</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>-45.76128866818161,170.68406678862033</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>-45.761360063439476,170.68492932639398</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>-45.761383417115965,170.685806541724</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>-45.761423043601376,170.68669261540026</t>
+        </is>
+      </c>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:14:29+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-45.75990142849902,170.67830374502157</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-45.760170001733854,170.67908404769216</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-45.76042204048621,170.67988564962093</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-45.76070607819554,170.6806720534712</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-45.76086930445612,170.6814986450112</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>-45.76104152354957,170.6823487670288</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>-45.76122216909458,170.6831989229637</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>-45.76130522293882,170.6840625005057</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>-45.76139135690552,170.68492430812148</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>-45.76141555928036,170.68580356207806</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>-45.76146454790087,170.68669011829658</t>
+        </is>
+      </c>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-45.76002422142531,170.67820662285243</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-45.76027386184158,170.67901296326542</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-45.76056658393664,170.67979516759448</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-45.76078626223864,170.68062512082466</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>-45.76101663590377,170.68143185443182</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>-45.761148695968956,170.68230521746253</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>-45.7612991298823,170.68317076307278</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>-45.76146321609911,170.68402157600912</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>-45.76154389019305,170.6848998475374</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>-45.76154565423866,170.6857915019605</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>-45.761592990349904,170.68668239053306</t>
+        </is>
+      </c>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-45.759897335399856,170.6783069824197</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-45.76010679309641,170.6791273090979</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-45.76037251332108,170.67991665275915</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-45.7606249413192,170.6807195436676</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-45.76087342081853,170.68149677892316</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>-45.76104508401327,170.68234732023552</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>-45.7611683052534,170.68321863164982</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>-45.76127465123013,170.6840704193748</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>-45.761332435779046,170.6849337568065</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>-45.76142866753726,170.68580234691402</t>
+        </is>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>-45.76141567247884,170.6866930588829</t>
+        </is>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0500/nzd0500.xlsx
+++ b/data/nzd0500/nzd0500.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M502"/>
+  <dimension ref="A1:M504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22076,6 +22076,96 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>375.37</v>
+      </c>
+      <c r="C503" t="n">
+        <v>379.93</v>
+      </c>
+      <c r="D503" t="n">
+        <v>377.89</v>
+      </c>
+      <c r="E503" t="n">
+        <v>376.9866666666667</v>
+      </c>
+      <c r="F503" t="n">
+        <v>370.7</v>
+      </c>
+      <c r="G503" t="n">
+        <v>364.5928571428572</v>
+      </c>
+      <c r="H503" t="n">
+        <v>372.12</v>
+      </c>
+      <c r="I503" t="n">
+        <v>374.23</v>
+      </c>
+      <c r="J503" t="n">
+        <v>372.04</v>
+      </c>
+      <c r="K503" t="n">
+        <v>371.01</v>
+      </c>
+      <c r="L503" t="n">
+        <v>373.5057142857143</v>
+      </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>364.39</v>
+      </c>
+      <c r="C504" t="n">
+        <v>367.66</v>
+      </c>
+      <c r="D504" t="n">
+        <v>367.36</v>
+      </c>
+      <c r="E504" t="n">
+        <v>362.0988888888889</v>
+      </c>
+      <c r="F504" t="n">
+        <v>362.08</v>
+      </c>
+      <c r="G504" t="n">
+        <v>364.8757142857143</v>
+      </c>
+      <c r="H504" t="n">
+        <v>361.97</v>
+      </c>
+      <c r="I504" t="n">
+        <v>367.0833333333333</v>
+      </c>
+      <c r="J504" t="n">
+        <v>371.97</v>
+      </c>
+      <c r="K504" t="n">
+        <v>367.25</v>
+      </c>
+      <c r="L504" t="n">
+        <v>367.3814285714286</v>
+      </c>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22087,7 +22177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B595"/>
+  <dimension ref="A1:B598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28045,6 +28135,36 @@
       </c>
       <c r="B595" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>-0.68</v>
       </c>
     </row>
   </sheetData>
@@ -28218,28 +28338,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2503992357993333</v>
+        <v>-0.2455988084114918</v>
       </c>
       <c r="J2" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K2" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02025419856496868</v>
+        <v>0.01962202798475987</v>
       </c>
       <c r="M2" t="n">
-        <v>9.47518923915371</v>
+        <v>9.457255761155183</v>
       </c>
       <c r="N2" t="n">
-        <v>144.0325774339113</v>
+        <v>143.669032589785</v>
       </c>
       <c r="O2" t="n">
-        <v>12.00135731631682</v>
+        <v>11.98620175826292</v>
       </c>
       <c r="P2" t="n">
-        <v>370.7430925736843</v>
+        <v>370.6892140617414</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28296,28 +28416,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2433063386440109</v>
+        <v>-0.2359550004466024</v>
       </c>
       <c r="J3" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K3" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01910974101100715</v>
+        <v>0.01807784739600093</v>
       </c>
       <c r="M3" t="n">
-        <v>9.425238992509769</v>
+        <v>9.421372855690871</v>
       </c>
       <c r="N3" t="n">
-        <v>141.2244747444247</v>
+        <v>141.0894470751247</v>
       </c>
       <c r="O3" t="n">
-        <v>11.88379041991337</v>
+        <v>11.87810789120577</v>
       </c>
       <c r="P3" t="n">
-        <v>371.5027526695294</v>
+        <v>371.4192155619984</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28374,28 +28494,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3116146636069528</v>
+        <v>-0.3019063297002803</v>
       </c>
       <c r="J4" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K4" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03224781455600878</v>
+        <v>0.03042262571459975</v>
       </c>
       <c r="M4" t="n">
-        <v>8.905335892256881</v>
+        <v>8.913254918390072</v>
       </c>
       <c r="N4" t="n">
-        <v>134.6209670525814</v>
+        <v>134.7106242667226</v>
       </c>
       <c r="O4" t="n">
-        <v>11.6026275926008</v>
+        <v>11.60649060942723</v>
       </c>
       <c r="P4" t="n">
-        <v>369.2484835061898</v>
+        <v>369.137790166092</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28452,28 +28572,28 @@
         <v>0.0483</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3475461331263274</v>
+        <v>-0.3397125513337609</v>
       </c>
       <c r="J5" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K5" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03906143893525527</v>
+        <v>0.03752334970008686</v>
       </c>
       <c r="M5" t="n">
-        <v>9.026106301032888</v>
+        <v>9.024266760974278</v>
       </c>
       <c r="N5" t="n">
-        <v>136.3999120324469</v>
+        <v>136.4027627310637</v>
       </c>
       <c r="O5" t="n">
-        <v>11.67903729048105</v>
+        <v>11.67915933323386</v>
       </c>
       <c r="P5" t="n">
-        <v>369.3815271652475</v>
+        <v>369.2918862532509</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28530,28 +28650,28 @@
         <v>0.0541</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3323214294868977</v>
+        <v>-0.3256132046754017</v>
       </c>
       <c r="J6" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K6" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0389360135023511</v>
+        <v>0.03764138696432129</v>
       </c>
       <c r="M6" t="n">
-        <v>8.667021752722102</v>
+        <v>8.659716716505796</v>
       </c>
       <c r="N6" t="n">
-        <v>124.7954687030479</v>
+        <v>124.5892339329208</v>
       </c>
       <c r="O6" t="n">
-        <v>11.17118922510258</v>
+        <v>11.16195475411546</v>
       </c>
       <c r="P6" t="n">
-        <v>367.2580462321818</v>
+        <v>367.1813097307993</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28608,28 +28728,28 @@
         <v>0.0825</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3172427454067759</v>
+        <v>-0.3106810827395064</v>
       </c>
       <c r="J7" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K7" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03996746463476175</v>
+        <v>0.03861922714226451</v>
       </c>
       <c r="M7" t="n">
-        <v>8.111514839624794</v>
+        <v>8.107719181587234</v>
       </c>
       <c r="N7" t="n">
-        <v>110.6137457018393</v>
+        <v>110.3778773880561</v>
       </c>
       <c r="O7" t="n">
-        <v>10.51730696052175</v>
+        <v>10.50608763470285</v>
       </c>
       <c r="P7" t="n">
-        <v>365.3895760803067</v>
+        <v>365.3143849823661</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28686,28 +28806,28 @@
         <v>0.0548</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3072142644582274</v>
+        <v>-0.2984468745816775</v>
       </c>
       <c r="J8" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K8" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03644663016856908</v>
+        <v>0.03458917848853549</v>
       </c>
       <c r="M8" t="n">
-        <v>8.246669893981458</v>
+        <v>8.250428599032716</v>
       </c>
       <c r="N8" t="n">
-        <v>113.8424690836292</v>
+        <v>113.8809090279278</v>
       </c>
       <c r="O8" t="n">
-        <v>10.66969864071283</v>
+        <v>10.67149984903377</v>
       </c>
       <c r="P8" t="n">
-        <v>365.034027648762</v>
+        <v>364.933512609518</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28764,28 +28884,28 @@
         <v>0.0907</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.217469365795473</v>
+        <v>-0.207669875144652</v>
       </c>
       <c r="J9" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K9" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01802004537675683</v>
+        <v>0.01651749936102098</v>
       </c>
       <c r="M9" t="n">
-        <v>8.198376441878613</v>
+        <v>8.205561183131428</v>
       </c>
       <c r="N9" t="n">
-        <v>116.5655743083437</v>
+        <v>116.6261681876624</v>
       </c>
       <c r="O9" t="n">
-        <v>10.79655381630378</v>
+        <v>10.79935961933217</v>
       </c>
       <c r="P9" t="n">
-        <v>365.3282889599773</v>
+        <v>365.2156334314752</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28836,28 +28956,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.08967282318606597</v>
+        <v>-0.080293273350091</v>
       </c>
       <c r="J10" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K10" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003458396020647125</v>
+        <v>0.002786018430152359</v>
       </c>
       <c r="M10" t="n">
-        <v>7.93015071875905</v>
+        <v>7.941106463054457</v>
       </c>
       <c r="N10" t="n">
-        <v>104.7776825859106</v>
+        <v>104.7824440738254</v>
       </c>
       <c r="O10" t="n">
-        <v>10.23609703871112</v>
+        <v>10.23632961924465</v>
       </c>
       <c r="P10" t="n">
-        <v>363.9561407048393</v>
+        <v>363.8481328482138</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28914,28 +29034,28 @@
         <v>0.0572</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04558855781737921</v>
+        <v>0.04943858340916315</v>
       </c>
       <c r="J11" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K11" t="n">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000828081207526532</v>
+        <v>0.0009816049264197435</v>
       </c>
       <c r="M11" t="n">
-        <v>8.132722082999909</v>
+        <v>8.113163074723451</v>
       </c>
       <c r="N11" t="n">
-        <v>113.1575395528099</v>
+        <v>112.7425340639531</v>
       </c>
       <c r="O11" t="n">
-        <v>10.63755326909388</v>
+        <v>10.61802872777961</v>
       </c>
       <c r="P11" t="n">
-        <v>363.8231882192943</v>
+        <v>363.7790215100339</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28992,28 +29112,28 @@
         <v>0.0395</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0373659989472066</v>
+        <v>0.03912850126392282</v>
       </c>
       <c r="J12" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K12" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004656676859366993</v>
+        <v>0.0005151953717505986</v>
       </c>
       <c r="M12" t="n">
-        <v>8.807970161051879</v>
+        <v>8.780067915549587</v>
       </c>
       <c r="N12" t="n">
-        <v>132.3326191515105</v>
+        <v>131.7701829190015</v>
       </c>
       <c r="O12" t="n">
-        <v>11.50359157617787</v>
+        <v>11.47911943134148</v>
       </c>
       <c r="P12" t="n">
-        <v>367.6952131432823</v>
+        <v>367.6747877600424</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29051,7 +29171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M502"/>
+  <dimension ref="A1:M504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60749,6 +60869,140 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-45.759901979493115,170.67830330921794</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-45.76014793145439,170.6790991530981</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-45.76038405043197,170.6799094307353</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-45.760640944832176,170.6807101766694</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-45.76087942384701,170.68149405754426</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>-45.761087859026674,170.68232993860696</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>-45.76118068173511,170.6832141031203</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>-45.76128282532606,170.6840683020719</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>-45.76137132908732,170.6849275198166</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>-45.76142130536558,170.6858030294035</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>-45.76141230795949,170.68669326130873</t>
+        </is>
+      </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-45.75998840683144,170.67823495019658</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-45.76024749111594,170.6790310120712</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-45.76047082597033,170.67985511070097</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-45.76076489339692,170.68063762826935</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>-45.760953346847906,170.68146054565682</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>-45.76108541120807,170.68233093327893</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>-45.761269147424784,170.6831817336402</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>-45.76134609341677,170.6840519139722</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>-45.76137195495663,170.68492741945118</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>-45.761455063616054,170.68579989993776</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>-45.76146736022808,170.6866899490929</t>
+        </is>
+      </c>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0500/nzd0500.xlsx
+++ b/data/nzd0500/nzd0500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M504"/>
+  <dimension ref="A1:M506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22166,6 +22166,94 @@
         </is>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>348.11</v>
+      </c>
+      <c r="C505" t="n">
+        <v>345.35</v>
+      </c>
+      <c r="D505" t="n">
+        <v>354.18</v>
+      </c>
+      <c r="E505" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="F505" t="n">
+        <v>362.33</v>
+      </c>
+      <c r="G505" t="n">
+        <v>359.6185714285714</v>
+      </c>
+      <c r="H505" t="n">
+        <v>348.48</v>
+      </c>
+      <c r="I505" t="n">
+        <v>340.21</v>
+      </c>
+      <c r="J505" t="n">
+        <v>350.51</v>
+      </c>
+      <c r="K505" t="n">
+        <v>355.05</v>
+      </c>
+      <c r="L505" t="n">
+        <v>364.0871428571429</v>
+      </c>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>377.02</v>
+      </c>
+      <c r="C506" t="n">
+        <v>379.37</v>
+      </c>
+      <c r="D506" t="n">
+        <v>377.24</v>
+      </c>
+      <c r="E506" t="n">
+        <v>369.4244444444445</v>
+      </c>
+      <c r="F506" t="n">
+        <v>379.55</v>
+      </c>
+      <c r="G506" t="n">
+        <v>373.9571428571429</v>
+      </c>
+      <c r="H506" t="n">
+        <v>382.35</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>382.39</v>
+      </c>
+      <c r="K506" t="n">
+        <v>382.97</v>
+      </c>
+      <c r="L506" t="n">
+        <v>383.5642857142857</v>
+      </c>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22177,7 +22265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B598"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28165,6 +28253,26 @@
       </c>
       <c r="B598" t="n">
         <v>-0.68</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -28338,28 +28446,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2455988084114918</v>
+        <v>-0.2471198039667837</v>
       </c>
       <c r="J2" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K2" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01962202798475987</v>
+        <v>0.01989512784578495</v>
       </c>
       <c r="M2" t="n">
-        <v>9.457255761155183</v>
+        <v>9.47924054812143</v>
       </c>
       <c r="N2" t="n">
-        <v>143.669032589785</v>
+        <v>143.9669964406231</v>
       </c>
       <c r="O2" t="n">
-        <v>11.98620175826292</v>
+        <v>11.99862477289056</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6892140617414</v>
+        <v>370.7062818659948</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28416,28 +28524,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2359550004466024</v>
+        <v>-0.238484905586012</v>
       </c>
       <c r="J3" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K3" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01807784739600093</v>
+        <v>0.01844388095268368</v>
       </c>
       <c r="M3" t="n">
-        <v>9.421372855690871</v>
+        <v>9.453753356393705</v>
       </c>
       <c r="N3" t="n">
-        <v>141.0894470751247</v>
+        <v>141.7607592639882</v>
       </c>
       <c r="O3" t="n">
-        <v>11.87810789120577</v>
+        <v>11.90633273783276</v>
       </c>
       <c r="P3" t="n">
-        <v>371.4192155619984</v>
+        <v>371.4479864983529</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28494,28 +28602,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3019063297002803</v>
+        <v>-0.2981937229728566</v>
       </c>
       <c r="J4" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K4" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03042262571459975</v>
+        <v>0.02979577616379647</v>
       </c>
       <c r="M4" t="n">
-        <v>8.913254918390072</v>
+        <v>8.92334467777998</v>
       </c>
       <c r="N4" t="n">
-        <v>134.7106242667226</v>
+        <v>134.7825273616245</v>
       </c>
       <c r="O4" t="n">
-        <v>11.60649060942723</v>
+        <v>11.60958773435235</v>
       </c>
       <c r="P4" t="n">
-        <v>369.137790166092</v>
+        <v>369.0952403221769</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28572,28 +28680,28 @@
         <v>0.0483</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3397125513337609</v>
+        <v>-0.3362036369702485</v>
       </c>
       <c r="J5" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K5" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03752334970008686</v>
+        <v>0.03702420580747234</v>
       </c>
       <c r="M5" t="n">
-        <v>9.024266760974278</v>
+        <v>9.00553383983295</v>
       </c>
       <c r="N5" t="n">
-        <v>136.4027627310637</v>
+        <v>135.9919208322376</v>
       </c>
       <c r="O5" t="n">
-        <v>11.67915933323386</v>
+        <v>11.66155739308595</v>
       </c>
       <c r="P5" t="n">
-        <v>369.2918862532509</v>
+        <v>369.2515374693742</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28650,28 +28758,28 @@
         <v>0.0541</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3256132046754017</v>
+        <v>-0.315026157540804</v>
       </c>
       <c r="J6" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K6" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03764138696432129</v>
+        <v>0.03534198328329152</v>
       </c>
       <c r="M6" t="n">
-        <v>8.659716716505796</v>
+        <v>8.669704755122785</v>
       </c>
       <c r="N6" t="n">
-        <v>124.5892339329208</v>
+        <v>124.9975171108589</v>
       </c>
       <c r="O6" t="n">
-        <v>11.16195475411546</v>
+        <v>11.18022884876955</v>
       </c>
       <c r="P6" t="n">
-        <v>367.1813097307993</v>
+        <v>367.0596983284776</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28728,28 +28836,28 @@
         <v>0.0825</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3106810827395064</v>
+        <v>-0.3024276390707654</v>
       </c>
       <c r="J7" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K7" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03861922714226451</v>
+        <v>0.03676721576582931</v>
       </c>
       <c r="M7" t="n">
-        <v>8.107719181587234</v>
+        <v>8.112080568095253</v>
       </c>
       <c r="N7" t="n">
-        <v>110.3778773880561</v>
+        <v>110.5058015005178</v>
       </c>
       <c r="O7" t="n">
-        <v>10.50608763470285</v>
+        <v>10.51217396643139</v>
       </c>
       <c r="P7" t="n">
-        <v>365.3143849823661</v>
+        <v>365.2194933764642</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28806,28 +28914,28 @@
         <v>0.0548</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2984468745816775</v>
+        <v>-0.291223886359007</v>
       </c>
       <c r="J8" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K8" t="n">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03458917848853549</v>
+        <v>0.03282979580971512</v>
       </c>
       <c r="M8" t="n">
-        <v>8.250428599032716</v>
+        <v>8.28512277445545</v>
       </c>
       <c r="N8" t="n">
-        <v>113.8809090279278</v>
+        <v>114.9136358412809</v>
       </c>
       <c r="O8" t="n">
-        <v>10.67149984903377</v>
+        <v>10.71977778880145</v>
       </c>
       <c r="P8" t="n">
-        <v>364.933512609518</v>
+        <v>364.8503022688777</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28884,28 +28992,28 @@
         <v>0.0907</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.207669875144652</v>
+        <v>-0.2164879393963088</v>
       </c>
       <c r="J9" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K9" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01651749936102098</v>
+        <v>0.01787361196741655</v>
       </c>
       <c r="M9" t="n">
-        <v>8.205561183131428</v>
+        <v>8.234261049464106</v>
       </c>
       <c r="N9" t="n">
-        <v>116.6261681876624</v>
+        <v>117.2056204866909</v>
       </c>
       <c r="O9" t="n">
-        <v>10.79935961933217</v>
+        <v>10.8261544643835</v>
       </c>
       <c r="P9" t="n">
-        <v>365.2156334314752</v>
+        <v>365.3172906301734</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28956,28 +29064,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.080293273350091</v>
+        <v>-0.07606777901015707</v>
       </c>
       <c r="J10" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K10" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002786018430152359</v>
+        <v>0.002493791409353796</v>
       </c>
       <c r="M10" t="n">
-        <v>7.941106463054457</v>
+        <v>7.976242985585084</v>
       </c>
       <c r="N10" t="n">
-        <v>104.7824440738254</v>
+        <v>105.5302952364285</v>
       </c>
       <c r="O10" t="n">
-        <v>10.23632961924465</v>
+        <v>10.27279393526554</v>
       </c>
       <c r="P10" t="n">
-        <v>363.8481328482138</v>
+        <v>363.7992433212467</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29034,28 +29142,28 @@
         <v>0.0572</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04943858340916315</v>
+        <v>0.05312142694066722</v>
       </c>
       <c r="J11" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K11" t="n">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0009816049264197435</v>
+        <v>0.00113374129129673</v>
       </c>
       <c r="M11" t="n">
-        <v>8.113163074723451</v>
+        <v>8.137623265331495</v>
       </c>
       <c r="N11" t="n">
-        <v>112.7425340639531</v>
+        <v>113.1771160389456</v>
       </c>
       <c r="O11" t="n">
-        <v>10.61802872777961</v>
+        <v>10.63847338855278</v>
       </c>
       <c r="P11" t="n">
-        <v>363.7790215100339</v>
+        <v>363.7365443113916</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29112,28 +29220,28 @@
         <v>0.0395</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03912850126392282</v>
+        <v>0.04420618277340812</v>
       </c>
       <c r="J12" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K12" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0005151953717505986</v>
+        <v>0.0006608136196857295</v>
       </c>
       <c r="M12" t="n">
-        <v>8.780067915549587</v>
+        <v>8.78188307491615</v>
       </c>
       <c r="N12" t="n">
-        <v>131.7701829190015</v>
+        <v>131.7193847753524</v>
       </c>
       <c r="O12" t="n">
-        <v>11.47911943134148</v>
+        <v>11.47690658563327</v>
       </c>
       <c r="P12" t="n">
-        <v>367.6747877600424</v>
+        <v>367.6155746256163</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29171,7 +29279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M504"/>
+  <dimension ref="A1:M506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48611,7 +48719,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-45.76020486854154,170.6780637404112</t>
+          <t>-45.760204868541535,170.6780637404112</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -61003,6 +61111,136 @@
         </is>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-45.76011655219884,170.67813359416644</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-45.76042851593855,170.67890711361116</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-45.76057943956441,170.679787120139</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-45.76078403284875,170.68062642571437</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-45.76095120290953,170.6814615175806</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-45.76113090601641,170.6823124464313</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>-45.76138672397243,170.68313871236177</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>-45.7615839979298,170.68399029008071</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>-45.76156382859965,170.6848966501581</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>-45.76156459836258,170.68578974578864</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>-45.76149697313457,170.6866881674309</t>
+        </is>
+      </c>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>-45.759888991774346,170.67831358172987</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>-45.76015247533564,170.67909604316256</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>-45.76038940694756,170.67990607765176</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>-45.76070390430851,170.68067332587032</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>-45.76080352840971,170.68152846350458</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>-45.76100682138999,170.68236286822946</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>-45.76109151876636,170.6832467276205</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>-45.761278789835394,170.68494235953517</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>-45.76131392539635,170.68581298373758</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>-45.76132188971135,170.68669870129733</t>
+        </is>
+      </c>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0500/nzd0500.xlsx
+++ b/data/nzd0500/nzd0500.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M506"/>
+  <dimension ref="A1:M510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22238,7 +22238,9 @@
       <c r="H506" t="n">
         <v>382.35</v>
       </c>
-      <c r="I506" t="inlineStr"/>
+      <c r="I506" t="n">
+        <v>382.7466666666666</v>
+      </c>
       <c r="J506" t="n">
         <v>382.39</v>
       </c>
@@ -22249,6 +22251,186 @@
         <v>383.5642857142857</v>
       </c>
       <c r="M506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>378.75</v>
+      </c>
+      <c r="C507" t="n">
+        <v>379.12</v>
+      </c>
+      <c r="D507" t="n">
+        <v>375.14</v>
+      </c>
+      <c r="E507" t="n">
+        <v>371.8233333333333</v>
+      </c>
+      <c r="F507" t="n">
+        <v>375.08</v>
+      </c>
+      <c r="G507" t="n">
+        <v>374.7728571428572</v>
+      </c>
+      <c r="H507" t="n">
+        <v>375.21</v>
+      </c>
+      <c r="I507" t="n">
+        <v>375.72</v>
+      </c>
+      <c r="J507" t="n">
+        <v>379.63</v>
+      </c>
+      <c r="K507" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="L507" t="n">
+        <v>381.8457142857143</v>
+      </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>372.91</v>
+      </c>
+      <c r="C508" t="n">
+        <v>371.21</v>
+      </c>
+      <c r="D508" t="n">
+        <v>366.66</v>
+      </c>
+      <c r="E508" t="n">
+        <v>359.3677777777777</v>
+      </c>
+      <c r="F508" t="n">
+        <v>365.58</v>
+      </c>
+      <c r="G508" t="n">
+        <v>371.2257142857143</v>
+      </c>
+      <c r="H508" t="n">
+        <v>368.71</v>
+      </c>
+      <c r="I508" t="n">
+        <v>373.5766666666667</v>
+      </c>
+      <c r="J508" t="n">
+        <v>373.21</v>
+      </c>
+      <c r="K508" t="n">
+        <v>373.27</v>
+      </c>
+      <c r="L508" t="n">
+        <v>374.5214285714285</v>
+      </c>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>375.33</v>
+      </c>
+      <c r="C509" t="n">
+        <v>375.55</v>
+      </c>
+      <c r="D509" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="E509" t="n">
+        <v>364.1322222222223</v>
+      </c>
+      <c r="F509" t="n">
+        <v>368.61</v>
+      </c>
+      <c r="G509" t="n">
+        <v>372.9542857142857</v>
+      </c>
+      <c r="H509" t="n">
+        <v>372.05</v>
+      </c>
+      <c r="I509" t="n">
+        <v>375.6033333333334</v>
+      </c>
+      <c r="J509" t="n">
+        <v>377.74</v>
+      </c>
+      <c r="K509" t="n">
+        <v>376.5</v>
+      </c>
+      <c r="L509" t="n">
+        <v>379.4585714285714</v>
+      </c>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>347.37</v>
+      </c>
+      <c r="C510" t="n">
+        <v>358.21</v>
+      </c>
+      <c r="D510" t="n">
+        <v>354.47</v>
+      </c>
+      <c r="E510" t="n">
+        <v>354.3477777777778</v>
+      </c>
+      <c r="F510" t="n">
+        <v>350.93</v>
+      </c>
+      <c r="G510" t="n">
+        <v>352.3585714285715</v>
+      </c>
+      <c r="H510" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="I510" t="n">
+        <v>367.7466666666666</v>
+      </c>
+      <c r="J510" t="n">
+        <v>369.79</v>
+      </c>
+      <c r="K510" t="n">
+        <v>371.85</v>
+      </c>
+      <c r="L510" t="n">
+        <v>375.2171428571429</v>
+      </c>
+      <c r="M510" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -22265,7 +22447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B600"/>
+  <dimension ref="A1:B604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28273,6 +28455,46 @@
       </c>
       <c r="B600" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -28446,28 +28668,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2471198039667837</v>
+        <v>-0.2399829986998051</v>
       </c>
       <c r="J2" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K2" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01989512784578495</v>
+        <v>0.01889184743188932</v>
       </c>
       <c r="M2" t="n">
-        <v>9.47924054812143</v>
+        <v>9.506017205535546</v>
       </c>
       <c r="N2" t="n">
-        <v>143.9669964406231</v>
+        <v>144.2088588526045</v>
       </c>
       <c r="O2" t="n">
-        <v>11.99862477289056</v>
+        <v>12.00869929895009</v>
       </c>
       <c r="P2" t="n">
-        <v>370.7062818659948</v>
+        <v>370.6259208947904</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28524,28 +28746,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.238484905586012</v>
+        <v>-0.2288607000206489</v>
       </c>
       <c r="J3" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01844388095268368</v>
+        <v>0.01718438716022674</v>
       </c>
       <c r="M3" t="n">
-        <v>9.453753356393705</v>
+        <v>9.451926358937914</v>
       </c>
       <c r="N3" t="n">
-        <v>141.7607592639882</v>
+        <v>141.3611501599444</v>
       </c>
       <c r="O3" t="n">
-        <v>11.90633273783276</v>
+        <v>11.88953952682544</v>
       </c>
       <c r="P3" t="n">
-        <v>371.4479864983529</v>
+        <v>371.3380628638682</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28602,28 +28824,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2981937229728566</v>
+        <v>-0.2881298859955088</v>
       </c>
       <c r="J4" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K4" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02979577616379647</v>
+        <v>0.02813367016764867</v>
       </c>
       <c r="M4" t="n">
-        <v>8.92334467777998</v>
+        <v>8.925316882785681</v>
       </c>
       <c r="N4" t="n">
-        <v>134.7825273616245</v>
+        <v>134.5077384699279</v>
       </c>
       <c r="O4" t="n">
-        <v>11.60958773435235</v>
+        <v>11.5977471290733</v>
       </c>
       <c r="P4" t="n">
-        <v>369.0952403221769</v>
+        <v>368.9799441693757</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28680,28 +28902,28 @@
         <v>0.0483</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3362036369702485</v>
+        <v>-0.3330995081412434</v>
       </c>
       <c r="J5" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K5" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03702420580747234</v>
+        <v>0.03683484343111265</v>
       </c>
       <c r="M5" t="n">
-        <v>9.00553383983295</v>
+        <v>8.975716336029038</v>
       </c>
       <c r="N5" t="n">
-        <v>135.9919208322376</v>
+        <v>135.2232460340912</v>
       </c>
       <c r="O5" t="n">
-        <v>11.66155739308595</v>
+        <v>11.62855304988936</v>
       </c>
       <c r="P5" t="n">
-        <v>369.2515374693742</v>
+        <v>369.2159188135251</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28758,28 +28980,28 @@
         <v>0.0541</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.315026157540804</v>
+        <v>-0.3045886543660308</v>
       </c>
       <c r="J6" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K6" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03534198328329152</v>
+        <v>0.03338799413619875</v>
       </c>
       <c r="M6" t="n">
-        <v>8.669704755122785</v>
+        <v>8.677207846856797</v>
       </c>
       <c r="N6" t="n">
-        <v>124.9975171108589</v>
+        <v>124.9109480001352</v>
       </c>
       <c r="O6" t="n">
-        <v>11.18022884876955</v>
+        <v>11.17635665143768</v>
       </c>
       <c r="P6" t="n">
-        <v>367.0596983284776</v>
+        <v>366.9397467483433</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28836,28 +29058,28 @@
         <v>0.0825</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3024276390707654</v>
+        <v>-0.2846710729959778</v>
       </c>
       <c r="J7" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K7" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03676721576582931</v>
+        <v>0.03277329189272449</v>
       </c>
       <c r="M7" t="n">
-        <v>8.112080568095253</v>
+        <v>8.150200282122027</v>
       </c>
       <c r="N7" t="n">
-        <v>110.5058015005178</v>
+        <v>111.1561923234079</v>
       </c>
       <c r="O7" t="n">
-        <v>10.51217396643139</v>
+        <v>10.54306370669399</v>
       </c>
       <c r="P7" t="n">
-        <v>365.2194933764642</v>
+        <v>365.0150782984692</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28914,28 +29136,28 @@
         <v>0.0548</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.291223886359007</v>
+        <v>-0.2717162873761557</v>
       </c>
       <c r="J8" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K8" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03282979580971512</v>
+        <v>0.02881925972235921</v>
       </c>
       <c r="M8" t="n">
-        <v>8.28512277445545</v>
+        <v>8.301482890035322</v>
       </c>
       <c r="N8" t="n">
-        <v>114.9136358412809</v>
+        <v>115.3319714915857</v>
       </c>
       <c r="O8" t="n">
-        <v>10.71977778880145</v>
+        <v>10.73927239116253</v>
       </c>
       <c r="P8" t="n">
-        <v>364.8503022688777</v>
+        <v>364.6253431270375</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28992,28 +29214,28 @@
         <v>0.0907</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2164879393963088</v>
+        <v>-0.1829120056126394</v>
       </c>
       <c r="J9" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K9" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01787361196741655</v>
+        <v>0.01279925509436952</v>
       </c>
       <c r="M9" t="n">
-        <v>8.234261049464106</v>
+        <v>8.295745306182573</v>
       </c>
       <c r="N9" t="n">
-        <v>117.2056204866909</v>
+        <v>118.6463968349335</v>
       </c>
       <c r="O9" t="n">
-        <v>10.8261544643835</v>
+        <v>10.89249268234473</v>
       </c>
       <c r="P9" t="n">
-        <v>365.3172906301734</v>
+        <v>364.9292489940196</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29064,28 +29286,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.07606777901015707</v>
+        <v>-0.05265167887271598</v>
       </c>
       <c r="J10" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K10" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002493791409353796</v>
+        <v>0.001198126598975446</v>
       </c>
       <c r="M10" t="n">
-        <v>7.976242985585084</v>
+        <v>8.021264111878509</v>
       </c>
       <c r="N10" t="n">
-        <v>105.5302952364285</v>
+        <v>106.2302060658921</v>
       </c>
       <c r="O10" t="n">
-        <v>10.27279393526554</v>
+        <v>10.30680387248598</v>
       </c>
       <c r="P10" t="n">
-        <v>363.7992433212467</v>
+        <v>363.5281310344449</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29142,28 +29364,28 @@
         <v>0.0572</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05312142694066722</v>
+        <v>0.07258033757052498</v>
       </c>
       <c r="J11" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K11" t="n">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00113374129129673</v>
+        <v>0.002130509677703007</v>
       </c>
       <c r="M11" t="n">
-        <v>8.137623265331495</v>
+        <v>8.149647135922377</v>
       </c>
       <c r="N11" t="n">
-        <v>113.1771160389456</v>
+        <v>113.2912676953932</v>
       </c>
       <c r="O11" t="n">
-        <v>10.63847338855278</v>
+        <v>10.64383707576329</v>
       </c>
       <c r="P11" t="n">
-        <v>363.7365443113916</v>
+        <v>363.5119788012065</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29220,28 +29442,28 @@
         <v>0.0395</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04420618277340812</v>
+        <v>0.06156509376467528</v>
       </c>
       <c r="J12" t="n">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K12" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0006608136196857295</v>
+        <v>0.001296600269966142</v>
       </c>
       <c r="M12" t="n">
-        <v>8.78188307491615</v>
+        <v>8.773775283461944</v>
       </c>
       <c r="N12" t="n">
-        <v>131.7193847753524</v>
+        <v>131.3142406220628</v>
       </c>
       <c r="O12" t="n">
-        <v>11.47690658563327</v>
+        <v>11.45924258500809</v>
       </c>
       <c r="P12" t="n">
-        <v>367.6155746256163</v>
+        <v>367.4128361701304</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29279,7 +29501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M506"/>
+  <dimension ref="A1:M510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61219,7 +61441,11 @@
           <t>-45.76109151876636,170.6832467276205</t>
         </is>
       </c>
-      <c r="I506" t="inlineStr"/>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>-45.76120742887919,170.68408783168164</t>
+        </is>
+      </c>
       <c r="J506" t="inlineStr">
         <is>
           <t>-45.761278789835394,170.68494235953517</t>
@@ -61236,6 +61462,274 @@
         </is>
       </c>
       <c r="M506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-45.75987537434688,170.6783243522978</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-45.76015450385403,170.67909465479832</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-45.76040671261252,170.67989524460816</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-45.76068393229866,170.6806850156937</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-45.76084186203901,170.68151108559098</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-45.76099976227566,170.68236573669378</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>-45.761153749813325,170.683223957453</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>-45.76126963463693,170.68407171880222</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>-45.761303466969636,170.68493840228226</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>-45.761325507349724,170.68581191007</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>-45.761337338248985,170.68669777184206</t>
+        </is>
+      </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>-45.75992134299917,170.67828799382744</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>-45.760218686165715,170.67905072690073</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>-45.76047659452356,170.6798514996764</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-45.76078763132456,170.68062431948155</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>-45.76092333170982,170.68147415258275</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>-45.76103045891397,170.68235326313857</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>-45.76121040272188,170.6832032282626</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>-45.76128860916288,170.68406680390774</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>-45.761360868128605,170.68492919735277</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>-45.76140101450209,170.68580491040998</t>
+        </is>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>-45.761403177527185,170.6866938106397</t>
+        </is>
+      </c>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>-45.75990229434691,170.67830306018726</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>-45.76018347109447,170.6790748289458</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>-45.76042022751195,170.67988678451215</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-45.760747964832824,170.68064753675756</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>-45.76089734717434,170.68148593228068</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>-45.76101550002077,170.68235934167512</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>-45.76118129184336,170.68321387988289</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>-45.76127066746495,170.68407145127307</t>
+        </is>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>-45.76132036544184,170.68493569242204</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>-45.76137201472797,170.68580759874823</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>-45.76135879669143,170.68669648080206</t>
+        </is>
+      </c>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>-45.76012237698584,170.67812898706293</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>-45.76032416906289,170.67897853164922</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>-45.76057704973622,170.67978861614063</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>-45.76082942544385,170.68059985683925</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>-45.76104896648842,170.6814171977773</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>-45.76119373335131,170.682286916445</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>-45.76129939135722,170.68317066739917</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>-45.761340221052166,170.6840534350708</t>
+        </is>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>-45.76139144631543,170.68492429378352</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>-45.76141376362872,170.68580372853887</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>-45.76139692363052,170.68669418690422</t>
+        </is>
+      </c>
+      <c r="M510" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0500/nzd0500.xlsx
+++ b/data/nzd0500/nzd0500.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M510"/>
+  <dimension ref="A1:M513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22436,6 +22436,133 @@
         </is>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>352.98</v>
+      </c>
+      <c r="C511" t="n">
+        <v>347.58</v>
+      </c>
+      <c r="D511" t="n">
+        <v>346.06</v>
+      </c>
+      <c r="E511" t="n">
+        <v>345.2055555555555</v>
+      </c>
+      <c r="F511" t="n">
+        <v>347.17</v>
+      </c>
+      <c r="G511" t="n">
+        <v>342.0185714285714</v>
+      </c>
+      <c r="H511" t="n">
+        <v>354.95</v>
+      </c>
+      <c r="I511" t="n">
+        <v>350.6333333333333</v>
+      </c>
+      <c r="J511" t="n">
+        <v>355.59</v>
+      </c>
+      <c r="K511" t="n">
+        <v>358.19</v>
+      </c>
+      <c r="L511" t="n">
+        <v>367.7771428571429</v>
+      </c>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>359.62</v>
+      </c>
+      <c r="C512" t="n">
+        <v>366.21</v>
+      </c>
+      <c r="D512" t="n">
+        <v>356.6799999999999</v>
+      </c>
+      <c r="E512" t="n">
+        <v>355.0922222222222</v>
+      </c>
+      <c r="F512" t="n">
+        <v>357.44</v>
+      </c>
+      <c r="G512" t="n">
+        <v>361.4685714285715</v>
+      </c>
+      <c r="H512" t="n">
+        <v>355.47</v>
+      </c>
+      <c r="I512" t="n">
+        <v>356.6333333333333</v>
+      </c>
+      <c r="J512" t="n">
+        <v>355.45</v>
+      </c>
+      <c r="K512" t="n">
+        <v>354.07</v>
+      </c>
+      <c r="L512" t="n">
+        <v>352.8571428571428</v>
+      </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr"/>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="inlineStr"/>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="n">
+        <v>339.41</v>
+      </c>
+      <c r="G513" t="n">
+        <v>338.3214285714286</v>
+      </c>
+      <c r="H513" t="n">
+        <v>342.75</v>
+      </c>
+      <c r="I513" t="n">
+        <v>340.5766666666667</v>
+      </c>
+      <c r="J513" t="n">
+        <v>348.1799999999999</v>
+      </c>
+      <c r="K513" t="n">
+        <v>351.69</v>
+      </c>
+      <c r="L513" t="n">
+        <v>374.7228571428572</v>
+      </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22447,7 +22574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B604"/>
+  <dimension ref="A1:B607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28495,6 +28622,36 @@
       </c>
       <c r="B604" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
@@ -28668,28 +28825,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2399829986998051</v>
+        <v>-0.246790099539997</v>
       </c>
       <c r="J2" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K2" t="n">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01889184743188932</v>
+        <v>0.02007029835969187</v>
       </c>
       <c r="M2" t="n">
-        <v>9.506017205535546</v>
+        <v>9.500792437312416</v>
       </c>
       <c r="N2" t="n">
-        <v>144.2088588526045</v>
+        <v>143.91545676952</v>
       </c>
       <c r="O2" t="n">
-        <v>12.00869929895009</v>
+        <v>11.99647684820506</v>
       </c>
       <c r="P2" t="n">
-        <v>370.6259208947904</v>
+        <v>370.7032171340165</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28746,28 +28903,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2288607000206489</v>
+        <v>-0.2359948459695218</v>
       </c>
       <c r="J3" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K3" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01718438716022674</v>
+        <v>0.01831085773015828</v>
       </c>
       <c r="M3" t="n">
-        <v>9.451926358937914</v>
+        <v>9.451526702654785</v>
       </c>
       <c r="N3" t="n">
-        <v>141.3611501599444</v>
+        <v>141.43254960048</v>
       </c>
       <c r="O3" t="n">
-        <v>11.88953952682544</v>
+        <v>11.89254176366348</v>
       </c>
       <c r="P3" t="n">
-        <v>371.3380628638682</v>
+        <v>371.4200030805336</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28824,28 +28981,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2881298859955088</v>
+        <v>-0.2965584504557627</v>
       </c>
       <c r="J4" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K4" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02813367016764867</v>
+        <v>0.02986635435806706</v>
       </c>
       <c r="M4" t="n">
-        <v>8.925316882785681</v>
+        <v>8.932243489383341</v>
       </c>
       <c r="N4" t="n">
-        <v>134.5077384699279</v>
+        <v>134.4878098566028</v>
       </c>
       <c r="O4" t="n">
-        <v>11.5977471290733</v>
+        <v>11.59688793843429</v>
       </c>
       <c r="P4" t="n">
-        <v>368.9799441693757</v>
+        <v>369.0770572250013</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28902,28 +29059,28 @@
         <v>0.0483</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3330995081412434</v>
+        <v>-0.3418651234363887</v>
       </c>
       <c r="J5" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K5" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03683484343111265</v>
+        <v>0.03886698772369668</v>
       </c>
       <c r="M5" t="n">
-        <v>8.975716336029038</v>
+        <v>8.983363932455353</v>
       </c>
       <c r="N5" t="n">
-        <v>135.2232460340912</v>
+        <v>135.2090943245908</v>
       </c>
       <c r="O5" t="n">
-        <v>11.62855304988936</v>
+        <v>11.62794454426881</v>
       </c>
       <c r="P5" t="n">
-        <v>369.2159188135251</v>
+        <v>369.3173348079412</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28980,28 +29137,28 @@
         <v>0.0541</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3045886543660308</v>
+        <v>-0.3186219712311555</v>
       </c>
       <c r="J6" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K6" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03338799413619875</v>
+        <v>0.03653749394522354</v>
       </c>
       <c r="M6" t="n">
-        <v>8.677207846856797</v>
+        <v>8.697323310873193</v>
       </c>
       <c r="N6" t="n">
-        <v>124.9109480001352</v>
+        <v>125.2202724701879</v>
       </c>
       <c r="O6" t="n">
-        <v>11.17635665143768</v>
+        <v>11.19018643589945</v>
       </c>
       <c r="P6" t="n">
-        <v>366.9397467483433</v>
+        <v>367.1021179272158</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29058,28 +29215,28 @@
         <v>0.0825</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2846710729959778</v>
+        <v>-0.2978358646768283</v>
       </c>
       <c r="J7" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K7" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03277329189272449</v>
+        <v>0.03577244984768779</v>
       </c>
       <c r="M7" t="n">
-        <v>8.150200282122027</v>
+        <v>8.181692764488417</v>
       </c>
       <c r="N7" t="n">
-        <v>111.1561923234079</v>
+        <v>111.7702612569454</v>
       </c>
       <c r="O7" t="n">
-        <v>10.54306370669399</v>
+        <v>10.57214553706793</v>
       </c>
       <c r="P7" t="n">
-        <v>365.0150782984692</v>
+        <v>365.1675211900298</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29136,28 +29293,28 @@
         <v>0.0548</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2717162873761557</v>
+        <v>-0.2801143728575789</v>
       </c>
       <c r="J8" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K8" t="n">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02881925972235921</v>
+        <v>0.03081141428396283</v>
       </c>
       <c r="M8" t="n">
-        <v>8.301482890035322</v>
+        <v>8.293123096287172</v>
       </c>
       <c r="N8" t="n">
-        <v>115.3319714915857</v>
+        <v>115.0820760062338</v>
       </c>
       <c r="O8" t="n">
-        <v>10.73927239116253</v>
+        <v>10.72763142572645</v>
       </c>
       <c r="P8" t="n">
-        <v>364.6253431270375</v>
+        <v>364.722754795694</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29214,28 +29371,28 @@
         <v>0.0907</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1829120056126394</v>
+        <v>-0.1971341460884821</v>
       </c>
       <c r="J9" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K9" t="n">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01279925509436952</v>
+        <v>0.01489167405511815</v>
       </c>
       <c r="M9" t="n">
-        <v>8.295745306182573</v>
+        <v>8.315768534674168</v>
       </c>
       <c r="N9" t="n">
-        <v>118.6463968349335</v>
+        <v>118.9139045323001</v>
       </c>
       <c r="O9" t="n">
-        <v>10.89249268234473</v>
+        <v>10.90476522132871</v>
       </c>
       <c r="P9" t="n">
-        <v>364.9292489940196</v>
+        <v>365.0945425290233</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29286,28 +29443,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.05265167887271598</v>
+        <v>-0.06460338126164922</v>
       </c>
       <c r="J10" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K10" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001198126598975446</v>
+        <v>0.001815044169169333</v>
       </c>
       <c r="M10" t="n">
-        <v>8.021264111878509</v>
+        <v>8.027188024975857</v>
       </c>
       <c r="N10" t="n">
-        <v>106.2302060658921</v>
+        <v>106.1447445345964</v>
       </c>
       <c r="O10" t="n">
-        <v>10.30680387248598</v>
+        <v>10.30265715893703</v>
       </c>
       <c r="P10" t="n">
-        <v>363.5281310344449</v>
+        <v>363.6672027825905</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29364,28 +29521,28 @@
         <v>0.0572</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07258033757052498</v>
+        <v>0.05805967352019858</v>
       </c>
       <c r="J11" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K11" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002130509677703007</v>
+        <v>0.001372512249850799</v>
       </c>
       <c r="M11" t="n">
-        <v>8.149647135922377</v>
+        <v>8.173278139091652</v>
       </c>
       <c r="N11" t="n">
-        <v>113.2912676953932</v>
+        <v>113.3383300533063</v>
       </c>
       <c r="O11" t="n">
-        <v>10.64383707576329</v>
+        <v>10.64604762591762</v>
       </c>
       <c r="P11" t="n">
-        <v>363.5119788012065</v>
+        <v>363.680374569448</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29442,28 +29599,28 @@
         <v>0.0395</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06156509376467528</v>
+        <v>0.05599805534421425</v>
       </c>
       <c r="J12" t="n">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K12" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001296600269966142</v>
+        <v>0.001082090839685801</v>
       </c>
       <c r="M12" t="n">
-        <v>8.773775283461944</v>
+        <v>8.769176755618044</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3142406220628</v>
+        <v>131.0848156221745</v>
       </c>
       <c r="O12" t="n">
-        <v>11.45924258500809</v>
+        <v>11.44922773038315</v>
       </c>
       <c r="P12" t="n">
-        <v>367.4128361701304</v>
+        <v>367.4781116222191</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29501,7 +29658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M510"/>
+  <dimension ref="A1:M513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61735,6 +61892,191 @@
         </is>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>-45.76007821879798,170.67816391386378</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>-45.76041042157733,170.67891949794057</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>-45.7606463547444,170.67974523204043</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>-45.760905539198035,170.6805553063619</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>-45.76108121131317,170.6814025799823</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>-45.761283214694195,170.68225055545201</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>-45.761330332554614,170.68315934601566</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>-45.76149172214687,170.68401419214564</t>
+        </is>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>-45.76151840837266,170.68490393387046</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>-45.76153640663309,170.68579235923818</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>-45.76146380308362,170.68669016310852</t>
+        </is>
+      </c>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:48+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>-45.76002595311976,170.6782052531777</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>-45.760259256517024,170.67902295952925</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>-45.7605588375965,170.6798000167004</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>-45.760823227555825,170.68060348454645</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>-45.760993138342094,170.68144250673734</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>-45.7611148962949,170.68231895199676</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>-45.76132580032298,170.68316100436</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>-45.761438605287104,170.684027950891</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>-45.76151966011122,170.6849037331384</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>-45.761573397055194,170.6857889301254</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>-45.761597921553616,170.68668209384532</t>
+        </is>
+      </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr"/>
+      <c r="C513" t="inlineStr"/>
+      <c r="D513" t="inlineStr"/>
+      <c r="E513" t="inlineStr"/>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>-45.76114775913551,170.68137241128622</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>-45.76131520940113,170.68223755428266</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>-45.761436665672115,170.6831204386256</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>-45.76158075189983,170.68399113089674</t>
+        </is>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>-45.76158466110499,170.6848933093958</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>-45.76159476530853,170.68578694922763</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>-45.76140136685074,170.68669391957874</t>
+        </is>
+      </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0500/nzd0500.xlsx
+++ b/data/nzd0500/nzd0500.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M513"/>
+  <dimension ref="A1:M518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22563,6 +22563,231 @@
         </is>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>366.24</v>
+      </c>
+      <c r="C514" t="n">
+        <v>365.32</v>
+      </c>
+      <c r="D514" t="n">
+        <v>362.09</v>
+      </c>
+      <c r="E514" t="n">
+        <v>366.0166666666667</v>
+      </c>
+      <c r="F514" t="n">
+        <v>356.73</v>
+      </c>
+      <c r="G514" t="n">
+        <v>358.2828571428572</v>
+      </c>
+      <c r="H514" t="n">
+        <v>353.95</v>
+      </c>
+      <c r="I514" t="n">
+        <v>364.42</v>
+      </c>
+      <c r="J514" t="n">
+        <v>367.52</v>
+      </c>
+      <c r="K514" t="n">
+        <v>366.74</v>
+      </c>
+      <c r="L514" t="n">
+        <v>375.5657142857143</v>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>358.22</v>
+      </c>
+      <c r="C515" t="n">
+        <v>358.71</v>
+      </c>
+      <c r="D515" t="n">
+        <v>356.47</v>
+      </c>
+      <c r="E515" t="n">
+        <v>355.2344444444445</v>
+      </c>
+      <c r="F515" t="n">
+        <v>362.99</v>
+      </c>
+      <c r="G515" t="n">
+        <v>355.0042857142857</v>
+      </c>
+      <c r="H515" t="n">
+        <v>369.08</v>
+      </c>
+      <c r="I515" t="n">
+        <v>357.0166666666667</v>
+      </c>
+      <c r="J515" t="n">
+        <v>369.38</v>
+      </c>
+      <c r="K515" t="n">
+        <v>369.18</v>
+      </c>
+      <c r="L515" t="n">
+        <v>381.7085714285714</v>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>351.1</v>
+      </c>
+      <c r="C516" t="n">
+        <v>353.38</v>
+      </c>
+      <c r="D516" t="n">
+        <v>352.85</v>
+      </c>
+      <c r="E516" t="n">
+        <v>351.8488888888889</v>
+      </c>
+      <c r="F516" t="n">
+        <v>353.9</v>
+      </c>
+      <c r="G516" t="n">
+        <v>355.4657142857143</v>
+      </c>
+      <c r="H516" t="n">
+        <v>353.01</v>
+      </c>
+      <c r="I516" t="n">
+        <v>363.9333333333333</v>
+      </c>
+      <c r="J516" t="n">
+        <v>361.05</v>
+      </c>
+      <c r="K516" t="n">
+        <v>365.6</v>
+      </c>
+      <c r="L516" t="n">
+        <v>369.1914285714286</v>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>360.49</v>
+      </c>
+      <c r="C517" t="n">
+        <v>358.28</v>
+      </c>
+      <c r="D517" t="n">
+        <v>362.62</v>
+      </c>
+      <c r="E517" t="n">
+        <v>362.9177777777778</v>
+      </c>
+      <c r="F517" t="n">
+        <v>362.09</v>
+      </c>
+      <c r="G517" t="n">
+        <v>360.9128571428572</v>
+      </c>
+      <c r="H517" t="n">
+        <v>364.29</v>
+      </c>
+      <c r="I517" t="n">
+        <v>370.2366666666667</v>
+      </c>
+      <c r="J517" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="K517" t="n">
+        <v>373.56</v>
+      </c>
+      <c r="L517" t="n">
+        <v>383.0257142857143</v>
+      </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:21:04+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>340.82</v>
+      </c>
+      <c r="C518" t="n">
+        <v>350.41</v>
+      </c>
+      <c r="D518" t="n">
+        <v>345.28</v>
+      </c>
+      <c r="E518" t="n">
+        <v>352.8022222222222</v>
+      </c>
+      <c r="F518" t="n">
+        <v>351.95</v>
+      </c>
+      <c r="G518" t="n">
+        <v>355.15</v>
+      </c>
+      <c r="H518" t="n">
+        <v>354.72</v>
+      </c>
+      <c r="I518" t="n">
+        <v>360.7133333333333</v>
+      </c>
+      <c r="J518" t="n">
+        <v>363.09</v>
+      </c>
+      <c r="K518" t="n">
+        <v>359.27</v>
+      </c>
+      <c r="L518" t="n">
+        <v>367.92</v>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22574,7 +22799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B607"/>
+  <dimension ref="A1:B612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28652,6 +28877,56 @@
       </c>
       <c r="B607" t="n">
         <v>0.74</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -28825,28 +29100,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.246790099539997</v>
+        <v>-0.2651716966145831</v>
       </c>
       <c r="J2" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K2" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02007029835969187</v>
+        <v>0.02329395970950165</v>
       </c>
       <c r="M2" t="n">
-        <v>9.500792437312416</v>
+        <v>9.506017705785096</v>
       </c>
       <c r="N2" t="n">
-        <v>143.91545676952</v>
+        <v>144.0144474316318</v>
       </c>
       <c r="O2" t="n">
-        <v>11.99647684820506</v>
+        <v>12.00060196121977</v>
       </c>
       <c r="P2" t="n">
-        <v>370.7032171340165</v>
+        <v>370.9131860762655</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28903,28 +29178,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2359948459695218</v>
+        <v>-0.2525986612475364</v>
       </c>
       <c r="J3" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K3" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01831085773015828</v>
+        <v>0.02119420453505094</v>
       </c>
       <c r="M3" t="n">
-        <v>9.451526702654785</v>
+        <v>9.437461602526936</v>
       </c>
       <c r="N3" t="n">
-        <v>141.43254960048</v>
+        <v>140.8840413501959</v>
       </c>
       <c r="O3" t="n">
-        <v>11.89254176366348</v>
+        <v>11.86945834274656</v>
       </c>
       <c r="P3" t="n">
-        <v>371.4200030805336</v>
+        <v>371.611814376231</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28981,28 +29256,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2965584504557627</v>
+        <v>-0.3077874737489629</v>
       </c>
       <c r="J4" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K4" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02986635435806706</v>
+        <v>0.03254065971324727</v>
       </c>
       <c r="M4" t="n">
-        <v>8.932243489383341</v>
+        <v>8.907469543259573</v>
       </c>
       <c r="N4" t="n">
-        <v>134.4878098566028</v>
+        <v>133.8282501613359</v>
       </c>
       <c r="O4" t="n">
-        <v>11.59688793843429</v>
+        <v>11.56841606104033</v>
       </c>
       <c r="P4" t="n">
-        <v>369.0770572250013</v>
+        <v>369.2071773706455</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29059,28 +29334,28 @@
         <v>0.0483</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3418651234363887</v>
+        <v>-0.3473480034999187</v>
       </c>
       <c r="J5" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K5" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03886698772369668</v>
+        <v>0.04072234295363852</v>
       </c>
       <c r="M5" t="n">
-        <v>8.983363932455353</v>
+        <v>8.952282259651952</v>
       </c>
       <c r="N5" t="n">
-        <v>135.2090943245908</v>
+        <v>134.209998220179</v>
       </c>
       <c r="O5" t="n">
-        <v>11.62794454426881</v>
+        <v>11.58490389343731</v>
       </c>
       <c r="P5" t="n">
-        <v>369.3173348079412</v>
+        <v>369.3811573581039</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29137,28 +29412,28 @@
         <v>0.0541</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3186219712311555</v>
+        <v>-0.3212727505789915</v>
       </c>
       <c r="J6" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K6" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03653749394522354</v>
+        <v>0.03778133843213016</v>
       </c>
       <c r="M6" t="n">
-        <v>8.697323310873193</v>
+        <v>8.652137871671481</v>
       </c>
       <c r="N6" t="n">
-        <v>125.2202724701879</v>
+        <v>124.1310542644264</v>
       </c>
       <c r="O6" t="n">
-        <v>11.19018643589945</v>
+        <v>11.14141168184833</v>
       </c>
       <c r="P6" t="n">
-        <v>367.1021179272158</v>
+        <v>367.1329513420053</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29215,28 +29490,28 @@
         <v>0.0825</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2978358646768283</v>
+        <v>-0.2987653510342899</v>
       </c>
       <c r="J7" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K7" t="n">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03577244984768779</v>
+        <v>0.0366658431780239</v>
       </c>
       <c r="M7" t="n">
-        <v>8.181692764488417</v>
+        <v>8.119478372288276</v>
       </c>
       <c r="N7" t="n">
-        <v>111.7702612569454</v>
+        <v>110.6636579992203</v>
       </c>
       <c r="O7" t="n">
-        <v>10.57214553706793</v>
+        <v>10.5196795578202</v>
       </c>
       <c r="P7" t="n">
-        <v>365.1675211900298</v>
+        <v>365.1783263488432</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29293,28 +29568,28 @@
         <v>0.0548</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2801143728575789</v>
+        <v>-0.2767954887601669</v>
       </c>
       <c r="J8" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K8" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03081141428396283</v>
+        <v>0.03057942019617121</v>
       </c>
       <c r="M8" t="n">
-        <v>8.293123096287172</v>
+        <v>8.266034440648193</v>
       </c>
       <c r="N8" t="n">
-        <v>115.0820760062338</v>
+        <v>114.3367760822087</v>
       </c>
       <c r="O8" t="n">
-        <v>10.72763142572645</v>
+        <v>10.69283760665094</v>
       </c>
       <c r="P8" t="n">
-        <v>364.722754795694</v>
+        <v>364.6841399319911</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29371,28 +29646,28 @@
         <v>0.0907</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1971341460884821</v>
+        <v>-0.1901043057708546</v>
       </c>
       <c r="J9" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K9" t="n">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01489167405511815</v>
+        <v>0.01410814061810273</v>
       </c>
       <c r="M9" t="n">
-        <v>8.315768534674168</v>
+        <v>8.272721942515091</v>
       </c>
       <c r="N9" t="n">
-        <v>118.9139045323001</v>
+        <v>117.9736241176123</v>
       </c>
       <c r="O9" t="n">
-        <v>10.90476522132871</v>
+        <v>10.86156637495773</v>
       </c>
       <c r="P9" t="n">
-        <v>365.0945425290233</v>
+        <v>365.0125116247669</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29443,28 +29718,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.06460338126164922</v>
+        <v>-0.05693539054913248</v>
       </c>
       <c r="J10" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K10" t="n">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001815044169169333</v>
+        <v>0.001436390332344439</v>
       </c>
       <c r="M10" t="n">
-        <v>8.027188024975857</v>
+        <v>7.983556663087814</v>
       </c>
       <c r="N10" t="n">
-        <v>106.1447445345964</v>
+        <v>105.2447042849944</v>
       </c>
       <c r="O10" t="n">
-        <v>10.30265715893703</v>
+        <v>10.258884163738</v>
       </c>
       <c r="P10" t="n">
-        <v>363.6672027825905</v>
+        <v>363.5777017272302</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29521,28 +29796,28 @@
         <v>0.0572</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05805967352019858</v>
+        <v>0.06174117366628842</v>
       </c>
       <c r="J11" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K11" t="n">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001372512249850799</v>
+        <v>0.001581398122681099</v>
       </c>
       <c r="M11" t="n">
-        <v>8.173278139091652</v>
+        <v>8.126546565426105</v>
       </c>
       <c r="N11" t="n">
-        <v>113.3383300533063</v>
+        <v>112.3761670234009</v>
       </c>
       <c r="O11" t="n">
-        <v>10.64604762591762</v>
+        <v>10.60076256801372</v>
       </c>
       <c r="P11" t="n">
-        <v>363.680374569448</v>
+        <v>363.6375699089014</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29599,28 +29874,28 @@
         <v>0.0395</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05599805534421425</v>
+        <v>0.07123664907203202</v>
       </c>
       <c r="J12" t="n">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K12" t="n">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001082090839685801</v>
+        <v>0.00177707945365968</v>
       </c>
       <c r="M12" t="n">
-        <v>8.769176755618044</v>
+        <v>8.739893587468911</v>
       </c>
       <c r="N12" t="n">
-        <v>131.0848156221745</v>
+        <v>130.5034024139645</v>
       </c>
       <c r="O12" t="n">
-        <v>11.44922773038315</v>
+        <v>11.42380857743881</v>
       </c>
       <c r="P12" t="n">
-        <v>367.4781116222191</v>
+        <v>367.2987096889792</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29658,7 +29933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M513"/>
+  <dimension ref="A1:M518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62077,6 +62352,341 @@
         </is>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-45.75997384485145,170.67824646789737</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-45.76026647803874,170.6790180169328</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-45.760514254932076,170.6798279248259</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-45.76073227584575,170.68065671970066</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-45.76099922712644,170.68143974646927</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>-45.761142465158684,170.68230774936043</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>-45.7613390483846,170.68315615689116</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>-45.76136967140297,170.68404580664318</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>-45.761411742363144,170.684921039072</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>-45.76145964252767,170.685799475462</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>-45.76139379026134,170.68669437542277</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-45.76003697299308,170.67819653706385</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-45.76032011202935,170.6789813083948</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-45.76056056816187,170.67979893338963</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-45.760822043481674,170.68060417760086</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-45.76094554291219,170.68146408345905</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>-45.7611708375977,170.6822962201778</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>-45.76120717786416,170.6832044082331</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>-45.76143521170986,170.684028829921</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>-45.76139511212141,170.68492370592836</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>-45.761437735577964,170.68580150628645</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>-45.76133857104998,170.686697697671</t>
+        </is>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>-45.760093016908634,170.678152209345</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>-45.7603633600028,170.67895170826563</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>-45.76059039981065,170.67978025916437</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-45.7608502299954,170.680587679649</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>-45.76102349650549,170.6814287442679</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>-45.761166844439714,170.68229784280422</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>-45.761347241264666,170.68315315911323</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>-45.76137397977086,170.68404469066004</t>
+        </is>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>-45.76146959056851,170.68491176241267</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>-45.76146987774182,170.6857985266335</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>-45.7614510898236,170.68669092800155</t>
+        </is>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>-45.760019105055235,170.67821066961812</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>-45.7603236010782,170.67897892039363</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>-45.76050988731388,170.6798306588912</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>-45.760758075718506,170.68064161873775</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>-45.76095326109037,170.68146058453377</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>-45.761119705392765,170.68231699781575</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>-45.76124892669681,170.68318913238798</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>-45.76131817755258,170.68405914492035</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>-45.76141817987603,170.68492000674004</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>-45.761398410807224,170.68580515177794</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>-45.761326731023644,170.68669841002173</t>
+        </is>
+      </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:21:04+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-45.760173934213086,170.67808820792854</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-45.760387458775895,170.6789352143647</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-45.76065278255631,170.6797412083014</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-45.760842292999044,170.68059232528336</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-45.76104021922172,170.68142116323995</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-45.76116957660045,170.68229673258617</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>-45.76133233719551,170.68315861251713</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>-45.76140248582096,170.68403730682184</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>-45.761451350949066,170.6849146873586</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>-45.76152671011461,170.68579325813093</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>-45.76146251891594,170.68669024037047</t>
+        </is>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0500/nzd0500.xlsx
+++ b/data/nzd0500/nzd0500.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M518"/>
+  <dimension ref="A1:M519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22788,6 +22788,51 @@
         </is>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="C519" t="n">
+        <v>335.04</v>
+      </c>
+      <c r="D519" t="n">
+        <v>330.17</v>
+      </c>
+      <c r="E519" t="n">
+        <v>335.0822222222222</v>
+      </c>
+      <c r="F519" t="n">
+        <v>331.9</v>
+      </c>
+      <c r="G519" t="n">
+        <v>333.6928571428572</v>
+      </c>
+      <c r="H519" t="n">
+        <v>331.97</v>
+      </c>
+      <c r="I519" t="n">
+        <v>333.8433333333333</v>
+      </c>
+      <c r="J519" t="n">
+        <v>336.6300000000001</v>
+      </c>
+      <c r="K519" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="L519" t="n">
+        <v>352.0757142857143</v>
+      </c>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22799,7 +22844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B612"/>
+  <dimension ref="A1:B613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28927,6 +28972,16 @@
       </c>
       <c r="B612" t="n">
         <v>-0.35</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -29933,7 +29988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M518"/>
+  <dimension ref="A1:M519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62687,6 +62742,73 @@
         </is>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>-45.76020203486284,170.67806598171163</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>-45.760512171911245,170.67884985680695</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-45.760777300777235,170.67966326106736</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>-45.7609898211883,170.68050597473868</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>-45.76121216301069,170.68134321444873</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>-45.761355264595664,170.682221277681</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>-45.761530622297066,170.6830860596713</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>-45.761640360812194,170.68397569044077</t>
+        </is>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>-45.76168792952956,170.68487674892356</t>
+        </is>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>-45.761724411346954,170.68577493063222</t>
+        </is>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>-45.76160494595057,170.68668167121973</t>
+        </is>
+      </c>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0500/nzd0500.xlsx
+++ b/data/nzd0500/nzd0500.xlsx
@@ -29155,28 +29155,28 @@
         <v>0.0455</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2651716966145831</v>
+        <v>-0.2762173984353302</v>
       </c>
       <c r="J2" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K2" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02329395970950165</v>
+        <v>0.02506666250965672</v>
       </c>
       <c r="M2" t="n">
-        <v>9.506017705785096</v>
+        <v>9.545435985321424</v>
       </c>
       <c r="N2" t="n">
-        <v>144.0144474316318</v>
+        <v>145.2144715139446</v>
       </c>
       <c r="O2" t="n">
-        <v>12.00060196121977</v>
+        <v>12.05049673307887</v>
       </c>
       <c r="P2" t="n">
-        <v>370.9131860762655</v>
+        <v>371.0397294927079</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29233,28 +29233,28 @@
         <v>0.0558</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2525986612475364</v>
+        <v>-0.2649723268366603</v>
       </c>
       <c r="J3" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K3" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02119420453505094</v>
+        <v>0.02306352731145656</v>
       </c>
       <c r="M3" t="n">
-        <v>9.437461602526936</v>
+        <v>9.481141182915303</v>
       </c>
       <c r="N3" t="n">
-        <v>140.8840413501959</v>
+        <v>142.4508132744012</v>
       </c>
       <c r="O3" t="n">
-        <v>11.86945834274656</v>
+        <v>11.93527600327706</v>
       </c>
       <c r="P3" t="n">
-        <v>371.611814376231</v>
+        <v>371.7552154910495</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29311,28 +29311,28 @@
         <v>0.056</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3077874737489629</v>
+        <v>-0.3204729560024575</v>
       </c>
       <c r="J4" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K4" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03254065971324727</v>
+        <v>0.03482129210731433</v>
       </c>
       <c r="M4" t="n">
-        <v>8.907469543259573</v>
+        <v>8.956142998485532</v>
       </c>
       <c r="N4" t="n">
-        <v>133.8282501613359</v>
+        <v>135.5144730595174</v>
       </c>
       <c r="O4" t="n">
-        <v>11.56841606104033</v>
+        <v>11.64106838136077</v>
       </c>
       <c r="P4" t="n">
-        <v>369.2071773706455</v>
+        <v>369.3546085442861</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29389,28 +29389,28 @@
         <v>0.0483</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3473480034999187</v>
+        <v>-0.3577823775433618</v>
       </c>
       <c r="J5" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K5" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04072234295363852</v>
+        <v>0.04285998878543018</v>
       </c>
       <c r="M5" t="n">
-        <v>8.952282259651952</v>
+        <v>8.987663955532589</v>
       </c>
       <c r="N5" t="n">
-        <v>134.209998220179</v>
+        <v>135.2415058954039</v>
       </c>
       <c r="O5" t="n">
-        <v>11.58490389343731</v>
+        <v>11.62933815379895</v>
       </c>
       <c r="P5" t="n">
-        <v>369.3811573581039</v>
+        <v>369.5029239887238</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29467,28 +29467,28 @@
         <v>0.0541</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3212727505789915</v>
+        <v>-0.33244756798393</v>
       </c>
       <c r="J6" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K6" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03778133843213016</v>
+        <v>0.04003944694381956</v>
       </c>
       <c r="M6" t="n">
-        <v>8.652137871671481</v>
+        <v>8.694315109415063</v>
       </c>
       <c r="N6" t="n">
-        <v>124.1310542644264</v>
+        <v>125.3615311327682</v>
       </c>
       <c r="O6" t="n">
-        <v>11.14141168184833</v>
+        <v>11.19649637756241</v>
       </c>
       <c r="P6" t="n">
-        <v>367.1329513420053</v>
+        <v>367.2632412531256</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29545,28 +29545,28 @@
         <v>0.0825</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2987653510342899</v>
+        <v>-0.3086164295341504</v>
       </c>
       <c r="J7" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K7" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0366658431780239</v>
+        <v>0.03878518251103436</v>
       </c>
       <c r="M7" t="n">
-        <v>8.119478372288276</v>
+        <v>8.153178141753219</v>
       </c>
       <c r="N7" t="n">
-        <v>110.6636579992203</v>
+        <v>111.5923153583207</v>
       </c>
       <c r="O7" t="n">
-        <v>10.5196795578202</v>
+        <v>10.56372639546863</v>
       </c>
       <c r="P7" t="n">
-        <v>365.1783263488432</v>
+        <v>365.2932862080568</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29623,28 +29623,28 @@
         <v>0.0548</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2767954887601669</v>
+        <v>-0.2875277013565203</v>
       </c>
       <c r="J8" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K8" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03057942019617121</v>
+        <v>0.0326692666063586</v>
       </c>
       <c r="M8" t="n">
-        <v>8.266034440648193</v>
+        <v>8.305648138626829</v>
       </c>
       <c r="N8" t="n">
-        <v>114.3367760822087</v>
+        <v>115.4524414562127</v>
       </c>
       <c r="O8" t="n">
-        <v>10.69283760665094</v>
+        <v>10.7448797785835</v>
       </c>
       <c r="P8" t="n">
-        <v>364.6841399319911</v>
+        <v>364.8095353299457</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29701,28 +29701,28 @@
         <v>0.0907</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1901043057708546</v>
+        <v>-0.201279245341675</v>
       </c>
       <c r="J9" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K9" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01410814061810273</v>
+        <v>0.01566369956689284</v>
       </c>
       <c r="M9" t="n">
-        <v>8.272721942515091</v>
+        <v>8.314424276954876</v>
       </c>
       <c r="N9" t="n">
-        <v>117.9736241176123</v>
+        <v>119.161757357571</v>
       </c>
       <c r="O9" t="n">
-        <v>10.86156637495773</v>
+        <v>10.91612373315597</v>
       </c>
       <c r="P9" t="n">
-        <v>365.0125116247669</v>
+        <v>365.143361792602</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29773,28 +29773,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.05693539054913248</v>
+        <v>-0.0678791875101683</v>
       </c>
       <c r="J10" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K10" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001436390332344439</v>
+        <v>0.002022399205077408</v>
       </c>
       <c r="M10" t="n">
-        <v>7.983556663087814</v>
+        <v>8.020839797663166</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2447042849944</v>
+        <v>106.3914287550867</v>
       </c>
       <c r="O10" t="n">
-        <v>10.258884163738</v>
+        <v>10.3146220849378</v>
       </c>
       <c r="P10" t="n">
-        <v>363.5777017272302</v>
+        <v>363.7060079171919</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29851,28 +29851,28 @@
         <v>0.0572</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06174117366628842</v>
+        <v>0.04938737696789786</v>
       </c>
       <c r="J11" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K11" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001581398122681099</v>
+        <v>0.001001678785112814</v>
       </c>
       <c r="M11" t="n">
-        <v>8.126546565426105</v>
+        <v>8.175792138054454</v>
       </c>
       <c r="N11" t="n">
-        <v>112.3761670234009</v>
+        <v>113.8191690988584</v>
       </c>
       <c r="O11" t="n">
-        <v>10.60076256801372</v>
+        <v>10.66860670841598</v>
       </c>
       <c r="P11" t="n">
-        <v>363.6375699089014</v>
+        <v>363.7819132211924</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29929,28 +29929,28 @@
         <v>0.0395</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07123664907203202</v>
+        <v>0.06325619072213673</v>
       </c>
       <c r="J12" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K12" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00177707945365968</v>
+        <v>0.001400904149323479</v>
       </c>
       <c r="M12" t="n">
-        <v>8.739893587468911</v>
+        <v>8.762877644037731</v>
       </c>
       <c r="N12" t="n">
-        <v>130.5034024139645</v>
+        <v>130.8648913336932</v>
       </c>
       <c r="O12" t="n">
-        <v>11.42380857743881</v>
+        <v>11.43961937014048</v>
       </c>
       <c r="P12" t="n">
-        <v>367.2987096889792</v>
+        <v>367.3930497187131</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">

--- a/data/nzd0500/nzd0500.xlsx
+++ b/data/nzd0500/nzd0500.xlsx
@@ -29146,13 +29146,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0383</v>
+        <v>0.0543</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0455</v>
+        <v>0.0766</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2762173984353302</v>
@@ -29224,13 +29224,13 @@
         <v>0.1001652871611302</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0452</v>
+        <v>0.0539</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0558</v>
+        <v>0.0712</v>
       </c>
       <c r="I3" t="n">
         <v>-0.2649723268366601</v>
@@ -29302,13 +29302,13 @@
         <v>0.2001652629758735</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0459</v>
+        <v>0.061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.056</v>
+        <v>0.1036</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3204729560024575</v>
@@ -29380,13 +29380,13 @@
         <v>0.2997634422798689</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.042</v>
+        <v>0.0484</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0483</v>
+        <v>0.0702</v>
       </c>
       <c r="I5" t="n">
         <v>-0.3577771963914336</v>
@@ -29458,13 +29458,13 @@
         <v>0.3990260504343745</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0447</v>
+        <v>0.0498</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0541</v>
+        <v>0.0808</v>
       </c>
       <c r="I6" t="n">
         <v>-0.3324475679839297</v>
@@ -29536,13 +29536,13 @@
         <v>0.4991961080623023</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0623</v>
+        <v>0.074</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0825</v>
+        <v>0.1376</v>
       </c>
       <c r="I7" t="n">
         <v>-0.308608359191284</v>
@@ -29614,13 +29614,13 @@
         <v>0.5993861895245783</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0441</v>
+        <v>0.0757</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0548</v>
+        <v>0.1172</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2875277013565203</v>
@@ -29692,13 +29692,13 @@
         <v>0.6994277153141177</v>
       </c>
       <c r="F9" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0609</v>
+        <v>0.0703</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0907</v>
+        <v>0.0961</v>
       </c>
       <c r="I9" t="n">
         <v>-0.2012782914082409</v>
@@ -29769,9 +29769,15 @@
       <c r="E10" t="n">
         <v>0.7996230734595655</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0699</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1042</v>
+      </c>
       <c r="I10" t="n">
         <v>-0.06787918751016822</v>
       </c>
@@ -29842,13 +29848,13 @@
         <v>0.8997950436002081</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0486</v>
+        <v>0.064</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0572</v>
+        <v>0.0929</v>
       </c>
       <c r="I11" t="n">
         <v>0.04938737696789787</v>
@@ -29920,13 +29926,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0341</v>
+        <v>0.0396</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0395</v>
+        <v>0.0493</v>
       </c>
       <c r="I12" t="n">
         <v>0.06326206064685458</v>

--- a/data/nzd0500/nzd0500.xlsx
+++ b/data/nzd0500/nzd0500.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M522"/>
+  <dimension ref="A1:M523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +534,7 @@
         <v>379.17</v>
       </c>
       <c r="J2" t="n">
-        <v>378.13</v>
+        <v>377.63</v>
       </c>
       <c r="K2" t="n">
         <v>382.31</v>
@@ -579,7 +579,7 @@
         <v>375.63</v>
       </c>
       <c r="J3" t="n">
-        <v>376.57</v>
+        <v>376.01</v>
       </c>
       <c r="K3" t="n">
         <v>377.13</v>
@@ -624,7 +624,7 @@
         <v>377.96</v>
       </c>
       <c r="J4" t="n">
-        <v>380.6</v>
+        <v>380.04</v>
       </c>
       <c r="K4" t="n">
         <v>380.32</v>
@@ -669,7 +669,7 @@
         <v>377.27</v>
       </c>
       <c r="J5" t="n">
-        <v>380.51</v>
+        <v>380.2</v>
       </c>
       <c r="K5" t="n">
         <v>376.73</v>
@@ -714,7 +714,7 @@
         <v>383.29</v>
       </c>
       <c r="J6" t="n">
-        <v>384.18</v>
+        <v>383.79</v>
       </c>
       <c r="K6" t="n">
         <v>381.5</v>
@@ -759,7 +759,7 @@
         <v>387</v>
       </c>
       <c r="J7" t="n">
-        <v>386.42</v>
+        <v>386.21</v>
       </c>
       <c r="K7" t="n">
         <v>384.79</v>
@@ -804,7 +804,7 @@
         <v>383.92</v>
       </c>
       <c r="J8" t="n">
-        <v>383.67</v>
+        <v>383.46</v>
       </c>
       <c r="K8" t="n">
         <v>382.56</v>
@@ -849,7 +849,7 @@
         <v>380.86</v>
       </c>
       <c r="J9" t="n">
-        <v>380.79</v>
+        <v>380.69</v>
       </c>
       <c r="K9" t="n">
         <v>380.94</v>
@@ -894,7 +894,7 @@
         <v>376.56</v>
       </c>
       <c r="J10" t="n">
-        <v>376.85</v>
+        <v>376.8</v>
       </c>
       <c r="K10" t="n">
         <v>377.23</v>
@@ -939,7 +939,7 @@
         <v>375.06</v>
       </c>
       <c r="J11" t="n">
-        <v>374.32</v>
+        <v>374.31</v>
       </c>
       <c r="K11" t="n">
         <v>374.2</v>
@@ -984,7 +984,7 @@
         <v>373.94</v>
       </c>
       <c r="J12" t="n">
-        <v>373.52</v>
+        <v>373.48</v>
       </c>
       <c r="K12" t="n">
         <v>372.22</v>
@@ -1029,7 +1029,7 @@
         <v>365.32</v>
       </c>
       <c r="J13" t="n">
-        <v>365.04</v>
+        <v>365.19</v>
       </c>
       <c r="K13" t="n">
         <v>364.98</v>
@@ -1074,7 +1074,7 @@
         <v>365.62</v>
       </c>
       <c r="J14" t="n">
-        <v>366.64</v>
+        <v>365.99</v>
       </c>
       <c r="K14" t="n">
         <v>367.83</v>
@@ -1119,7 +1119,7 @@
         <v>364.13</v>
       </c>
       <c r="J15" t="n">
-        <v>364.55</v>
+        <v>364.51</v>
       </c>
       <c r="K15" t="n">
         <v>366.52</v>
@@ -1164,7 +1164,7 @@
         <v>364.13</v>
       </c>
       <c r="J16" t="n">
-        <v>364.55</v>
+        <v>364.51</v>
       </c>
       <c r="K16" t="n">
         <v>366.52</v>
@@ -1209,7 +1209,7 @@
         <v>367.05</v>
       </c>
       <c r="J17" t="n">
-        <v>367.91</v>
+        <v>368.02</v>
       </c>
       <c r="K17" t="n">
         <v>369.75</v>
@@ -1254,7 +1254,7 @@
         <v>365.25</v>
       </c>
       <c r="J18" t="n">
-        <v>365.5</v>
+        <v>365.64</v>
       </c>
       <c r="K18" t="n">
         <v>366.89</v>
@@ -1299,7 +1299,7 @@
         <v>367.06</v>
       </c>
       <c r="J19" t="n">
-        <v>366.15</v>
+        <v>366.36</v>
       </c>
       <c r="K19" t="n">
         <v>366.03</v>
@@ -1344,7 +1344,7 @@
         <v>365.14</v>
       </c>
       <c r="J20" t="n">
-        <v>364.67</v>
+        <v>364.84</v>
       </c>
       <c r="K20" t="n">
         <v>364.92</v>
@@ -1389,7 +1389,7 @@
         <v>360.3</v>
       </c>
       <c r="J21" t="n">
-        <v>360.39</v>
+        <v>360.31</v>
       </c>
       <c r="K21" t="n">
         <v>360.93</v>
@@ -1434,7 +1434,7 @@
         <v>362.49</v>
       </c>
       <c r="J22" t="n">
-        <v>362.31</v>
+        <v>362.16</v>
       </c>
       <c r="K22" t="n">
         <v>363.58</v>
@@ -1479,7 +1479,7 @@
         <v>365.14</v>
       </c>
       <c r="J23" t="n">
-        <v>365.94</v>
+        <v>365.71</v>
       </c>
       <c r="K23" t="n">
         <v>366.41</v>
@@ -1524,7 +1524,7 @@
         <v>363.94</v>
       </c>
       <c r="J24" t="n">
-        <v>366.31</v>
+        <v>366.08</v>
       </c>
       <c r="K24" t="n">
         <v>366.69</v>
@@ -1569,7 +1569,7 @@
         <v>367.21</v>
       </c>
       <c r="J25" t="n">
-        <v>369.11</v>
+        <v>368.89</v>
       </c>
       <c r="K25" t="n">
         <v>369.01</v>
@@ -1614,7 +1614,7 @@
         <v>367.21</v>
       </c>
       <c r="J26" t="n">
-        <v>369.11</v>
+        <v>368.89</v>
       </c>
       <c r="K26" t="n">
         <v>369.01</v>
@@ -1659,7 +1659,7 @@
         <v>365.75</v>
       </c>
       <c r="J27" t="n">
-        <v>366.83</v>
+        <v>366.67</v>
       </c>
       <c r="K27" t="n">
         <v>366.7</v>
@@ -1704,7 +1704,7 @@
         <v>353.62</v>
       </c>
       <c r="J28" t="n">
-        <v>351.92</v>
+        <v>352.1</v>
       </c>
       <c r="K28" t="n">
         <v>351.43</v>
@@ -1749,7 +1749,7 @@
         <v>345.61</v>
       </c>
       <c r="J29" t="n">
-        <v>343.66</v>
+        <v>343.76</v>
       </c>
       <c r="K29" t="n">
         <v>336.72</v>
@@ -1794,7 +1794,7 @@
         <v>355.45</v>
       </c>
       <c r="J30" t="n">
-        <v>349.65</v>
+        <v>349.38</v>
       </c>
       <c r="K30" t="n">
         <v>345.23</v>
@@ -1839,7 +1839,7 @@
         <v>356.86</v>
       </c>
       <c r="J31" t="n">
-        <v>351.83</v>
+        <v>351.45</v>
       </c>
       <c r="K31" t="n">
         <v>348.99</v>
@@ -1884,7 +1884,7 @@
         <v>358.81</v>
       </c>
       <c r="J32" t="n">
-        <v>354.93</v>
+        <v>354.58</v>
       </c>
       <c r="K32" t="n">
         <v>356.83</v>
@@ -1929,7 +1929,7 @@
         <v>362.48</v>
       </c>
       <c r="J33" t="n">
-        <v>358.88</v>
+        <v>358.58</v>
       </c>
       <c r="K33" t="n">
         <v>356.83</v>
@@ -1974,7 +1974,7 @@
         <v>363.36</v>
       </c>
       <c r="J34" t="n">
-        <v>360.43</v>
+        <v>360.09</v>
       </c>
       <c r="K34" t="n">
         <v>357.63</v>
@@ -2019,7 +2019,7 @@
         <v>364.69</v>
       </c>
       <c r="J35" t="n">
-        <v>361.57</v>
+        <v>361.38</v>
       </c>
       <c r="K35" t="n">
         <v>361.43</v>
@@ -2064,7 +2064,7 @@
         <v>363.57</v>
       </c>
       <c r="J36" t="n">
-        <v>361.66</v>
+        <v>361.71</v>
       </c>
       <c r="K36" t="n">
         <v>360.48</v>
@@ -2109,7 +2109,7 @@
         <v>366.46</v>
       </c>
       <c r="J37" t="n">
-        <v>364.99</v>
+        <v>365.09</v>
       </c>
       <c r="K37" t="n">
         <v>368.42</v>
@@ -2154,7 +2154,7 @@
         <v>364.04</v>
       </c>
       <c r="J38" t="n">
-        <v>363.84</v>
+        <v>363.74</v>
       </c>
       <c r="K38" t="n">
         <v>364.32</v>
@@ -2199,7 +2199,7 @@
         <v>368.81</v>
       </c>
       <c r="J39" t="n">
-        <v>368.92</v>
+        <v>368.93</v>
       </c>
       <c r="K39" t="n">
         <v>367.88</v>
@@ -2244,7 +2244,7 @@
         <v>368.99</v>
       </c>
       <c r="J40" t="n">
-        <v>366.69</v>
+        <v>366.7</v>
       </c>
       <c r="K40" t="n">
         <v>367.71</v>
@@ -2289,7 +2289,7 @@
         <v>364.78</v>
       </c>
       <c r="J41" t="n">
-        <v>362.15</v>
+        <v>362.12</v>
       </c>
       <c r="K41" t="n">
         <v>363.52</v>
@@ -2334,7 +2334,7 @@
         <v>364.78</v>
       </c>
       <c r="J42" t="n">
-        <v>362.15</v>
+        <v>362.12</v>
       </c>
       <c r="K42" t="n">
         <v>363.52</v>
@@ -2379,7 +2379,7 @@
         <v>367.46</v>
       </c>
       <c r="J43" t="n">
-        <v>364.94</v>
+        <v>364.84</v>
       </c>
       <c r="K43" t="n">
         <v>365.26</v>
@@ -2424,7 +2424,7 @@
         <v>367.46</v>
       </c>
       <c r="J44" t="n">
-        <v>364.94</v>
+        <v>364.84</v>
       </c>
       <c r="K44" t="n">
         <v>365.26</v>
@@ -2469,7 +2469,7 @@
         <v>369.53</v>
       </c>
       <c r="J45" t="n">
-        <v>366.74</v>
+        <v>366.65</v>
       </c>
       <c r="K45" t="n">
         <v>366</v>
@@ -2514,7 +2514,7 @@
         <v>367.8</v>
       </c>
       <c r="J46" t="n">
-        <v>365.64</v>
+        <v>365.62</v>
       </c>
       <c r="K46" t="n">
         <v>365.16</v>
@@ -2559,7 +2559,7 @@
         <v>366.39</v>
       </c>
       <c r="J47" t="n">
-        <v>365.64</v>
+        <v>365.62</v>
       </c>
       <c r="K47" t="n">
         <v>365.16</v>
@@ -2604,7 +2604,7 @@
         <v>365.81</v>
       </c>
       <c r="J48" t="n">
-        <v>364.62</v>
+        <v>364.61</v>
       </c>
       <c r="K48" t="n">
         <v>364.09</v>
@@ -2694,7 +2694,7 @@
         <v>364.85</v>
       </c>
       <c r="J50" t="n">
-        <v>365.29</v>
+        <v>365.35</v>
       </c>
       <c r="K50" t="n">
         <v>357.8</v>
@@ -2739,7 +2739,7 @@
         <v>364.33</v>
       </c>
       <c r="J51" t="n">
-        <v>364.53</v>
+        <v>364.59</v>
       </c>
       <c r="K51" t="n">
         <v>357.92</v>
@@ -2784,7 +2784,7 @@
         <v>363.98</v>
       </c>
       <c r="J52" t="n">
-        <v>364.42</v>
+        <v>364.41</v>
       </c>
       <c r="K52" t="n">
         <v>358.07</v>
@@ -2829,7 +2829,7 @@
         <v>360.53</v>
       </c>
       <c r="J53" t="n">
-        <v>361.31</v>
+        <v>361.41</v>
       </c>
       <c r="K53" t="n">
         <v>356.07</v>
@@ -2874,7 +2874,7 @@
         <v>360.75</v>
       </c>
       <c r="J54" t="n">
-        <v>361.44</v>
+        <v>361.57</v>
       </c>
       <c r="K54" t="n">
         <v>357.37</v>
@@ -2919,7 +2919,7 @@
         <v>360.99</v>
       </c>
       <c r="J55" t="n">
-        <v>361.04</v>
+        <v>361.13</v>
       </c>
       <c r="K55" t="n">
         <v>357.25</v>
@@ -2964,7 +2964,7 @@
         <v>361.48</v>
       </c>
       <c r="J56" t="n">
-        <v>361.02</v>
+        <v>361.11</v>
       </c>
       <c r="K56" t="n">
         <v>355.98</v>
@@ -3009,7 +3009,7 @@
         <v>363.66</v>
       </c>
       <c r="J57" t="n">
-        <v>363.35</v>
+        <v>363.41</v>
       </c>
       <c r="K57" t="n">
         <v>359.11</v>
@@ -3054,7 +3054,7 @@
         <v>364.15</v>
       </c>
       <c r="J58" t="n">
-        <v>361.95</v>
+        <v>362.03</v>
       </c>
       <c r="K58" t="n">
         <v>358.13</v>
@@ -3099,7 +3099,7 @@
         <v>364.15</v>
       </c>
       <c r="J59" t="n">
-        <v>361.95</v>
+        <v>362.03</v>
       </c>
       <c r="K59" t="n">
         <v>358.13</v>
@@ -3144,7 +3144,7 @@
         <v>364.15</v>
       </c>
       <c r="J60" t="n">
-        <v>361.95</v>
+        <v>362.03</v>
       </c>
       <c r="K60" t="n">
         <v>358.13</v>
@@ -3189,7 +3189,7 @@
         <v>360.61</v>
       </c>
       <c r="J61" t="n">
-        <v>358.96</v>
+        <v>359.07</v>
       </c>
       <c r="K61" t="n">
         <v>357.82</v>
@@ -3234,7 +3234,7 @@
         <v>360.61</v>
       </c>
       <c r="J62" t="n">
-        <v>358.96</v>
+        <v>359.07</v>
       </c>
       <c r="K62" t="n">
         <v>357.82</v>
@@ -3279,7 +3279,7 @@
         <v>362</v>
       </c>
       <c r="J63" t="n">
-        <v>360.52</v>
+        <v>360.54</v>
       </c>
       <c r="K63" t="n">
         <v>359.76</v>
@@ -3324,7 +3324,7 @@
         <v>363.31</v>
       </c>
       <c r="J64" t="n">
-        <v>361.98</v>
+        <v>361.97</v>
       </c>
       <c r="K64" t="n">
         <v>361.54</v>
@@ -3369,7 +3369,7 @@
         <v>362.18</v>
       </c>
       <c r="J65" t="n">
-        <v>360.72</v>
+        <v>360.71</v>
       </c>
       <c r="K65" t="n">
         <v>364.11</v>
@@ -3414,7 +3414,7 @@
         <v>362.55</v>
       </c>
       <c r="J66" t="n">
-        <v>360.09</v>
+        <v>360.15</v>
       </c>
       <c r="K66" t="n">
         <v>364.25</v>
@@ -3459,7 +3459,7 @@
         <v>361.32</v>
       </c>
       <c r="J67" t="n">
-        <v>359.18</v>
+        <v>359.12</v>
       </c>
       <c r="K67" t="n">
         <v>362.05</v>
@@ -3504,7 +3504,7 @@
         <v>361.43</v>
       </c>
       <c r="J68" t="n">
-        <v>360.03</v>
+        <v>359.9</v>
       </c>
       <c r="K68" t="n">
         <v>362.78</v>
@@ -3549,7 +3549,7 @@
         <v>355.14</v>
       </c>
       <c r="J69" t="n">
-        <v>360.14</v>
+        <v>359.95</v>
       </c>
       <c r="K69" t="n">
         <v>360.65</v>
@@ -3594,7 +3594,7 @@
         <v>352.18</v>
       </c>
       <c r="J70" t="n">
-        <v>366.06</v>
+        <v>366</v>
       </c>
       <c r="K70" t="n">
         <v>365.66</v>
@@ -3639,7 +3639,7 @@
         <v>354.57</v>
       </c>
       <c r="J71" t="n">
-        <v>370.98</v>
+        <v>370.89</v>
       </c>
       <c r="K71" t="n">
         <v>369.35</v>
@@ -3684,7 +3684,7 @@
         <v>357.74</v>
       </c>
       <c r="J72" t="n">
-        <v>368.2</v>
+        <v>367.99</v>
       </c>
       <c r="K72" t="n">
         <v>368.93</v>
@@ -3729,7 +3729,7 @@
         <v>365.82</v>
       </c>
       <c r="J73" t="n">
-        <v>374.67</v>
+        <v>374.38</v>
       </c>
       <c r="K73" t="n">
         <v>373.64</v>
@@ -3774,7 +3774,7 @@
         <v>366.31</v>
       </c>
       <c r="J74" t="n">
-        <v>373.92</v>
+        <v>373.57</v>
       </c>
       <c r="K74" t="n">
         <v>372.25</v>
@@ -3819,7 +3819,7 @@
         <v>371.97</v>
       </c>
       <c r="J75" t="n">
-        <v>371.51</v>
+        <v>371.11</v>
       </c>
       <c r="K75" t="n">
         <v>371.48</v>
@@ -3864,7 +3864,7 @@
         <v>373.12</v>
       </c>
       <c r="J76" t="n">
-        <v>373.04</v>
+        <v>372.75</v>
       </c>
       <c r="K76" t="n">
         <v>371.81</v>
@@ -3909,7 +3909,7 @@
         <v>372.6</v>
       </c>
       <c r="J77" t="n">
-        <v>371.92</v>
+        <v>371.61</v>
       </c>
       <c r="K77" t="n">
         <v>369.31</v>
@@ -3954,7 +3954,7 @@
         <v>372.34</v>
       </c>
       <c r="J78" t="n">
-        <v>371.92</v>
+        <v>371.61</v>
       </c>
       <c r="K78" t="n">
         <v>369.31</v>
@@ -3999,7 +3999,7 @@
         <v>369.52</v>
       </c>
       <c r="J79" t="n">
-        <v>369.01</v>
+        <v>368.78</v>
       </c>
       <c r="K79" t="n">
         <v>366.1</v>
@@ -4044,7 +4044,7 @@
         <v>370.59</v>
       </c>
       <c r="J80" t="n">
-        <v>369.51</v>
+        <v>369.35</v>
       </c>
       <c r="K80" t="n">
         <v>367.04</v>
@@ -4089,7 +4089,7 @@
         <v>371.85</v>
       </c>
       <c r="J81" t="n">
-        <v>370.72</v>
+        <v>370.62</v>
       </c>
       <c r="K81" t="n">
         <v>367.32</v>
@@ -4134,7 +4134,7 @@
         <v>369.37</v>
       </c>
       <c r="J82" t="n">
-        <v>368.18</v>
+        <v>368.45</v>
       </c>
       <c r="K82" t="n">
         <v>366.29</v>
@@ -4179,7 +4179,7 @@
         <v>371</v>
       </c>
       <c r="J83" t="n">
-        <v>370.55</v>
+        <v>370.77</v>
       </c>
       <c r="K83" t="n">
         <v>369.56</v>
@@ -4224,7 +4224,7 @@
         <v>376.51</v>
       </c>
       <c r="J84" t="n">
-        <v>379.44</v>
+        <v>379.57</v>
       </c>
       <c r="K84" t="n">
         <v>379.79</v>
@@ -4269,7 +4269,7 @@
         <v>378.34</v>
       </c>
       <c r="J85" t="n">
-        <v>379.59</v>
+        <v>379.63</v>
       </c>
       <c r="K85" t="n">
         <v>379.7</v>
@@ -4314,7 +4314,7 @@
         <v>385.9</v>
       </c>
       <c r="J86" t="n">
-        <v>384.18</v>
+        <v>384.09</v>
       </c>
       <c r="K86" t="n">
         <v>382.72</v>
@@ -4404,7 +4404,7 @@
         <v>380.5</v>
       </c>
       <c r="J88" t="n">
-        <v>380.74</v>
+        <v>380.76</v>
       </c>
       <c r="K88" t="n">
         <v>383.47</v>
@@ -4449,7 +4449,7 @@
         <v>378.86</v>
       </c>
       <c r="J89" t="n">
-        <v>379.29</v>
+        <v>379.3</v>
       </c>
       <c r="K89" t="n">
         <v>381.79</v>
@@ -4539,7 +4539,7 @@
         <v>375.34</v>
       </c>
       <c r="J91" t="n">
-        <v>377.14</v>
+        <v>377.18</v>
       </c>
       <c r="K91" t="n">
         <v>379.1</v>
@@ -4584,7 +4584,7 @@
         <v>362.53</v>
       </c>
       <c r="J92" t="n">
-        <v>366.67</v>
+        <v>367.06</v>
       </c>
       <c r="K92" t="n">
         <v>368.77</v>
@@ -4629,7 +4629,7 @@
         <v>362.53</v>
       </c>
       <c r="J93" t="n">
-        <v>366.67</v>
+        <v>367.06</v>
       </c>
       <c r="K93" t="n">
         <v>368.77</v>
@@ -4674,7 +4674,7 @@
         <v>363.56</v>
       </c>
       <c r="J94" t="n">
-        <v>367.12</v>
+        <v>367.56</v>
       </c>
       <c r="K94" t="n">
         <v>371.56</v>
@@ -4719,7 +4719,7 @@
         <v>362.44</v>
       </c>
       <c r="J95" t="n">
-        <v>363.87</v>
+        <v>364.23</v>
       </c>
       <c r="K95" t="n">
         <v>370.06</v>
@@ -4764,7 +4764,7 @@
         <v>368.95</v>
       </c>
       <c r="J96" t="n">
-        <v>368.54</v>
+        <v>368.63</v>
       </c>
       <c r="K96" t="n">
         <v>374.12</v>
@@ -4809,7 +4809,7 @@
         <v>367.88</v>
       </c>
       <c r="J97" t="n">
-        <v>368.9</v>
+        <v>368.83</v>
       </c>
       <c r="K97" t="n">
         <v>373.49</v>
@@ -4854,7 +4854,7 @@
         <v>367.84</v>
       </c>
       <c r="J98" t="n">
-        <v>367.06</v>
+        <v>366.75</v>
       </c>
       <c r="K98" t="n">
         <v>372.24</v>
@@ -4899,7 +4899,7 @@
         <v>362.89</v>
       </c>
       <c r="J99" t="n">
-        <v>363.58</v>
+        <v>363.42</v>
       </c>
       <c r="K99" t="n">
         <v>368.48</v>
@@ -4944,7 +4944,7 @@
         <v>357.56</v>
       </c>
       <c r="J100" t="n">
-        <v>358.56</v>
+        <v>358.51</v>
       </c>
       <c r="K100" t="n">
         <v>362.16</v>
@@ -4989,7 +4989,7 @@
         <v>358.03</v>
       </c>
       <c r="J101" t="n">
-        <v>357.2</v>
+        <v>357.25</v>
       </c>
       <c r="K101" t="n">
         <v>360.23</v>
@@ -5034,7 +5034,7 @@
         <v>355.5</v>
       </c>
       <c r="J102" t="n">
-        <v>356.81</v>
+        <v>357.1</v>
       </c>
       <c r="K102" t="n">
         <v>359.54</v>
@@ -5079,7 +5079,7 @@
         <v>364.39</v>
       </c>
       <c r="J103" t="n">
-        <v>361.2</v>
+        <v>361.48</v>
       </c>
       <c r="K103" t="n">
         <v>363</v>
@@ -5124,7 +5124,7 @@
         <v>358.11</v>
       </c>
       <c r="J104" t="n">
-        <v>358.72</v>
+        <v>358.85</v>
       </c>
       <c r="K104" t="n">
         <v>363</v>
@@ -5169,7 +5169,7 @@
         <v>359.8</v>
       </c>
       <c r="J105" t="n">
-        <v>362.23</v>
+        <v>362.18</v>
       </c>
       <c r="K105" t="n">
         <v>366.41</v>
@@ -5214,7 +5214,7 @@
         <v>361.1</v>
       </c>
       <c r="J106" t="n">
-        <v>361.96</v>
+        <v>361.95</v>
       </c>
       <c r="K106" t="n">
         <v>365.56</v>
@@ -5259,7 +5259,7 @@
         <v>360.98</v>
       </c>
       <c r="J107" t="n">
-        <v>361.14</v>
+        <v>361.21</v>
       </c>
       <c r="K107" t="n">
         <v>365.08</v>
@@ -5304,7 +5304,7 @@
         <v>361.5</v>
       </c>
       <c r="J108" t="n">
-        <v>360.96</v>
+        <v>361.03</v>
       </c>
       <c r="K108" t="n">
         <v>364.89</v>
@@ -5349,7 +5349,7 @@
         <v>363</v>
       </c>
       <c r="J109" t="n">
-        <v>362.83</v>
+        <v>362.8</v>
       </c>
       <c r="K109" t="n">
         <v>366.45</v>
@@ -5394,7 +5394,7 @@
         <v>365.78</v>
       </c>
       <c r="J110" t="n">
-        <v>366.03</v>
+        <v>365.95</v>
       </c>
       <c r="K110" t="n">
         <v>368.17</v>
@@ -5439,7 +5439,7 @@
         <v>364.87</v>
       </c>
       <c r="J111" t="n">
-        <v>365.22</v>
+        <v>365.11</v>
       </c>
       <c r="K111" t="n">
         <v>368.6</v>
@@ -5484,7 +5484,7 @@
         <v>364.81</v>
       </c>
       <c r="J112" t="n">
-        <v>363.97</v>
+        <v>363.84</v>
       </c>
       <c r="K112" t="n">
         <v>365.61</v>
@@ -5529,7 +5529,7 @@
         <v>365.19</v>
       </c>
       <c r="J113" t="n">
-        <v>360.38</v>
+        <v>360.22</v>
       </c>
       <c r="K113" t="n">
         <v>364.46</v>
@@ -5574,7 +5574,7 @@
         <v>361.49</v>
       </c>
       <c r="J114" t="n">
-        <v>355.35</v>
+        <v>355.37</v>
       </c>
       <c r="K114" t="n">
         <v>359.5</v>
@@ -5619,7 +5619,7 @@
         <v>360.21</v>
       </c>
       <c r="J115" t="n">
-        <v>356.28</v>
+        <v>356.21</v>
       </c>
       <c r="K115" t="n">
         <v>359.22</v>
@@ -5664,7 +5664,7 @@
         <v>360.21</v>
       </c>
       <c r="J116" t="n">
-        <v>356.69</v>
+        <v>356.6</v>
       </c>
       <c r="K116" t="n">
         <v>360.21</v>
@@ -5709,7 +5709,7 @@
         <v>356.99</v>
       </c>
       <c r="J117" t="n">
-        <v>356.76</v>
+        <v>356.6</v>
       </c>
       <c r="K117" t="n">
         <v>359.62</v>
@@ -5754,7 +5754,7 @@
         <v>357.57</v>
       </c>
       <c r="J118" t="n">
-        <v>357.65</v>
+        <v>357.59</v>
       </c>
       <c r="K118" t="n">
         <v>360.14</v>
@@ -5799,7 +5799,7 @@
         <v>357.11</v>
       </c>
       <c r="J119" t="n">
-        <v>356.61</v>
+        <v>356.48</v>
       </c>
       <c r="K119" t="n">
         <v>359.15</v>
@@ -5844,7 +5844,7 @@
         <v>357.11</v>
       </c>
       <c r="J120" t="n">
-        <v>356.61</v>
+        <v>356.48</v>
       </c>
       <c r="K120" t="n">
         <v>359.15</v>
@@ -5889,7 +5889,7 @@
         <v>357.43</v>
       </c>
       <c r="J121" t="n">
-        <v>355.94</v>
+        <v>355.79</v>
       </c>
       <c r="K121" t="n">
         <v>359.86</v>
@@ -5934,7 +5934,7 @@
         <v>356.32</v>
       </c>
       <c r="J122" t="n">
-        <v>356.71</v>
+        <v>356.61</v>
       </c>
       <c r="K122" t="n">
         <v>360.54</v>
@@ -5979,7 +5979,7 @@
         <v>357.09</v>
       </c>
       <c r="J123" t="n">
-        <v>356.71</v>
+        <v>356.61</v>
       </c>
       <c r="K123" t="n">
         <v>360.54</v>
@@ -6024,7 +6024,7 @@
         <v>358.31</v>
       </c>
       <c r="J124" t="n">
-        <v>358.55</v>
+        <v>358.46</v>
       </c>
       <c r="K124" t="n">
         <v>362.07</v>
@@ -6069,7 +6069,7 @@
         <v>361.08</v>
       </c>
       <c r="J125" t="n">
-        <v>358.74</v>
+        <v>358.8</v>
       </c>
       <c r="K125" t="n">
         <v>363.61</v>
@@ -6114,7 +6114,7 @@
         <v>360.38</v>
       </c>
       <c r="J126" t="n">
-        <v>357.04</v>
+        <v>356.94</v>
       </c>
       <c r="K126" t="n">
         <v>362.35</v>
@@ -6159,7 +6159,7 @@
         <v>361.38</v>
       </c>
       <c r="J127" t="n">
-        <v>354.29</v>
+        <v>354.19</v>
       </c>
       <c r="K127" t="n">
         <v>360.25</v>
@@ -6204,7 +6204,7 @@
         <v>359.79</v>
       </c>
       <c r="J128" t="n">
-        <v>353.9</v>
+        <v>353.89</v>
       </c>
       <c r="K128" t="n">
         <v>359.6</v>
@@ -6249,7 +6249,7 @@
         <v>361.85</v>
       </c>
       <c r="J129" t="n">
-        <v>356.14</v>
+        <v>356.16</v>
       </c>
       <c r="K129" t="n">
         <v>360.92</v>
@@ -6294,7 +6294,7 @@
         <v>359.61</v>
       </c>
       <c r="J130" t="n">
-        <v>354.33</v>
+        <v>354.32</v>
       </c>
       <c r="K130" t="n">
         <v>357.9</v>
@@ -6339,7 +6339,7 @@
         <v>359.76</v>
       </c>
       <c r="J131" t="n">
-        <v>354.24</v>
+        <v>354.2</v>
       </c>
       <c r="K131" t="n">
         <v>356.77</v>
@@ -6384,7 +6384,7 @@
         <v>361.26</v>
       </c>
       <c r="J132" t="n">
-        <v>356.8</v>
+        <v>356.74</v>
       </c>
       <c r="K132" t="n">
         <v>359.28</v>
@@ -6429,7 +6429,7 @@
         <v>362.04</v>
       </c>
       <c r="J133" t="n">
-        <v>357.31</v>
+        <v>357.15</v>
       </c>
       <c r="K133" t="n">
         <v>359.81</v>
@@ -6474,7 +6474,7 @@
         <v>362.05</v>
       </c>
       <c r="J134" t="n">
-        <v>358.55</v>
+        <v>358.32</v>
       </c>
       <c r="K134" t="n">
         <v>360.85</v>
@@ -6519,7 +6519,7 @@
         <v>361.13</v>
       </c>
       <c r="J135" t="n">
-        <v>357.74</v>
+        <v>357.53</v>
       </c>
       <c r="K135" t="n">
         <v>360.27</v>
@@ -6564,7 +6564,7 @@
         <v>361.77</v>
       </c>
       <c r="J136" t="n">
-        <v>358.57</v>
+        <v>358.28</v>
       </c>
       <c r="K136" t="n">
         <v>360.63</v>
@@ -6609,7 +6609,7 @@
         <v>356.34</v>
       </c>
       <c r="J137" t="n">
-        <v>358.61</v>
+        <v>358.3</v>
       </c>
       <c r="K137" t="n">
         <v>362.47</v>
@@ -6654,7 +6654,7 @@
         <v>351.96</v>
       </c>
       <c r="J138" t="n">
-        <v>356.39</v>
+        <v>356.18</v>
       </c>
       <c r="K138" t="n">
         <v>359.8</v>
@@ -6699,7 +6699,7 @@
         <v>349.68</v>
       </c>
       <c r="J139" t="n">
-        <v>354.55</v>
+        <v>354.31</v>
       </c>
       <c r="K139" t="n">
         <v>352.57</v>
@@ -6744,7 +6744,7 @@
         <v>352.67</v>
       </c>
       <c r="J140" t="n">
-        <v>356.8</v>
+        <v>356.57</v>
       </c>
       <c r="K140" t="n">
         <v>354.79</v>
@@ -6789,7 +6789,7 @@
         <v>354.84</v>
       </c>
       <c r="J141" t="n">
-        <v>356.45</v>
+        <v>356.53</v>
       </c>
       <c r="K141" t="n">
         <v>356.31</v>
@@ -6834,7 +6834,7 @@
         <v>354.84</v>
       </c>
       <c r="J142" t="n">
-        <v>360.31</v>
+        <v>360.37</v>
       </c>
       <c r="K142" t="n">
         <v>362.23</v>
@@ -6879,7 +6879,7 @@
         <v>355.35</v>
       </c>
       <c r="J143" t="n">
-        <v>361.83</v>
+        <v>362.05</v>
       </c>
       <c r="K143" t="n">
         <v>368.6</v>
@@ -6924,7 +6924,7 @@
         <v>355.35</v>
       </c>
       <c r="J144" t="n">
-        <v>361.83</v>
+        <v>362.05</v>
       </c>
       <c r="K144" t="n">
         <v>368.6</v>
@@ -6969,7 +6969,7 @@
         <v>360.83</v>
       </c>
       <c r="J145" t="n">
-        <v>366.49</v>
+        <v>366.36</v>
       </c>
       <c r="K145" t="n">
         <v>372.67</v>
@@ -7014,7 +7014,7 @@
         <v>364.77</v>
       </c>
       <c r="J146" t="n">
-        <v>367.81</v>
+        <v>367.64</v>
       </c>
       <c r="K146" t="n">
         <v>373.69</v>
@@ -7059,7 +7059,7 @@
         <v>368.55</v>
       </c>
       <c r="J147" t="n">
-        <v>370.68</v>
+        <v>370.56</v>
       </c>
       <c r="K147" t="n">
         <v>373.53</v>
@@ -7104,7 +7104,7 @@
         <v>369.74</v>
       </c>
       <c r="J148" t="n">
-        <v>372.84</v>
+        <v>372.74</v>
       </c>
       <c r="K148" t="n">
         <v>374.89</v>
@@ -7149,7 +7149,7 @@
         <v>368.75</v>
       </c>
       <c r="J149" t="n">
-        <v>370.74</v>
+        <v>370.64</v>
       </c>
       <c r="K149" t="n">
         <v>373.47</v>
@@ -7194,7 +7194,7 @@
         <v>369.2</v>
       </c>
       <c r="J150" t="n">
-        <v>369.74</v>
+        <v>369.69</v>
       </c>
       <c r="K150" t="n">
         <v>373.24</v>
@@ -7239,7 +7239,7 @@
         <v>366.73</v>
       </c>
       <c r="J151" t="n">
-        <v>367.73</v>
+        <v>367.65</v>
       </c>
       <c r="K151" t="n">
         <v>370.46</v>
@@ -7284,7 +7284,7 @@
         <v>366.7</v>
       </c>
       <c r="J152" t="n">
-        <v>367.45</v>
+        <v>367.33</v>
       </c>
       <c r="K152" t="n">
         <v>370.65</v>
@@ -7329,7 +7329,7 @@
         <v>366.67</v>
       </c>
       <c r="J153" t="n">
-        <v>366.93</v>
+        <v>366.83</v>
       </c>
       <c r="K153" t="n">
         <v>370.21</v>
@@ -7374,7 +7374,7 @@
         <v>366.65</v>
       </c>
       <c r="J154" t="n">
-        <v>366.72</v>
+        <v>366.58</v>
       </c>
       <c r="K154" t="n">
         <v>370.21</v>
@@ -7419,7 +7419,7 @@
         <v>366.49</v>
       </c>
       <c r="J155" t="n">
-        <v>366.79</v>
+        <v>366.59</v>
       </c>
       <c r="K155" t="n">
         <v>370.16</v>
@@ -7464,7 +7464,7 @@
         <v>366.27</v>
       </c>
       <c r="J156" t="n">
-        <v>367.11</v>
+        <v>366.89</v>
       </c>
       <c r="K156" t="n">
         <v>370.19</v>
@@ -7509,7 +7509,7 @@
         <v>365.89</v>
       </c>
       <c r="J157" t="n">
-        <v>366.56</v>
+        <v>366.37</v>
       </c>
       <c r="K157" t="n">
         <v>369.64</v>
@@ -7554,7 +7554,7 @@
         <v>364.57</v>
       </c>
       <c r="J158" t="n">
-        <v>365.13</v>
+        <v>364.93</v>
       </c>
       <c r="K158" t="n">
         <v>368.15</v>
@@ -7599,7 +7599,7 @@
         <v>363.38</v>
       </c>
       <c r="J159" t="n">
-        <v>363.98</v>
+        <v>363.8</v>
       </c>
       <c r="K159" t="n">
         <v>366.92</v>
@@ -7644,7 +7644,7 @@
         <v>363.46</v>
       </c>
       <c r="J160" t="n">
-        <v>363.88</v>
+        <v>363.7</v>
       </c>
       <c r="K160" t="n">
         <v>366.74</v>
@@ -7689,7 +7689,7 @@
         <v>364.04</v>
       </c>
       <c r="J161" t="n">
-        <v>364.31</v>
+        <v>364.09</v>
       </c>
       <c r="K161" t="n">
         <v>366.86</v>
@@ -7734,7 +7734,7 @@
         <v>363.75</v>
       </c>
       <c r="J162" t="n">
-        <v>363.47</v>
+        <v>363.23</v>
       </c>
       <c r="K162" t="n">
         <v>366.56</v>
@@ -7779,7 +7779,7 @@
         <v>360.05</v>
       </c>
       <c r="J163" t="n">
-        <v>359.26</v>
+        <v>358.95</v>
       </c>
       <c r="K163" t="n">
         <v>362.58</v>
@@ -7824,7 +7824,7 @@
         <v>358.3</v>
       </c>
       <c r="J164" t="n">
-        <v>356.85</v>
+        <v>356.64</v>
       </c>
       <c r="K164" t="n">
         <v>360.17</v>
@@ -7869,7 +7869,7 @@
         <v>358.75</v>
       </c>
       <c r="J165" t="n">
-        <v>357.57</v>
+        <v>357.42</v>
       </c>
       <c r="K165" t="n">
         <v>360.84</v>
@@ -7914,7 +7914,7 @@
         <v>358.41</v>
       </c>
       <c r="J166" t="n">
-        <v>356.29</v>
+        <v>356.24</v>
       </c>
       <c r="K166" t="n">
         <v>360.27</v>
@@ -7959,7 +7959,7 @@
         <v>362.2</v>
       </c>
       <c r="J167" t="n">
-        <v>359.93</v>
+        <v>359.84</v>
       </c>
       <c r="K167" t="n">
         <v>365.36</v>
@@ -8004,7 +8004,7 @@
         <v>361.87</v>
       </c>
       <c r="J168" t="n">
-        <v>359.35</v>
+        <v>359.28</v>
       </c>
       <c r="K168" t="n">
         <v>364.44</v>
@@ -8049,7 +8049,7 @@
         <v>360.67</v>
       </c>
       <c r="J169" t="n">
-        <v>358.76</v>
+        <v>358.81</v>
       </c>
       <c r="K169" t="n">
         <v>363.71</v>
@@ -8094,7 +8094,7 @@
         <v>360.22</v>
       </c>
       <c r="J170" t="n">
-        <v>359.27</v>
+        <v>359.33</v>
       </c>
       <c r="K170" t="n">
         <v>362.97</v>
@@ -8139,7 +8139,7 @@
         <v>358.63</v>
       </c>
       <c r="J171" t="n">
-        <v>358.79</v>
+        <v>358.9</v>
       </c>
       <c r="K171" t="n">
         <v>362.05</v>
@@ -8184,7 +8184,7 @@
         <v>359.06</v>
       </c>
       <c r="J172" t="n">
-        <v>359.76</v>
+        <v>359.8</v>
       </c>
       <c r="K172" t="n">
         <v>362.96</v>
@@ -8229,7 +8229,7 @@
         <v>357.46</v>
       </c>
       <c r="J173" t="n">
-        <v>358.37</v>
+        <v>358.39</v>
       </c>
       <c r="K173" t="n">
         <v>361.81</v>
@@ -8274,7 +8274,7 @@
         <v>357.44</v>
       </c>
       <c r="J174" t="n">
-        <v>357.9</v>
+        <v>357.93</v>
       </c>
       <c r="K174" t="n">
         <v>361.34</v>
@@ -8319,7 +8319,7 @@
         <v>356.07</v>
       </c>
       <c r="J175" t="n">
-        <v>357.19</v>
+        <v>357.23</v>
       </c>
       <c r="K175" t="n">
         <v>359.53</v>
@@ -8364,7 +8364,7 @@
         <v>355.32</v>
       </c>
       <c r="J176" t="n">
-        <v>357.07</v>
+        <v>357.02</v>
       </c>
       <c r="K176" t="n">
         <v>359.55</v>
@@ -8409,7 +8409,7 @@
         <v>355.65</v>
       </c>
       <c r="J177" t="n">
-        <v>357.05</v>
+        <v>357.03</v>
       </c>
       <c r="K177" t="n">
         <v>359.59</v>
@@ -8499,7 +8499,7 @@
         <v>355.9</v>
       </c>
       <c r="J179" t="n">
-        <v>357.4</v>
+        <v>357.36</v>
       </c>
       <c r="K179" t="n">
         <v>359.92</v>
@@ -8544,7 +8544,7 @@
         <v>356.25</v>
       </c>
       <c r="J180" t="n">
-        <v>357.69</v>
+        <v>357.59</v>
       </c>
       <c r="K180" t="n">
         <v>360.4</v>
@@ -8589,7 +8589,7 @@
         <v>356.59</v>
       </c>
       <c r="J181" t="n">
-        <v>358</v>
+        <v>357.94</v>
       </c>
       <c r="K181" t="n">
         <v>360.72</v>
@@ -8634,7 +8634,7 @@
         <v>356.59</v>
       </c>
       <c r="J182" t="n">
-        <v>358.26</v>
+        <v>358.23</v>
       </c>
       <c r="K182" t="n">
         <v>360.93</v>
@@ -8679,7 +8679,7 @@
         <v>356.89</v>
       </c>
       <c r="J183" t="n">
-        <v>359.38</v>
+        <v>359.3</v>
       </c>
       <c r="K183" t="n">
         <v>362.71</v>
@@ -8724,7 +8724,7 @@
         <v>356.89</v>
       </c>
       <c r="J184" t="n">
-        <v>359.38</v>
+        <v>359.3</v>
       </c>
       <c r="K184" t="n">
         <v>362.71</v>
@@ -8769,7 +8769,7 @@
         <v>355.85</v>
       </c>
       <c r="J185" t="n">
-        <v>358.53</v>
+        <v>358.48</v>
       </c>
       <c r="K185" t="n">
         <v>361.76</v>
@@ -8814,7 +8814,7 @@
         <v>355.39</v>
       </c>
       <c r="J186" t="n">
-        <v>358.35</v>
+        <v>358.28</v>
       </c>
       <c r="K186" t="n">
         <v>361.59</v>
@@ -8859,7 +8859,7 @@
         <v>354.94</v>
       </c>
       <c r="J187" t="n">
-        <v>357.76</v>
+        <v>357.68</v>
       </c>
       <c r="K187" t="n">
         <v>361.33</v>
@@ -8904,7 +8904,7 @@
         <v>354.83</v>
       </c>
       <c r="J188" t="n">
-        <v>357.85</v>
+        <v>357.83</v>
       </c>
       <c r="K188" t="n">
         <v>361.6</v>
@@ -8949,7 +8949,7 @@
         <v>355.97</v>
       </c>
       <c r="J189" t="n">
-        <v>358.23</v>
+        <v>358.15</v>
       </c>
       <c r="K189" t="n">
         <v>362.19</v>
@@ -8994,7 +8994,7 @@
         <v>355.45</v>
       </c>
       <c r="J190" t="n">
-        <v>357.23</v>
+        <v>357.22</v>
       </c>
       <c r="K190" t="n">
         <v>361.3</v>
@@ -9039,7 +9039,7 @@
         <v>356.3</v>
       </c>
       <c r="J191" t="n">
-        <v>358.09</v>
+        <v>358.1</v>
       </c>
       <c r="K191" t="n">
         <v>361.84</v>
@@ -9084,7 +9084,7 @@
         <v>357.69</v>
       </c>
       <c r="J192" t="n">
-        <v>359.18</v>
+        <v>359.17</v>
       </c>
       <c r="K192" t="n">
         <v>362.79</v>
@@ -9129,7 +9129,7 @@
         <v>359.17</v>
       </c>
       <c r="J193" t="n">
-        <v>360.63</v>
+        <v>360.75</v>
       </c>
       <c r="K193" t="n">
         <v>365.47</v>
@@ -9174,7 +9174,7 @@
         <v>357.98</v>
       </c>
       <c r="J194" t="n">
-        <v>357.97</v>
+        <v>358.11</v>
       </c>
       <c r="K194" t="n">
         <v>361.61</v>
@@ -9219,7 +9219,7 @@
         <v>357.56</v>
       </c>
       <c r="J195" t="n">
-        <v>357.79</v>
+        <v>357.95</v>
       </c>
       <c r="K195" t="n">
         <v>361.61</v>
@@ -9264,7 +9264,7 @@
         <v>358.7</v>
       </c>
       <c r="J196" t="n">
-        <v>357.81</v>
+        <v>357.95</v>
       </c>
       <c r="K196" t="n">
         <v>361.45</v>
@@ -9309,7 +9309,7 @@
         <v>359.39</v>
       </c>
       <c r="J197" t="n">
-        <v>358.38</v>
+        <v>358.55</v>
       </c>
       <c r="K197" t="n">
         <v>359.59</v>
@@ -9354,7 +9354,7 @@
         <v>361.04</v>
       </c>
       <c r="J198" t="n">
-        <v>360.39</v>
+        <v>360.51</v>
       </c>
       <c r="K198" t="n">
         <v>360.57</v>
@@ -9399,7 +9399,7 @@
         <v>361.26</v>
       </c>
       <c r="J199" t="n">
-        <v>360.98</v>
+        <v>361.06</v>
       </c>
       <c r="K199" t="n">
         <v>361.01</v>
@@ -9444,7 +9444,7 @@
         <v>361.53</v>
       </c>
       <c r="J200" t="n">
-        <v>360.49</v>
+        <v>360.48</v>
       </c>
       <c r="K200" t="n">
         <v>360.24</v>
@@ -9489,7 +9489,7 @@
         <v>359.22</v>
       </c>
       <c r="J201" t="n">
-        <v>358.34</v>
+        <v>358.27</v>
       </c>
       <c r="K201" t="n">
         <v>357.85</v>
@@ -9534,7 +9534,7 @@
         <v>357.95</v>
       </c>
       <c r="J202" t="n">
-        <v>358.05</v>
+        <v>358.03</v>
       </c>
       <c r="K202" t="n">
         <v>356.57</v>
@@ -9579,7 +9579,7 @@
         <v>358.3</v>
       </c>
       <c r="J203" t="n">
-        <v>358.72</v>
+        <v>358.63</v>
       </c>
       <c r="K203" t="n">
         <v>356.62</v>
@@ -9624,7 +9624,7 @@
         <v>358.67</v>
       </c>
       <c r="J204" t="n">
-        <v>358.73</v>
+        <v>358.7</v>
       </c>
       <c r="K204" t="n">
         <v>357.53</v>
@@ -9669,7 +9669,7 @@
         <v>358.45</v>
       </c>
       <c r="J205" t="n">
-        <v>358.7</v>
+        <v>358.71</v>
       </c>
       <c r="K205" t="n">
         <v>357.71</v>
@@ -9714,7 +9714,7 @@
         <v>357.99</v>
       </c>
       <c r="J206" t="n">
-        <v>357.38</v>
+        <v>357.33</v>
       </c>
       <c r="K206" t="n">
         <v>356.87</v>
@@ -9759,7 +9759,7 @@
         <v>358.16</v>
       </c>
       <c r="J207" t="n">
-        <v>357.02</v>
+        <v>357.04</v>
       </c>
       <c r="K207" t="n">
         <v>356.32</v>
@@ -9804,7 +9804,7 @@
         <v>358.16</v>
       </c>
       <c r="J208" t="n">
-        <v>356.54</v>
+        <v>356.51</v>
       </c>
       <c r="K208" t="n">
         <v>356.33</v>
@@ -9849,7 +9849,7 @@
         <v>358.32</v>
       </c>
       <c r="J209" t="n">
-        <v>356.43</v>
+        <v>356.38</v>
       </c>
       <c r="K209" t="n">
         <v>356.63</v>
@@ -9894,7 +9894,7 @@
         <v>361</v>
       </c>
       <c r="J210" t="n">
-        <v>356.43</v>
+        <v>356.38</v>
       </c>
       <c r="K210" t="n">
         <v>356.63</v>
@@ -9939,7 +9939,7 @@
         <v>361.55</v>
       </c>
       <c r="J211" t="n">
-        <v>356.88</v>
+        <v>356.84</v>
       </c>
       <c r="K211" t="n">
         <v>357.22</v>
@@ -9984,7 +9984,7 @@
         <v>362.05</v>
       </c>
       <c r="J212" t="n">
-        <v>357.55</v>
+        <v>357.5</v>
       </c>
       <c r="K212" t="n">
         <v>357.72</v>
@@ -10029,7 +10029,7 @@
         <v>362.11</v>
       </c>
       <c r="J213" t="n">
-        <v>357.16</v>
+        <v>357.11</v>
       </c>
       <c r="K213" t="n">
         <v>357.34</v>
@@ -10074,7 +10074,7 @@
         <v>362.23</v>
       </c>
       <c r="J214" t="n">
-        <v>357.34</v>
+        <v>357.32</v>
       </c>
       <c r="K214" t="n">
         <v>357.7</v>
@@ -10119,7 +10119,7 @@
         <v>363.06</v>
       </c>
       <c r="J215" t="n">
-        <v>358</v>
+        <v>357.94</v>
       </c>
       <c r="K215" t="n">
         <v>358.09</v>
@@ -10164,7 +10164,7 @@
         <v>362.72</v>
       </c>
       <c r="J216" t="n">
-        <v>357.98</v>
+        <v>357.92</v>
       </c>
       <c r="K216" t="n">
         <v>358.46</v>
@@ -10209,7 +10209,7 @@
         <v>362.08</v>
       </c>
       <c r="J217" t="n">
-        <v>357.79</v>
+        <v>357.73</v>
       </c>
       <c r="K217" t="n">
         <v>359.54</v>
@@ -10254,7 +10254,7 @@
         <v>361.53</v>
       </c>
       <c r="J218" t="n">
-        <v>357.58</v>
+        <v>357.52</v>
       </c>
       <c r="K218" t="n">
         <v>359.29</v>
@@ -10299,7 +10299,7 @@
         <v>359.25</v>
       </c>
       <c r="J219" t="n">
-        <v>356.37</v>
+        <v>356.33</v>
       </c>
       <c r="K219" t="n">
         <v>358.63</v>
@@ -10344,7 +10344,7 @@
         <v>361.73</v>
       </c>
       <c r="J220" t="n">
-        <v>359.99</v>
+        <v>360.04</v>
       </c>
       <c r="K220" t="n">
         <v>360.9</v>
@@ -10389,7 +10389,7 @@
         <v>362.19</v>
       </c>
       <c r="J221" t="n">
-        <v>359.59</v>
+        <v>359.53</v>
       </c>
       <c r="K221" t="n">
         <v>361.03</v>
@@ -10434,7 +10434,7 @@
         <v>361.2</v>
       </c>
       <c r="J222" t="n">
-        <v>360.58</v>
+        <v>360.56</v>
       </c>
       <c r="K222" t="n">
         <v>361.14</v>
@@ -10479,7 +10479,7 @@
         <v>355.99</v>
       </c>
       <c r="J223" t="n">
-        <v>360.52</v>
+        <v>360.56</v>
       </c>
       <c r="K223" t="n">
         <v>361.12</v>
@@ -10524,7 +10524,7 @@
         <v>354.41</v>
       </c>
       <c r="J224" t="n">
-        <v>360.74</v>
+        <v>360.71</v>
       </c>
       <c r="K224" t="n">
         <v>360.27</v>
@@ -10569,7 +10569,7 @@
         <v>354.41</v>
       </c>
       <c r="J225" t="n">
-        <v>360.74</v>
+        <v>360.71</v>
       </c>
       <c r="K225" t="n">
         <v>361.72</v>
@@ -10614,7 +10614,7 @@
         <v>354.39</v>
       </c>
       <c r="J226" t="n">
-        <v>360.49</v>
+        <v>360.52</v>
       </c>
       <c r="K226" t="n">
         <v>361.92</v>
@@ -10659,7 +10659,7 @@
         <v>354.28</v>
       </c>
       <c r="J227" t="n">
-        <v>360.13</v>
+        <v>360.19</v>
       </c>
       <c r="K227" t="n">
         <v>361.96</v>
@@ -10704,7 +10704,7 @@
         <v>353.63</v>
       </c>
       <c r="J228" t="n">
-        <v>359.57</v>
+        <v>359.54</v>
       </c>
       <c r="K228" t="n">
         <v>361.2</v>
@@ -10749,7 +10749,7 @@
         <v>351.99</v>
       </c>
       <c r="J229" t="n">
-        <v>357.64</v>
+        <v>357.58</v>
       </c>
       <c r="K229" t="n">
         <v>358.97</v>
@@ -10794,7 +10794,7 @@
         <v>352.34</v>
       </c>
       <c r="J230" t="n">
-        <v>358.27</v>
+        <v>358.21</v>
       </c>
       <c r="K230" t="n">
         <v>359.22</v>
@@ -10839,7 +10839,7 @@
         <v>352.59</v>
       </c>
       <c r="J231" t="n">
-        <v>357.78</v>
+        <v>357.73</v>
       </c>
       <c r="K231" t="n">
         <v>358.93</v>
@@ -10884,7 +10884,7 @@
         <v>355.24</v>
       </c>
       <c r="J232" t="n">
-        <v>357.5</v>
+        <v>357.44</v>
       </c>
       <c r="K232" t="n">
         <v>359.06</v>
@@ -10929,7 +10929,7 @@
         <v>354.72</v>
       </c>
       <c r="J233" t="n">
-        <v>357.02</v>
+        <v>356.98</v>
       </c>
       <c r="K233" t="n">
         <v>358.4</v>
@@ -10974,7 +10974,7 @@
         <v>354.32</v>
       </c>
       <c r="J234" t="n">
-        <v>356.68</v>
+        <v>356.67</v>
       </c>
       <c r="K234" t="n">
         <v>358.08</v>
@@ -11019,7 +11019,7 @@
         <v>353.43</v>
       </c>
       <c r="J235" t="n">
-        <v>355.18</v>
+        <v>355.11</v>
       </c>
       <c r="K235" t="n">
         <v>359.05</v>
@@ -11064,7 +11064,7 @@
         <v>353.75</v>
       </c>
       <c r="J236" t="n">
-        <v>356.22</v>
+        <v>356.1</v>
       </c>
       <c r="K236" t="n">
         <v>360.79</v>
@@ -11109,7 +11109,7 @@
         <v>353.84</v>
       </c>
       <c r="J237" t="n">
-        <v>356.63</v>
+        <v>356.58</v>
       </c>
       <c r="K237" t="n">
         <v>361.34</v>
@@ -11199,7 +11199,7 @@
         <v>355.45</v>
       </c>
       <c r="J239" t="n">
-        <v>358.13</v>
+        <v>358.09</v>
       </c>
       <c r="K239" t="n">
         <v>362.41</v>
@@ -11289,7 +11289,7 @@
         <v>353.71</v>
       </c>
       <c r="J241" t="n">
-        <v>356.74</v>
+        <v>356.75</v>
       </c>
       <c r="K241" t="n">
         <v>361.6</v>
@@ -11424,7 +11424,7 @@
         <v>354.5</v>
       </c>
       <c r="J244" t="n">
-        <v>356.94</v>
+        <v>356.95</v>
       </c>
       <c r="K244" t="n">
         <v>361.01</v>
@@ -11469,7 +11469,7 @@
         <v>354.07</v>
       </c>
       <c r="J245" t="n">
-        <v>356</v>
+        <v>355.99</v>
       </c>
       <c r="K245" t="n">
         <v>360.25</v>
@@ -11514,7 +11514,7 @@
         <v>354.49</v>
       </c>
       <c r="J246" t="n">
-        <v>356.27</v>
+        <v>356.24</v>
       </c>
       <c r="K246" t="n">
         <v>360.31</v>
@@ -11559,7 +11559,7 @@
         <v>354.09</v>
       </c>
       <c r="J247" t="n">
-        <v>356.19</v>
+        <v>356.18</v>
       </c>
       <c r="K247" t="n">
         <v>359.67</v>
@@ -11604,7 +11604,7 @@
         <v>354.26</v>
       </c>
       <c r="J248" t="n">
-        <v>356</v>
+        <v>355.92</v>
       </c>
       <c r="K248" t="n">
         <v>359.4</v>
@@ -11649,7 +11649,7 @@
         <v>354.6</v>
       </c>
       <c r="J249" t="n">
-        <v>356.11</v>
+        <v>356.04</v>
       </c>
       <c r="K249" t="n">
         <v>360.28</v>
@@ -11694,7 +11694,7 @@
         <v>354.38</v>
       </c>
       <c r="J250" t="n">
-        <v>356.24</v>
+        <v>356.17</v>
       </c>
       <c r="K250" t="n">
         <v>360.65</v>
@@ -11739,7 +11739,7 @@
         <v>354.67</v>
       </c>
       <c r="J251" t="n">
-        <v>356.5</v>
+        <v>356.43</v>
       </c>
       <c r="K251" t="n">
         <v>361.46</v>
@@ -11784,7 +11784,7 @@
         <v>353.68</v>
       </c>
       <c r="J252" t="n">
-        <v>354.93</v>
+        <v>354.86</v>
       </c>
       <c r="K252" t="n">
         <v>358.64</v>
@@ -11829,7 +11829,7 @@
         <v>354.57</v>
       </c>
       <c r="J253" t="n">
-        <v>354.9</v>
+        <v>354.72</v>
       </c>
       <c r="K253" t="n">
         <v>358.36</v>
@@ -11874,7 +11874,7 @@
         <v>354.54</v>
       </c>
       <c r="J254" t="n">
-        <v>355.21</v>
+        <v>355.07</v>
       </c>
       <c r="K254" t="n">
         <v>358.49</v>
@@ -11919,7 +11919,7 @@
         <v>355.3</v>
       </c>
       <c r="J255" t="n">
-        <v>355.44</v>
+        <v>355.31</v>
       </c>
       <c r="K255" t="n">
         <v>359</v>
@@ -11964,7 +11964,7 @@
         <v>355.31</v>
       </c>
       <c r="J256" t="n">
-        <v>355.01</v>
+        <v>354.86</v>
       </c>
       <c r="K256" t="n">
         <v>359.08</v>
@@ -12009,7 +12009,7 @@
         <v>355.59</v>
       </c>
       <c r="J257" t="n">
-        <v>356.25</v>
+        <v>356.07</v>
       </c>
       <c r="K257" t="n">
         <v>360.38</v>
@@ -12054,7 +12054,7 @@
         <v>353.54</v>
       </c>
       <c r="J258" t="n">
-        <v>354.74</v>
+        <v>354.56</v>
       </c>
       <c r="K258" t="n">
         <v>359.52</v>
@@ -12099,7 +12099,7 @@
         <v>353.22</v>
       </c>
       <c r="J259" t="n">
-        <v>354.42</v>
+        <v>354.29</v>
       </c>
       <c r="K259" t="n">
         <v>359.52</v>
@@ -12144,7 +12144,7 @@
         <v>354.48</v>
       </c>
       <c r="J260" t="n">
-        <v>355.8</v>
+        <v>355.76</v>
       </c>
       <c r="K260" t="n">
         <v>360.09</v>
@@ -12189,7 +12189,7 @@
         <v>355.68</v>
       </c>
       <c r="J261" t="n">
-        <v>356.95</v>
+        <v>356.94</v>
       </c>
       <c r="K261" t="n">
         <v>360.72</v>
@@ -12234,7 +12234,7 @@
         <v>355.71</v>
       </c>
       <c r="J262" t="n">
-        <v>357.61</v>
+        <v>357.58</v>
       </c>
       <c r="K262" t="n">
         <v>361.45</v>
@@ -12279,7 +12279,7 @@
         <v>357.96</v>
       </c>
       <c r="J263" t="n">
-        <v>359.65</v>
+        <v>359.54</v>
       </c>
       <c r="K263" t="n">
         <v>362.99</v>
@@ -12324,7 +12324,7 @@
         <v>359.36</v>
       </c>
       <c r="J264" t="n">
-        <v>360.52</v>
+        <v>360.5</v>
       </c>
       <c r="K264" t="n">
         <v>364.21</v>
@@ -12369,7 +12369,7 @@
         <v>359.66</v>
       </c>
       <c r="J265" t="n">
-        <v>360.99</v>
+        <v>360.91</v>
       </c>
       <c r="K265" t="n">
         <v>364.56</v>
@@ -12414,7 +12414,7 @@
         <v>359.58</v>
       </c>
       <c r="J266" t="n">
-        <v>360.5</v>
+        <v>360.45</v>
       </c>
       <c r="K266" t="n">
         <v>364.04</v>
@@ -12459,7 +12459,7 @@
         <v>358.35</v>
       </c>
       <c r="J267" t="n">
-        <v>359.26</v>
+        <v>359.19</v>
       </c>
       <c r="K267" t="n">
         <v>363.55</v>
@@ -12549,7 +12549,7 @@
         <v>358.19</v>
       </c>
       <c r="J269" t="n">
-        <v>360.43</v>
+        <v>360.46</v>
       </c>
       <c r="K269" t="n">
         <v>364.07</v>
@@ -12594,7 +12594,7 @@
         <v>358.89</v>
       </c>
       <c r="J270" t="n">
-        <v>360.96</v>
+        <v>361</v>
       </c>
       <c r="K270" t="n">
         <v>363.96</v>
@@ -12639,7 +12639,7 @@
         <v>357.2</v>
       </c>
       <c r="J271" t="n">
-        <v>359.27</v>
+        <v>359.3</v>
       </c>
       <c r="K271" t="n">
         <v>363.41</v>
@@ -12684,7 +12684,7 @@
         <v>359.32</v>
       </c>
       <c r="J272" t="n">
-        <v>361.42</v>
+        <v>361.39</v>
       </c>
       <c r="K272" t="n">
         <v>364.74</v>
@@ -12729,7 +12729,7 @@
         <v>358.09</v>
       </c>
       <c r="J273" t="n">
-        <v>360.49</v>
+        <v>360.48</v>
       </c>
       <c r="K273" t="n">
         <v>363.22</v>
@@ -12774,7 +12774,7 @@
         <v>357.6</v>
       </c>
       <c r="J274" t="n">
-        <v>360.2</v>
+        <v>360.22</v>
       </c>
       <c r="K274" t="n">
         <v>362.97</v>
@@ -12864,7 +12864,7 @@
         <v>357.07</v>
       </c>
       <c r="J276" t="n">
-        <v>359.06</v>
+        <v>359.17</v>
       </c>
       <c r="K276" t="n">
         <v>363.48</v>
@@ -12909,7 +12909,7 @@
         <v>360.96</v>
       </c>
       <c r="J277" t="n">
-        <v>362.19</v>
+        <v>362.29</v>
       </c>
       <c r="K277" t="n">
         <v>366.1</v>
@@ -12954,7 +12954,7 @@
         <v>361.32</v>
       </c>
       <c r="J278" t="n">
-        <v>362.72</v>
+        <v>362.76</v>
       </c>
       <c r="K278" t="n">
         <v>366.89</v>
@@ -12999,7 +12999,7 @@
         <v>367.39</v>
       </c>
       <c r="J279" t="n">
-        <v>367.11</v>
+        <v>366.98</v>
       </c>
       <c r="K279" t="n">
         <v>372.93</v>
@@ -13044,7 +13044,7 @@
         <v>364.89</v>
       </c>
       <c r="J280" t="n">
-        <v>365.41</v>
+        <v>365.38</v>
       </c>
       <c r="K280" t="n">
         <v>371.32</v>
@@ -13089,7 +13089,7 @@
         <v>362.74</v>
       </c>
       <c r="J281" t="n">
-        <v>363.99</v>
+        <v>363.88</v>
       </c>
       <c r="K281" t="n">
         <v>369.07</v>
@@ -13134,7 +13134,7 @@
         <v>362.99</v>
       </c>
       <c r="J282" t="n">
-        <v>363.81</v>
+        <v>363.65</v>
       </c>
       <c r="K282" t="n">
         <v>369.03</v>
@@ -13179,7 +13179,7 @@
         <v>363.68</v>
       </c>
       <c r="J283" t="n">
-        <v>364.3</v>
+        <v>364.2</v>
       </c>
       <c r="K283" t="n">
         <v>369.71</v>
@@ -13224,7 +13224,7 @@
         <v>363.54</v>
       </c>
       <c r="J284" t="n">
-        <v>364</v>
+        <v>363.85</v>
       </c>
       <c r="K284" t="n">
         <v>369.36</v>
@@ -13269,7 +13269,7 @@
         <v>363.43</v>
       </c>
       <c r="J285" t="n">
-        <v>363.37</v>
+        <v>363.25</v>
       </c>
       <c r="K285" t="n">
         <v>368.91</v>
@@ -13314,7 +13314,7 @@
         <v>362.52</v>
       </c>
       <c r="J286" t="n">
-        <v>362.2</v>
+        <v>362.07</v>
       </c>
       <c r="K286" t="n">
         <v>367.73</v>
@@ -13359,7 +13359,7 @@
         <v>361.69</v>
       </c>
       <c r="J287" t="n">
-        <v>361.56</v>
+        <v>361.38</v>
       </c>
       <c r="K287" t="n">
         <v>367.05</v>
@@ -13404,7 +13404,7 @@
         <v>362.29</v>
       </c>
       <c r="J288" t="n">
-        <v>362.57</v>
+        <v>362.35</v>
       </c>
       <c r="K288" t="n">
         <v>368.06</v>
@@ -13449,7 +13449,7 @@
         <v>361.8</v>
       </c>
       <c r="J289" t="n">
-        <v>362.54</v>
+        <v>362.38</v>
       </c>
       <c r="K289" t="n">
         <v>367.74</v>
@@ -13494,7 +13494,7 @@
         <v>362.41</v>
       </c>
       <c r="J290" t="n">
-        <v>363.53</v>
+        <v>363.34</v>
       </c>
       <c r="K290" t="n">
         <v>368.47</v>
@@ -13539,7 +13539,7 @@
         <v>363.27</v>
       </c>
       <c r="J291" t="n">
-        <v>364.49</v>
+        <v>364.28</v>
       </c>
       <c r="K291" t="n">
         <v>369.24</v>
@@ -13584,7 +13584,7 @@
         <v>362.52</v>
       </c>
       <c r="J292" t="n">
-        <v>364.21</v>
+        <v>364.05</v>
       </c>
       <c r="K292" t="n">
         <v>368.91</v>
@@ -13629,7 +13629,7 @@
         <v>362.36</v>
       </c>
       <c r="J293" t="n">
-        <v>363.87</v>
+        <v>363.7</v>
       </c>
       <c r="K293" t="n">
         <v>368.53</v>
@@ -13674,7 +13674,7 @@
         <v>362.66</v>
       </c>
       <c r="J294" t="n">
-        <v>364.3</v>
+        <v>364.11</v>
       </c>
       <c r="K294" t="n">
         <v>368.9</v>
@@ -13719,7 +13719,7 @@
         <v>362.26</v>
       </c>
       <c r="J295" t="n">
-        <v>363.55</v>
+        <v>363.36</v>
       </c>
       <c r="K295" t="n">
         <v>368.22</v>
@@ -13764,7 +13764,7 @@
         <v>362.15</v>
       </c>
       <c r="J296" t="n">
-        <v>363.27</v>
+        <v>363.1</v>
       </c>
       <c r="K296" t="n">
         <v>367.67</v>
@@ -13809,7 +13809,7 @@
         <v>362.4</v>
       </c>
       <c r="J297" t="n">
-        <v>363.79</v>
+        <v>363.64</v>
       </c>
       <c r="K297" t="n">
         <v>367.74</v>
@@ -13854,7 +13854,7 @@
         <v>364.24</v>
       </c>
       <c r="J298" t="n">
-        <v>365.75</v>
+        <v>365.58</v>
       </c>
       <c r="K298" t="n">
         <v>369.05</v>
@@ -13899,7 +13899,7 @@
         <v>363.41</v>
       </c>
       <c r="J299" t="n">
-        <v>365.6</v>
+        <v>365.47</v>
       </c>
       <c r="K299" t="n">
         <v>368.2</v>
@@ -13944,7 +13944,7 @@
         <v>363.45</v>
       </c>
       <c r="J300" t="n">
-        <v>365.19</v>
+        <v>365.1</v>
       </c>
       <c r="K300" t="n">
         <v>367.98</v>
@@ -13989,7 +13989,7 @@
         <v>363.43</v>
       </c>
       <c r="J301" t="n">
-        <v>365.37</v>
+        <v>365.26</v>
       </c>
       <c r="K301" t="n">
         <v>367.97</v>
@@ -14034,7 +14034,7 @@
         <v>363.93</v>
       </c>
       <c r="J302" t="n">
-        <v>364.92</v>
+        <v>364.88</v>
       </c>
       <c r="K302" t="n">
         <v>367.62</v>
@@ -14079,7 +14079,7 @@
         <v>364.48</v>
       </c>
       <c r="J303" t="n">
-        <v>365.03</v>
+        <v>364.91</v>
       </c>
       <c r="K303" t="n">
         <v>368.05</v>
@@ -14124,7 +14124,7 @@
         <v>364.74</v>
       </c>
       <c r="J304" t="n">
-        <v>364.47</v>
+        <v>364.33</v>
       </c>
       <c r="K304" t="n">
         <v>367.39</v>
@@ -14169,7 +14169,7 @@
         <v>365.07</v>
       </c>
       <c r="J305" t="n">
-        <v>364.35</v>
+        <v>364.28</v>
       </c>
       <c r="K305" t="n">
         <v>367.63</v>
@@ -14214,7 +14214,7 @@
         <v>365.3</v>
       </c>
       <c r="J306" t="n">
-        <v>363.98</v>
+        <v>363.95</v>
       </c>
       <c r="K306" t="n">
         <v>367.11</v>
@@ -14259,7 +14259,7 @@
         <v>365.89</v>
       </c>
       <c r="J307" t="n">
-        <v>364.83</v>
+        <v>364.8</v>
       </c>
       <c r="K307" t="n">
         <v>367.88</v>
@@ -14304,7 +14304,7 @@
         <v>366.82</v>
       </c>
       <c r="J308" t="n">
-        <v>366.7</v>
+        <v>366.66</v>
       </c>
       <c r="K308" t="n">
         <v>369.96</v>
@@ -14349,7 +14349,7 @@
         <v>366.78</v>
       </c>
       <c r="J309" t="n">
-        <v>366.52</v>
+        <v>366.42</v>
       </c>
       <c r="K309" t="n">
         <v>370.44</v>
@@ -14394,7 +14394,7 @@
         <v>364.86</v>
       </c>
       <c r="J310" t="n">
-        <v>364.1</v>
+        <v>363.95</v>
       </c>
       <c r="K310" t="n">
         <v>370.44</v>
@@ -14439,7 +14439,7 @@
         <v>364.06</v>
       </c>
       <c r="J311" t="n">
-        <v>363.16</v>
+        <v>363.09</v>
       </c>
       <c r="K311" t="n">
         <v>369.56</v>
@@ -14484,7 +14484,7 @@
         <v>363.83</v>
       </c>
       <c r="J312" t="n">
-        <v>363.16</v>
+        <v>363.09</v>
       </c>
       <c r="K312" t="n">
         <v>369.56</v>
@@ -14529,7 +14529,7 @@
         <v>363.53</v>
       </c>
       <c r="J313" t="n">
-        <v>362.29</v>
+        <v>362.24</v>
       </c>
       <c r="K313" t="n">
         <v>369.73</v>
@@ -14574,7 +14574,7 @@
         <v>363.99</v>
       </c>
       <c r="J314" t="n">
-        <v>364.23</v>
+        <v>364.18</v>
       </c>
       <c r="K314" t="n">
         <v>368.41</v>
@@ -14619,7 +14619,7 @@
         <v>365.04</v>
       </c>
       <c r="J315" t="n">
-        <v>365.48</v>
+        <v>365.43</v>
       </c>
       <c r="K315" t="n">
         <v>369.7</v>
@@ -14664,7 +14664,7 @@
         <v>365.71</v>
       </c>
       <c r="J316" t="n">
-        <v>367.84</v>
+        <v>367.73</v>
       </c>
       <c r="K316" t="n">
         <v>371.73</v>
@@ -14709,7 +14709,7 @@
         <v>364.96</v>
       </c>
       <c r="J317" t="n">
-        <v>367.39</v>
+        <v>367.23</v>
       </c>
       <c r="K317" t="n">
         <v>370.53</v>
@@ -14754,7 +14754,7 @@
         <v>365.2</v>
       </c>
       <c r="J318" t="n">
-        <v>366.7</v>
+        <v>366.62</v>
       </c>
       <c r="K318" t="n">
         <v>370.25</v>
@@ -14799,7 +14799,7 @@
         <v>366.33</v>
       </c>
       <c r="J319" t="n">
-        <v>368.31</v>
+        <v>368.17</v>
       </c>
       <c r="K319" t="n">
         <v>371.13</v>
@@ -14844,7 +14844,7 @@
         <v>365.84</v>
       </c>
       <c r="J320" t="n">
-        <v>367.62</v>
+        <v>367.52</v>
       </c>
       <c r="K320" t="n">
         <v>370.35</v>
@@ -14889,7 +14889,7 @@
         <v>365.1</v>
       </c>
       <c r="J321" t="n">
-        <v>367.24</v>
+        <v>367.13</v>
       </c>
       <c r="K321" t="n">
         <v>369.56</v>
@@ -14934,7 +14934,7 @@
         <v>364.33</v>
       </c>
       <c r="J322" t="n">
-        <v>366.26</v>
+        <v>366.18</v>
       </c>
       <c r="K322" t="n">
         <v>368.17</v>
@@ -14979,7 +14979,7 @@
         <v>364.95</v>
       </c>
       <c r="J323" t="n">
-        <v>366.83</v>
+        <v>366.76</v>
       </c>
       <c r="K323" t="n">
         <v>368.58</v>
@@ -15024,7 +15024,7 @@
         <v>366.66</v>
       </c>
       <c r="J324" t="n">
-        <v>368.73</v>
+        <v>368.77</v>
       </c>
       <c r="K324" t="n">
         <v>368.23</v>
@@ -15069,7 +15069,7 @@
         <v>367.61</v>
       </c>
       <c r="J325" t="n">
-        <v>369.94</v>
+        <v>369.9</v>
       </c>
       <c r="K325" t="n">
         <v>369.33</v>
@@ -15159,7 +15159,7 @@
         <v>366.78</v>
       </c>
       <c r="J327" t="n">
-        <v>368.55</v>
+        <v>368.57</v>
       </c>
       <c r="K327" t="n">
         <v>367.68</v>
@@ -15204,7 +15204,7 @@
         <v>366.14</v>
       </c>
       <c r="J328" t="n">
-        <v>366.99</v>
+        <v>367.03</v>
       </c>
       <c r="K328" t="n">
         <v>367.25</v>
@@ -15249,7 +15249,7 @@
         <v>366.17</v>
       </c>
       <c r="J329" t="n">
-        <v>367.1</v>
+        <v>367.12</v>
       </c>
       <c r="K329" t="n">
         <v>367.49</v>
@@ -15294,7 +15294,7 @@
         <v>366.53</v>
       </c>
       <c r="J330" t="n">
-        <v>367.39</v>
+        <v>367.38</v>
       </c>
       <c r="K330" t="n">
         <v>367.92</v>
@@ -15384,7 +15384,7 @@
         <v>366.69</v>
       </c>
       <c r="J332" t="n">
-        <v>367.79</v>
+        <v>367.74</v>
       </c>
       <c r="K332" t="n">
         <v>367.87</v>
@@ -15429,7 +15429,7 @@
         <v>366.75</v>
       </c>
       <c r="J333" t="n">
-        <v>367.66</v>
+        <v>367.63</v>
       </c>
       <c r="K333" t="n">
         <v>368.18</v>
@@ -15474,7 +15474,7 @@
         <v>367.82</v>
       </c>
       <c r="J334" t="n">
-        <v>369.12</v>
+        <v>369.03</v>
       </c>
       <c r="K334" t="n">
         <v>369.62</v>
@@ -15519,7 +15519,7 @@
         <v>367.82</v>
       </c>
       <c r="J335" t="n">
-        <v>369.12</v>
+        <v>369.03</v>
       </c>
       <c r="K335" t="n">
         <v>369.62</v>
@@ -15564,7 +15564,7 @@
         <v>367.13</v>
       </c>
       <c r="J336" t="n">
-        <v>368.31</v>
+        <v>368.22</v>
       </c>
       <c r="K336" t="n">
         <v>369.34</v>
@@ -15609,7 +15609,7 @@
         <v>366.8</v>
       </c>
       <c r="J337" t="n">
-        <v>367.99</v>
+        <v>367.81</v>
       </c>
       <c r="K337" t="n">
         <v>368.4</v>
@@ -15654,7 +15654,7 @@
         <v>366.95</v>
       </c>
       <c r="J338" t="n">
-        <v>367.69</v>
+        <v>367.48</v>
       </c>
       <c r="K338" t="n">
         <v>367.87</v>
@@ -15699,7 +15699,7 @@
         <v>367.56</v>
       </c>
       <c r="J339" t="n">
-        <v>368.59</v>
+        <v>368.44</v>
       </c>
       <c r="K339" t="n">
         <v>368.47</v>
@@ -15744,7 +15744,7 @@
         <v>367.35</v>
       </c>
       <c r="J340" t="n">
-        <v>368.62</v>
+        <v>368.52</v>
       </c>
       <c r="K340" t="n">
         <v>368.8</v>
@@ -15789,7 +15789,7 @@
         <v>368.35</v>
       </c>
       <c r="J341" t="n">
-        <v>370.37</v>
+        <v>370.2</v>
       </c>
       <c r="K341" t="n">
         <v>370.3</v>
@@ -15834,7 +15834,7 @@
         <v>367.97</v>
       </c>
       <c r="J342" t="n">
-        <v>369.97</v>
+        <v>369.84</v>
       </c>
       <c r="K342" t="n">
         <v>369.78</v>
@@ -15879,7 +15879,7 @@
         <v>367.91</v>
       </c>
       <c r="J343" t="n">
-        <v>371.02</v>
+        <v>370.86</v>
       </c>
       <c r="K343" t="n">
         <v>371.04</v>
@@ -15924,7 +15924,7 @@
         <v>368.75</v>
       </c>
       <c r="J344" t="n">
-        <v>372.07</v>
+        <v>371.94</v>
       </c>
       <c r="K344" t="n">
         <v>372.16</v>
@@ -15969,7 +15969,7 @@
         <v>368.97</v>
       </c>
       <c r="J345" t="n">
-        <v>372.26</v>
+        <v>372.14</v>
       </c>
       <c r="K345" t="n">
         <v>372.12</v>
@@ -16014,7 +16014,7 @@
         <v>369.3</v>
       </c>
       <c r="J346" t="n">
-        <v>372.49</v>
+        <v>372.36</v>
       </c>
       <c r="K346" t="n">
         <v>373.02</v>
@@ -16059,7 +16059,7 @@
         <v>369.33</v>
       </c>
       <c r="J347" t="n">
-        <v>372.09</v>
+        <v>372</v>
       </c>
       <c r="K347" t="n">
         <v>372.97</v>
@@ -16104,7 +16104,7 @@
         <v>369.96</v>
       </c>
       <c r="J348" t="n">
-        <v>372.61</v>
+        <v>372.54</v>
       </c>
       <c r="K348" t="n">
         <v>373.82</v>
@@ -16149,7 +16149,7 @@
         <v>369.69</v>
       </c>
       <c r="J349" t="n">
-        <v>372.49</v>
+        <v>372.4</v>
       </c>
       <c r="K349" t="n">
         <v>373.78</v>
@@ -16194,7 +16194,7 @@
         <v>370.24</v>
       </c>
       <c r="J350" t="n">
-        <v>372.23</v>
+        <v>372.22</v>
       </c>
       <c r="K350" t="n">
         <v>373.92</v>
@@ -16239,7 +16239,7 @@
         <v>369.7</v>
       </c>
       <c r="J351" t="n">
-        <v>371.69</v>
+        <v>371.7</v>
       </c>
       <c r="K351" t="n">
         <v>373.43</v>
@@ -16284,7 +16284,7 @@
         <v>368.81</v>
       </c>
       <c r="J352" t="n">
-        <v>370.79</v>
+        <v>370.77</v>
       </c>
       <c r="K352" t="n">
         <v>372.58</v>
@@ -16329,7 +16329,7 @@
         <v>368.12</v>
       </c>
       <c r="J353" t="n">
-        <v>370.34</v>
+        <v>370.35</v>
       </c>
       <c r="K353" t="n">
         <v>372.33</v>
@@ -16374,7 +16374,7 @@
         <v>367.66</v>
       </c>
       <c r="J354" t="n">
-        <v>369.88</v>
+        <v>369.91</v>
       </c>
       <c r="K354" t="n">
         <v>372</v>
@@ -16464,7 +16464,7 @@
         <v>366.73</v>
       </c>
       <c r="J356" t="n">
-        <v>368.74</v>
+        <v>368.76</v>
       </c>
       <c r="K356" t="n">
         <v>370.66</v>
@@ -16509,7 +16509,7 @@
         <v>366.47</v>
       </c>
       <c r="J357" t="n">
-        <v>368.26</v>
+        <v>368.27</v>
       </c>
       <c r="K357" t="n">
         <v>370.51</v>
@@ -16554,7 +16554,7 @@
         <v>366.28</v>
       </c>
       <c r="J358" t="n">
-        <v>368.19</v>
+        <v>368.2</v>
       </c>
       <c r="K358" t="n">
         <v>370.28</v>
@@ -16599,7 +16599,7 @@
         <v>366.69</v>
       </c>
       <c r="J359" t="n">
-        <v>368.65</v>
+        <v>368.64</v>
       </c>
       <c r="K359" t="n">
         <v>370.68</v>
@@ -16644,7 +16644,7 @@
         <v>366.98</v>
       </c>
       <c r="J360" t="n">
-        <v>369.07</v>
+        <v>369.06</v>
       </c>
       <c r="K360" t="n">
         <v>371.13</v>
@@ -16689,7 +16689,7 @@
         <v>366.03</v>
       </c>
       <c r="J361" t="n">
-        <v>368</v>
+        <v>368.04</v>
       </c>
       <c r="K361" t="n">
         <v>371.32</v>
@@ -16734,7 +16734,7 @@
         <v>366.63</v>
       </c>
       <c r="J362" t="n">
-        <v>368.21</v>
+        <v>368.26</v>
       </c>
       <c r="K362" t="n">
         <v>371.79</v>
@@ -16779,7 +16779,7 @@
         <v>366.47</v>
       </c>
       <c r="J363" t="n">
-        <v>367.34</v>
+        <v>367.4</v>
       </c>
       <c r="K363" t="n">
         <v>370.98</v>
@@ -16824,7 +16824,7 @@
         <v>363.5</v>
       </c>
       <c r="J364" t="n">
-        <v>364.25</v>
+        <v>364.36</v>
       </c>
       <c r="K364" t="n">
         <v>367.32</v>
@@ -16869,7 +16869,7 @@
         <v>364.37</v>
       </c>
       <c r="J365" t="n">
-        <v>365.95</v>
+        <v>365.96</v>
       </c>
       <c r="K365" t="n">
         <v>368.86</v>
@@ -16914,7 +16914,7 @@
         <v>366.43</v>
       </c>
       <c r="J366" t="n">
-        <v>368.23</v>
+        <v>368.33</v>
       </c>
       <c r="K366" t="n">
         <v>370.98</v>
@@ -16959,7 +16959,7 @@
         <v>368.02</v>
       </c>
       <c r="J367" t="n">
-        <v>369.27</v>
+        <v>369.29</v>
       </c>
       <c r="K367" t="n">
         <v>371.64</v>
@@ -17004,7 +17004,7 @@
         <v>368</v>
       </c>
       <c r="J368" t="n">
-        <v>369.93</v>
+        <v>369.95</v>
       </c>
       <c r="K368" t="n">
         <v>372.55</v>
@@ -17049,7 +17049,7 @@
         <v>369.55</v>
       </c>
       <c r="J369" t="n">
-        <v>371.27</v>
+        <v>371.33</v>
       </c>
       <c r="K369" t="n">
         <v>372.83</v>
@@ -17094,7 +17094,7 @@
         <v>369.55</v>
       </c>
       <c r="J370" t="n">
-        <v>371.27</v>
+        <v>371.33</v>
       </c>
       <c r="K370" t="n">
         <v>372.83</v>
@@ -17139,7 +17139,7 @@
         <v>370.65</v>
       </c>
       <c r="J371" t="n">
-        <v>372.64</v>
+        <v>372.75</v>
       </c>
       <c r="K371" t="n">
         <v>373.72</v>
@@ -17184,7 +17184,7 @@
         <v>370.24</v>
       </c>
       <c r="J372" t="n">
-        <v>371.15</v>
+        <v>371.25</v>
       </c>
       <c r="K372" t="n">
         <v>372.66</v>
@@ -17229,7 +17229,7 @@
         <v>372.11</v>
       </c>
       <c r="J373" t="n">
-        <v>373</v>
+        <v>372.99</v>
       </c>
       <c r="K373" t="n">
         <v>374.25</v>
@@ -17274,7 +17274,7 @@
         <v>369.61</v>
       </c>
       <c r="J374" t="n">
-        <v>369.99</v>
+        <v>370.03</v>
       </c>
       <c r="K374" t="n">
         <v>371.93</v>
@@ -17319,7 +17319,7 @@
         <v>369.6</v>
       </c>
       <c r="J375" t="n">
-        <v>370.52</v>
+        <v>370.49</v>
       </c>
       <c r="K375" t="n">
         <v>372.49</v>
@@ -17364,7 +17364,7 @@
         <v>369.6</v>
       </c>
       <c r="J376" t="n">
-        <v>370.52</v>
+        <v>370.49</v>
       </c>
       <c r="K376" t="n">
         <v>372.49</v>
@@ -17409,7 +17409,7 @@
         <v>369.52</v>
       </c>
       <c r="J377" t="n">
-        <v>370.32</v>
+        <v>370.27</v>
       </c>
       <c r="K377" t="n">
         <v>371.94</v>
@@ -17454,7 +17454,7 @@
         <v>369.61</v>
       </c>
       <c r="J378" t="n">
-        <v>370.76</v>
+        <v>370.69</v>
       </c>
       <c r="K378" t="n">
         <v>372.36</v>
@@ -17499,7 +17499,7 @@
         <v>367.54</v>
       </c>
       <c r="J379" t="n">
-        <v>369.06</v>
+        <v>369.01</v>
       </c>
       <c r="K379" t="n">
         <v>370.17</v>
@@ -17544,7 +17544,7 @@
         <v>366.59</v>
       </c>
       <c r="J380" t="n">
-        <v>367.62</v>
+        <v>367.55</v>
       </c>
       <c r="K380" t="n">
         <v>368.8</v>
@@ -17589,7 +17589,7 @@
         <v>365.24</v>
       </c>
       <c r="J381" t="n">
-        <v>365.88</v>
+        <v>365.87</v>
       </c>
       <c r="K381" t="n">
         <v>367.1</v>
@@ -17679,7 +17679,7 @@
         <v>363.57</v>
       </c>
       <c r="J383" t="n">
-        <v>363.84</v>
+        <v>363.8</v>
       </c>
       <c r="K383" t="n">
         <v>365</v>
@@ -17724,7 +17724,7 @@
         <v>363.06</v>
       </c>
       <c r="J384" t="n">
-        <v>363.08</v>
+        <v>363.01</v>
       </c>
       <c r="K384" t="n">
         <v>364.42</v>
@@ -17769,7 +17769,7 @@
         <v>363.18</v>
       </c>
       <c r="J385" t="n">
-        <v>363.16</v>
+        <v>363.11</v>
       </c>
       <c r="K385" t="n">
         <v>364.69</v>
@@ -17814,7 +17814,7 @@
         <v>363.16</v>
       </c>
       <c r="J386" t="n">
-        <v>363.4</v>
+        <v>363.31</v>
       </c>
       <c r="K386" t="n">
         <v>364.88</v>
@@ -17859,7 +17859,7 @@
         <v>363.05</v>
       </c>
       <c r="J387" t="n">
-        <v>363.15</v>
+        <v>363.06</v>
       </c>
       <c r="K387" t="n">
         <v>364.42</v>
@@ -17904,7 +17904,7 @@
         <v>362.58</v>
       </c>
       <c r="J388" t="n">
-        <v>362.86</v>
+        <v>362.8</v>
       </c>
       <c r="K388" t="n">
         <v>364.33</v>
@@ -17949,7 +17949,7 @@
         <v>360.79</v>
       </c>
       <c r="J389" t="n">
-        <v>360.73</v>
+        <v>360.62</v>
       </c>
       <c r="K389" t="n">
         <v>362.81</v>
@@ -17994,7 +17994,7 @@
         <v>361.31</v>
       </c>
       <c r="J390" t="n">
-        <v>361.82</v>
+        <v>361.68</v>
       </c>
       <c r="K390" t="n">
         <v>363.9</v>
@@ -18039,7 +18039,7 @@
         <v>360.95</v>
       </c>
       <c r="J391" t="n">
-        <v>360.77</v>
+        <v>360.69</v>
       </c>
       <c r="K391" t="n">
         <v>363.06</v>
@@ -18084,7 +18084,7 @@
         <v>361.3</v>
       </c>
       <c r="J392" t="n">
-        <v>361.04</v>
+        <v>360.92</v>
       </c>
       <c r="K392" t="n">
         <v>363.21</v>
@@ -18129,7 +18129,7 @@
         <v>361.25</v>
       </c>
       <c r="J393" t="n">
-        <v>361.24</v>
+        <v>361.09</v>
       </c>
       <c r="K393" t="n">
         <v>363.31</v>
@@ -18174,7 +18174,7 @@
         <v>362.48</v>
       </c>
       <c r="J394" t="n">
-        <v>361.72</v>
+        <v>361.6</v>
       </c>
       <c r="K394" t="n">
         <v>364.89</v>
@@ -18219,7 +18219,7 @@
         <v>364.19</v>
       </c>
       <c r="J395" t="n">
-        <v>364.18</v>
+        <v>364.01</v>
       </c>
       <c r="K395" t="n">
         <v>367.57</v>
@@ -18264,7 +18264,7 @@
         <v>364.61</v>
       </c>
       <c r="J396" t="n">
-        <v>365.01</v>
+        <v>364.81</v>
       </c>
       <c r="K396" t="n">
         <v>368.28</v>
@@ -18309,7 +18309,7 @@
         <v>365.37</v>
       </c>
       <c r="J397" t="n">
-        <v>365.81</v>
+        <v>365.65</v>
       </c>
       <c r="K397" t="n">
         <v>368.45</v>
@@ -18354,7 +18354,7 @@
         <v>365.89</v>
       </c>
       <c r="J398" t="n">
-        <v>366.44</v>
+        <v>366.2</v>
       </c>
       <c r="K398" t="n">
         <v>368.97</v>
@@ -18399,7 +18399,7 @@
         <v>368.2</v>
       </c>
       <c r="J399" t="n">
-        <v>368.89</v>
+        <v>368.74</v>
       </c>
       <c r="K399" t="n">
         <v>371.47</v>
@@ -18444,7 +18444,7 @@
         <v>368.82</v>
       </c>
       <c r="J400" t="n">
-        <v>369.71</v>
+        <v>369.58</v>
       </c>
       <c r="K400" t="n">
         <v>372.43</v>
@@ -18489,7 +18489,7 @@
         <v>368.36</v>
       </c>
       <c r="J401" t="n">
-        <v>368.65</v>
+        <v>368.56</v>
       </c>
       <c r="K401" t="n">
         <v>371.38</v>
@@ -18534,7 +18534,7 @@
         <v>366.64</v>
       </c>
       <c r="J402" t="n">
-        <v>367.38</v>
+        <v>367.33</v>
       </c>
       <c r="K402" t="n">
         <v>369.53</v>
@@ -18579,7 +18579,7 @@
         <v>366.64</v>
       </c>
       <c r="J403" t="n">
-        <v>367.38</v>
+        <v>367.33</v>
       </c>
       <c r="K403" t="n">
         <v>369.53</v>
@@ -18624,7 +18624,7 @@
         <v>365.59</v>
       </c>
       <c r="J404" t="n">
-        <v>366.45</v>
+        <v>366.41</v>
       </c>
       <c r="K404" t="n">
         <v>368.42</v>
@@ -18669,7 +18669,7 @@
         <v>364.99</v>
       </c>
       <c r="J405" t="n">
-        <v>366.42</v>
+        <v>366.28</v>
       </c>
       <c r="K405" t="n">
         <v>367.6</v>
@@ -18714,7 +18714,7 @@
         <v>364.81</v>
       </c>
       <c r="J406" t="n">
-        <v>366.35</v>
+        <v>366.26</v>
       </c>
       <c r="K406" t="n">
         <v>367.25</v>
@@ -18759,7 +18759,7 @@
         <v>365.45</v>
       </c>
       <c r="J407" t="n">
-        <v>367.2</v>
+        <v>367.12</v>
       </c>
       <c r="K407" t="n">
         <v>367.91</v>
@@ -18804,7 +18804,7 @@
         <v>365.8</v>
       </c>
       <c r="J408" t="n">
-        <v>367.05</v>
+        <v>367</v>
       </c>
       <c r="K408" t="n">
         <v>368.16</v>
@@ -18849,7 +18849,7 @@
         <v>365.33</v>
       </c>
       <c r="J409" t="n">
-        <v>366.61</v>
+        <v>366.52</v>
       </c>
       <c r="K409" t="n">
         <v>367.33</v>
@@ -18894,7 +18894,7 @@
         <v>364.89</v>
       </c>
       <c r="J410" t="n">
-        <v>365.94</v>
+        <v>365.86</v>
       </c>
       <c r="K410" t="n">
         <v>366.83</v>
@@ -18939,7 +18939,7 @@
         <v>363.71</v>
       </c>
       <c r="J411" t="n">
-        <v>364.3</v>
+        <v>364.25</v>
       </c>
       <c r="K411" t="n">
         <v>364.89</v>
@@ -18984,7 +18984,7 @@
         <v>361.67</v>
       </c>
       <c r="J412" t="n">
-        <v>362.35</v>
+        <v>362.28</v>
       </c>
       <c r="K412" t="n">
         <v>363.47</v>
@@ -19029,7 +19029,7 @@
         <v>362.19</v>
       </c>
       <c r="J413" t="n">
-        <v>362.96</v>
+        <v>362.9</v>
       </c>
       <c r="K413" t="n">
         <v>364.43</v>
@@ -19074,7 +19074,7 @@
         <v>362.19</v>
       </c>
       <c r="J414" t="n">
-        <v>362.96</v>
+        <v>362.9</v>
       </c>
       <c r="K414" t="n">
         <v>364.43</v>
@@ -19119,7 +19119,7 @@
         <v>361.83</v>
       </c>
       <c r="J415" t="n">
-        <v>362.7</v>
+        <v>362.6</v>
       </c>
       <c r="K415" t="n">
         <v>364.86</v>
@@ -19164,7 +19164,7 @@
         <v>360.72</v>
       </c>
       <c r="J416" t="n">
-        <v>361.91</v>
+        <v>361.84</v>
       </c>
       <c r="K416" t="n">
         <v>364.3</v>
@@ -19209,7 +19209,7 @@
         <v>360.13</v>
       </c>
       <c r="J417" t="n">
-        <v>361.36</v>
+        <v>361.33</v>
       </c>
       <c r="K417" t="n">
         <v>364.19</v>
@@ -19254,7 +19254,7 @@
         <v>359.69</v>
       </c>
       <c r="J418" t="n">
-        <v>361.02</v>
+        <v>361.03</v>
       </c>
       <c r="K418" t="n">
         <v>364.13</v>
@@ -19299,7 +19299,7 @@
         <v>360.46</v>
       </c>
       <c r="J419" t="n">
-        <v>361.89</v>
+        <v>361.87</v>
       </c>
       <c r="K419" t="n">
         <v>365.24</v>
@@ -19389,7 +19389,7 @@
         <v>359.01</v>
       </c>
       <c r="J421" t="n">
-        <v>360.73</v>
+        <v>360.71</v>
       </c>
       <c r="K421" t="n">
         <v>364.43</v>
@@ -19434,7 +19434,7 @@
         <v>359.04</v>
       </c>
       <c r="J422" t="n">
-        <v>360.97</v>
+        <v>360.95</v>
       </c>
       <c r="K422" t="n">
         <v>364.43</v>
@@ -19479,7 +19479,7 @@
         <v>358.81</v>
       </c>
       <c r="J423" t="n">
-        <v>361.33</v>
+        <v>361.34</v>
       </c>
       <c r="K423" t="n">
         <v>364.43</v>
@@ -19569,7 +19569,7 @@
         <v>356.93</v>
       </c>
       <c r="J425" t="n">
-        <v>360.76</v>
+        <v>360.82</v>
       </c>
       <c r="K425" t="n">
         <v>365.53</v>
@@ -19614,7 +19614,7 @@
         <v>357.25</v>
       </c>
       <c r="J426" t="n">
-        <v>361.2</v>
+        <v>361.3</v>
       </c>
       <c r="K426" t="n">
         <v>366.6</v>
@@ -19659,7 +19659,7 @@
         <v>356.91</v>
       </c>
       <c r="J427" t="n">
-        <v>360.51</v>
+        <v>360.6</v>
       </c>
       <c r="K427" t="n">
         <v>365.53</v>
@@ -19704,7 +19704,7 @@
         <v>356.27</v>
       </c>
       <c r="J428" t="n">
-        <v>360.1</v>
+        <v>360.2</v>
       </c>
       <c r="K428" t="n">
         <v>364.84</v>
@@ -19749,7 +19749,7 @@
         <v>356.02</v>
       </c>
       <c r="J429" t="n">
-        <v>359.46</v>
+        <v>359.55</v>
       </c>
       <c r="K429" t="n">
         <v>364.84</v>
@@ -19794,7 +19794,7 @@
         <v>355.8</v>
       </c>
       <c r="J430" t="n">
-        <v>359.39</v>
+        <v>359.45</v>
       </c>
       <c r="K430" t="n">
         <v>363.9</v>
@@ -19839,7 +19839,7 @@
         <v>354.4</v>
       </c>
       <c r="J431" t="n">
-        <v>357.82</v>
+        <v>357.95</v>
       </c>
       <c r="K431" t="n">
         <v>361.07</v>
@@ -19884,7 +19884,7 @@
         <v>354.74</v>
       </c>
       <c r="J432" t="n">
-        <v>358.25</v>
+        <v>358.38</v>
       </c>
       <c r="K432" t="n">
         <v>360.91</v>
@@ -19929,7 +19929,7 @@
         <v>356.33</v>
       </c>
       <c r="J433" t="n">
-        <v>359.56</v>
+        <v>359.64</v>
       </c>
       <c r="K433" t="n">
         <v>362.48</v>
@@ -19974,7 +19974,7 @@
         <v>356.63</v>
       </c>
       <c r="J434" t="n">
-        <v>359.6</v>
+        <v>359.67</v>
       </c>
       <c r="K434" t="n">
         <v>362.48</v>
@@ -20019,7 +20019,7 @@
         <v>356.54</v>
       </c>
       <c r="J435" t="n">
-        <v>359.85</v>
+        <v>359.82</v>
       </c>
       <c r="K435" t="n">
         <v>361.62</v>
@@ -20064,7 +20064,7 @@
         <v>356.81</v>
       </c>
       <c r="J436" t="n">
-        <v>360.12</v>
+        <v>360.06</v>
       </c>
       <c r="K436" t="n">
         <v>361.83</v>
@@ -20109,7 +20109,7 @@
         <v>355.85</v>
       </c>
       <c r="J437" t="n">
-        <v>359.13</v>
+        <v>359.09</v>
       </c>
       <c r="K437" t="n">
         <v>360.37</v>
@@ -20154,7 +20154,7 @@
         <v>356</v>
       </c>
       <c r="J438" t="n">
-        <v>359.33</v>
+        <v>359.32</v>
       </c>
       <c r="K438" t="n">
         <v>360.77</v>
@@ -20199,7 +20199,7 @@
         <v>356.42</v>
       </c>
       <c r="J439" t="n">
-        <v>359.45</v>
+        <v>359.43</v>
       </c>
       <c r="K439" t="n">
         <v>360.78</v>
@@ -20244,7 +20244,7 @@
         <v>354.8</v>
       </c>
       <c r="J440" t="n">
-        <v>358.32</v>
+        <v>358.27</v>
       </c>
       <c r="K440" t="n">
         <v>360.48</v>
@@ -20289,7 +20289,7 @@
         <v>355.21</v>
       </c>
       <c r="J441" t="n">
-        <v>358.48</v>
+        <v>358.45</v>
       </c>
       <c r="K441" t="n">
         <v>360.7</v>
@@ -20334,7 +20334,7 @@
         <v>355.27</v>
       </c>
       <c r="J442" t="n">
-        <v>358.3</v>
+        <v>358.26</v>
       </c>
       <c r="K442" t="n">
         <v>360.28</v>
@@ -20379,7 +20379,7 @@
         <v>355.54</v>
       </c>
       <c r="J443" t="n">
-        <v>358.44</v>
+        <v>358.41</v>
       </c>
       <c r="K443" t="n">
         <v>360.18</v>
@@ -20424,7 +20424,7 @@
         <v>355.66</v>
       </c>
       <c r="J444" t="n">
-        <v>357.44</v>
+        <v>357.37</v>
       </c>
       <c r="K444" t="n">
         <v>359.86</v>
@@ -20469,7 +20469,7 @@
         <v>356.16</v>
       </c>
       <c r="J445" t="n">
-        <v>357.53</v>
+        <v>357.48</v>
       </c>
       <c r="K445" t="n">
         <v>360.06</v>
@@ -20514,7 +20514,7 @@
         <v>355.77</v>
       </c>
       <c r="J446" t="n">
-        <v>357.63</v>
+        <v>357.56</v>
       </c>
       <c r="K446" t="n">
         <v>359.86</v>
@@ -20559,7 +20559,7 @@
         <v>354.83</v>
       </c>
       <c r="J447" t="n">
-        <v>357</v>
+        <v>356.95</v>
       </c>
       <c r="K447" t="n">
         <v>359.04</v>
@@ -20604,7 +20604,7 @@
         <v>354.62</v>
       </c>
       <c r="J448" t="n">
-        <v>356.73</v>
+        <v>356.7</v>
       </c>
       <c r="K448" t="n">
         <v>358.74</v>
@@ -20649,7 +20649,7 @@
         <v>353.44</v>
       </c>
       <c r="J449" t="n">
-        <v>355.74</v>
+        <v>355.76</v>
       </c>
       <c r="K449" t="n">
         <v>356.77</v>
@@ -20784,7 +20784,7 @@
         <v>353.91</v>
       </c>
       <c r="J452" t="n">
-        <v>356.93</v>
+        <v>356.9</v>
       </c>
       <c r="K452" t="n">
         <v>357.89</v>
@@ -20829,7 +20829,7 @@
         <v>354.27</v>
       </c>
       <c r="J453" t="n">
-        <v>357.24</v>
+        <v>357.22</v>
       </c>
       <c r="K453" t="n">
         <v>358.24</v>
@@ -20874,7 +20874,7 @@
         <v>354.36</v>
       </c>
       <c r="J454" t="n">
-        <v>357.57</v>
+        <v>357.56</v>
       </c>
       <c r="K454" t="n">
         <v>358.24</v>
@@ -20964,7 +20964,7 @@
         <v>354.06</v>
       </c>
       <c r="J456" t="n">
-        <v>357.2</v>
+        <v>357.19</v>
       </c>
       <c r="K456" t="n">
         <v>359.27</v>
@@ -21009,7 +21009,7 @@
         <v>353.12</v>
       </c>
       <c r="J457" t="n">
-        <v>357.24</v>
+        <v>357.22</v>
       </c>
       <c r="K457" t="n">
         <v>359.34</v>
@@ -21054,7 +21054,7 @@
         <v>351.73</v>
       </c>
       <c r="J458" t="n">
-        <v>356.29</v>
+        <v>356.3</v>
       </c>
       <c r="K458" t="n">
         <v>358.3</v>
@@ -21099,7 +21099,7 @@
         <v>352.18</v>
       </c>
       <c r="J459" t="n">
-        <v>356.55</v>
+        <v>356.53</v>
       </c>
       <c r="K459" t="n">
         <v>358.78</v>
@@ -21144,7 +21144,7 @@
         <v>351.89</v>
       </c>
       <c r="J460" t="n">
-        <v>356.25</v>
+        <v>356.29</v>
       </c>
       <c r="K460" t="n">
         <v>358.95</v>
@@ -21189,7 +21189,7 @@
         <v>351.54</v>
       </c>
       <c r="J461" t="n">
-        <v>355.9</v>
+        <v>355.92</v>
       </c>
       <c r="K461" t="n">
         <v>358.56</v>
@@ -21234,7 +21234,7 @@
         <v>352.62</v>
       </c>
       <c r="J462" t="n">
-        <v>356.42</v>
+        <v>356.47</v>
       </c>
       <c r="K462" t="n">
         <v>359.4</v>
@@ -21279,7 +21279,7 @@
         <v>353.14</v>
       </c>
       <c r="J463" t="n">
-        <v>357.19</v>
+        <v>357.21</v>
       </c>
       <c r="K463" t="n">
         <v>359.14</v>
@@ -21324,7 +21324,7 @@
         <v>352.26</v>
       </c>
       <c r="J464" t="n">
-        <v>358.11</v>
+        <v>358.15</v>
       </c>
       <c r="K464" t="n">
         <v>360.29</v>
@@ -21369,7 +21369,7 @@
         <v>353.56</v>
       </c>
       <c r="J465" t="n">
-        <v>359.21</v>
+        <v>359.27</v>
       </c>
       <c r="K465" t="n">
         <v>361.25</v>
@@ -21414,7 +21414,7 @@
         <v>356.7</v>
       </c>
       <c r="J466" t="n">
-        <v>361.74</v>
+        <v>361.73</v>
       </c>
       <c r="K466" t="n">
         <v>364.72</v>
@@ -21459,7 +21459,7 @@
         <v>356.62</v>
       </c>
       <c r="J467" t="n">
-        <v>361.72</v>
+        <v>361.75</v>
       </c>
       <c r="K467" t="n">
         <v>364.66</v>
@@ -21504,7 +21504,7 @@
         <v>358.66</v>
       </c>
       <c r="J468" t="n">
-        <v>362.87</v>
+        <v>362.83</v>
       </c>
       <c r="K468" t="n">
         <v>366.84</v>
@@ -21549,7 +21549,7 @@
         <v>359.02</v>
       </c>
       <c r="J469" t="n">
-        <v>362.24</v>
+        <v>362.22</v>
       </c>
       <c r="K469" t="n">
         <v>366.74</v>
@@ -21594,7 +21594,7 @@
         <v>359.92</v>
       </c>
       <c r="J470" t="n">
-        <v>362.59</v>
+        <v>362.57</v>
       </c>
       <c r="K470" t="n">
         <v>367.6</v>
@@ -21639,7 +21639,7 @@
         <v>359.87</v>
       </c>
       <c r="J471" t="n">
-        <v>362.75</v>
+        <v>362.72</v>
       </c>
       <c r="K471" t="n">
         <v>368.13</v>
@@ -21684,7 +21684,7 @@
         <v>361.44</v>
       </c>
       <c r="J472" t="n">
-        <v>362.8</v>
+        <v>362.83</v>
       </c>
       <c r="K472" t="n">
         <v>368.75</v>
@@ -21774,7 +21774,7 @@
         <v>362.66</v>
       </c>
       <c r="J474" t="n">
-        <v>363.09</v>
+        <v>363.14</v>
       </c>
       <c r="K474" t="n">
         <v>368.29</v>
@@ -21819,7 +21819,7 @@
         <v>362.08</v>
       </c>
       <c r="J475" t="n">
-        <v>363.42</v>
+        <v>363.39</v>
       </c>
       <c r="K475" t="n">
         <v>367.85</v>
@@ -21909,7 +21909,7 @@
         <v>359.84</v>
       </c>
       <c r="J477" t="n">
-        <v>361.33</v>
+        <v>361.37</v>
       </c>
       <c r="K477" t="n">
         <v>366.56</v>
@@ -22134,7 +22134,7 @@
         <v>360.76</v>
       </c>
       <c r="J482" t="n">
-        <v>362.53</v>
+        <v>362.52</v>
       </c>
       <c r="K482" t="n">
         <v>368.95</v>
@@ -22179,7 +22179,7 @@
         <v>360.6</v>
       </c>
       <c r="J483" t="n">
-        <v>362.58</v>
+        <v>362.54</v>
       </c>
       <c r="K483" t="n">
         <v>368.69</v>
@@ -22224,7 +22224,7 @@
         <v>360.57</v>
       </c>
       <c r="J484" t="n">
-        <v>362.42</v>
+        <v>362.35</v>
       </c>
       <c r="K484" t="n">
         <v>367.72</v>
@@ -22269,7 +22269,7 @@
         <v>360.1</v>
       </c>
       <c r="J485" t="n">
-        <v>361.95</v>
+        <v>361.92</v>
       </c>
       <c r="K485" t="n">
         <v>367.29</v>
@@ -22314,7 +22314,7 @@
         <v>360.77</v>
       </c>
       <c r="J486" t="n">
-        <v>362.43</v>
+        <v>362.33</v>
       </c>
       <c r="K486" t="n">
         <v>367.7</v>
@@ -22359,7 +22359,7 @@
         <v>360.94</v>
       </c>
       <c r="J487" t="n">
-        <v>362.52</v>
+        <v>362.4</v>
       </c>
       <c r="K487" t="n">
         <v>367.17</v>
@@ -22404,7 +22404,7 @@
         <v>360.94</v>
       </c>
       <c r="J488" t="n">
-        <v>362.32</v>
+        <v>362.25</v>
       </c>
       <c r="K488" t="n">
         <v>366.85</v>
@@ -22449,7 +22449,7 @@
         <v>360.5</v>
       </c>
       <c r="J489" t="n">
-        <v>362.22</v>
+        <v>362.16</v>
       </c>
       <c r="K489" t="n">
         <v>366.73</v>
@@ -22494,7 +22494,7 @@
         <v>360.63</v>
       </c>
       <c r="J490" t="n">
-        <v>362.07</v>
+        <v>362.01</v>
       </c>
       <c r="K490" t="n">
         <v>366.28</v>
@@ -22539,7 +22539,7 @@
         <v>360.41</v>
       </c>
       <c r="J491" t="n">
-        <v>361.6</v>
+        <v>361.53</v>
       </c>
       <c r="K491" t="n">
         <v>365.23</v>
@@ -22584,7 +22584,7 @@
         <v>361.58</v>
       </c>
       <c r="J492" t="n">
-        <v>362.59</v>
+        <v>362.51</v>
       </c>
       <c r="K492" t="n">
         <v>365.18</v>
@@ -22629,7 +22629,7 @@
         <v>361.53</v>
       </c>
       <c r="J493" t="n">
-        <v>363.01</v>
+        <v>362.88</v>
       </c>
       <c r="K493" t="n">
         <v>365.23</v>
@@ -22674,7 +22674,7 @@
         <v>364.39</v>
       </c>
       <c r="J494" t="n">
-        <v>365.27</v>
+        <v>365.17</v>
       </c>
       <c r="K494" t="n">
         <v>366.94</v>
@@ -22719,7 +22719,7 @@
         <v>363.34</v>
       </c>
       <c r="J495" t="n">
-        <v>363.86</v>
+        <v>363.77</v>
       </c>
       <c r="K495" t="n">
         <v>362.68</v>
@@ -22764,7 +22764,7 @@
         <v>361.38</v>
       </c>
       <c r="J496" t="n">
-        <v>363.47</v>
+        <v>363.35</v>
       </c>
       <c r="K496" t="n">
         <v>363.39</v>
@@ -22809,7 +22809,7 @@
         <v>363.26</v>
       </c>
       <c r="J497" t="n">
-        <v>367.16</v>
+        <v>367.03</v>
       </c>
       <c r="K497" t="n">
         <v>367.09</v>
@@ -22854,7 +22854,7 @@
         <v>367</v>
       </c>
       <c r="J498" t="n">
-        <v>370.83</v>
+        <v>370.75</v>
       </c>
       <c r="K498" t="n">
         <v>371.59</v>
@@ -22899,7 +22899,7 @@
         <v>363.39</v>
       </c>
       <c r="J499" t="n">
-        <v>367.8</v>
+        <v>367.77</v>
       </c>
       <c r="K499" t="n">
         <v>369.16</v>
@@ -22944,7 +22944,7 @@
         <v>364.88</v>
       </c>
       <c r="J500" t="n">
-        <v>368.78</v>
+        <v>368.72</v>
       </c>
       <c r="K500" t="n">
         <v>370.34</v>
@@ -22989,7 +22989,7 @@
         <v>365.8</v>
       </c>
       <c r="J501" t="n">
-        <v>369.21</v>
+        <v>369.11</v>
       </c>
       <c r="K501" t="n">
         <v>370.98</v>
@@ -23034,7 +23034,7 @@
         <v>364.33</v>
       </c>
       <c r="J502" t="n">
-        <v>367.57</v>
+        <v>367.52</v>
       </c>
       <c r="K502" t="n">
         <v>369.99</v>
@@ -23124,7 +23124,7 @@
         <v>366.3</v>
       </c>
       <c r="J504" t="n">
-        <v>368.42</v>
+        <v>368.46</v>
       </c>
       <c r="K504" t="n">
         <v>369.34</v>
@@ -23169,7 +23169,7 @@
         <v>366.9</v>
       </c>
       <c r="J505" t="n">
-        <v>369.58</v>
+        <v>369.51</v>
       </c>
       <c r="K505" t="n">
         <v>369.73</v>
@@ -23214,7 +23214,7 @@
         <v>364.44</v>
       </c>
       <c r="J506" t="n">
-        <v>367.68</v>
+        <v>367.64</v>
       </c>
       <c r="K506" t="n">
         <v>368.13</v>
@@ -23259,7 +23259,7 @@
         <v>365.99</v>
       </c>
       <c r="J507" t="n">
-        <v>369.06</v>
+        <v>369</v>
       </c>
       <c r="K507" t="n">
         <v>369.6</v>
@@ -23304,7 +23304,7 @@
         <v>366.73</v>
       </c>
       <c r="J508" t="n">
-        <v>369.82</v>
+        <v>369.78</v>
       </c>
       <c r="K508" t="n">
         <v>370.45</v>
@@ -23349,7 +23349,7 @@
         <v>367.23</v>
       </c>
       <c r="J509" t="n">
-        <v>370.12</v>
+        <v>370.07</v>
       </c>
       <c r="K509" t="n">
         <v>370.75</v>
@@ -23394,7 +23394,7 @@
         <v>367.78</v>
       </c>
       <c r="J510" t="n">
-        <v>370.57</v>
+        <v>370.54</v>
       </c>
       <c r="K510" t="n">
         <v>371.04</v>
@@ -23439,7 +23439,7 @@
         <v>367.8</v>
       </c>
       <c r="J511" t="n">
-        <v>370.65</v>
+        <v>370.59</v>
       </c>
       <c r="K511" t="n">
         <v>371.29</v>
@@ -23484,7 +23484,7 @@
         <v>366.77</v>
       </c>
       <c r="J512" t="n">
-        <v>369.63</v>
+        <v>369.6</v>
       </c>
       <c r="K512" t="n">
         <v>370.31</v>
@@ -23529,7 +23529,7 @@
         <v>366.23</v>
       </c>
       <c r="J513" t="n">
-        <v>368.97</v>
+        <v>368.92</v>
       </c>
       <c r="K513" t="n">
         <v>369.61</v>
@@ -23574,7 +23574,7 @@
         <v>364.85</v>
       </c>
       <c r="J514" t="n">
-        <v>367.71</v>
+        <v>367.69</v>
       </c>
       <c r="K514" t="n">
         <v>368.4</v>
@@ -23619,7 +23619,7 @@
         <v>364.85</v>
       </c>
       <c r="J515" t="n">
-        <v>367.85</v>
+        <v>367.8</v>
       </c>
       <c r="K515" t="n">
         <v>368.55</v>
@@ -23664,7 +23664,7 @@
         <v>364.66</v>
       </c>
       <c r="J516" t="n">
-        <v>367.81</v>
+        <v>367.82</v>
       </c>
       <c r="K516" t="n">
         <v>368.62</v>
@@ -23709,7 +23709,7 @@
         <v>364.65</v>
       </c>
       <c r="J517" t="n">
-        <v>367.63</v>
+        <v>367.61</v>
       </c>
       <c r="K517" t="n">
         <v>368.69</v>
@@ -23754,7 +23754,7 @@
         <v>364.56</v>
       </c>
       <c r="J518" t="n">
-        <v>367.16</v>
+        <v>367.15</v>
       </c>
       <c r="K518" t="n">
         <v>368.39</v>
@@ -23799,7 +23799,7 @@
         <v>363.89</v>
       </c>
       <c r="J519" t="n">
-        <v>366.38</v>
+        <v>366.36</v>
       </c>
       <c r="K519" t="n">
         <v>367.46</v>
@@ -23844,7 +23844,7 @@
         <v>362.32</v>
       </c>
       <c r="J520" t="n">
-        <v>364.8</v>
+        <v>364.79</v>
       </c>
       <c r="K520" t="n">
         <v>365.48</v>
@@ -23889,7 +23889,7 @@
         <v>360.92</v>
       </c>
       <c r="J521" t="n">
-        <v>365.47</v>
+        <v>365.46</v>
       </c>
       <c r="K521" t="n">
         <v>365.94</v>
@@ -23922,7 +23922,7 @@
         <v>359.78</v>
       </c>
       <c r="F522" t="n">
-        <v>357.53</v>
+        <v>357.79</v>
       </c>
       <c r="G522" t="n">
         <v>357.99</v>
@@ -23931,10 +23931,10 @@
         <v>359.33</v>
       </c>
       <c r="I522" t="n">
-        <v>360.92</v>
+        <v>361.45</v>
       </c>
       <c r="J522" t="n">
-        <v>365.57</v>
+        <v>365.58</v>
       </c>
       <c r="K522" t="n">
         <v>366.24</v>
@@ -23945,6 +23945,51 @@
       <c r="M522" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>358</v>
+      </c>
+      <c r="C523" t="n">
+        <v>359.75</v>
+      </c>
+      <c r="D523" t="n">
+        <v>357.2</v>
+      </c>
+      <c r="E523" t="n">
+        <v>356.64</v>
+      </c>
+      <c r="F523" t="n">
+        <v>355.29</v>
+      </c>
+      <c r="G523" t="n">
+        <v>355.63</v>
+      </c>
+      <c r="H523" t="n">
+        <v>356.91</v>
+      </c>
+      <c r="I523" t="n">
+        <v>358.7</v>
+      </c>
+      <c r="J523" t="n">
+        <v>362.84</v>
+      </c>
+      <c r="K523" t="n">
+        <v>364.6</v>
+      </c>
+      <c r="L523" t="n">
+        <v>372.79</v>
+      </c>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23959,7 +24004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B615"/>
+  <dimension ref="A1:B616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30117,6 +30162,16 @@
       </c>
       <c r="B615" t="n">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -30284,34 +30339,34 @@
         <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.054</v>
+        <v>0.0535</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.0761</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3393581293073645</v>
+        <v>-0.3419737531871182</v>
       </c>
       <c r="J2" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K2" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L2" t="n">
-        <v>0.10740475533912</v>
+        <v>0.1090645096307582</v>
       </c>
       <c r="M2" t="n">
-        <v>5.239798183349286</v>
+        <v>5.245500617514423</v>
       </c>
       <c r="N2" t="n">
-        <v>45.85229518638963</v>
+        <v>45.85188339871747</v>
       </c>
       <c r="O2" t="n">
-        <v>6.771432284708282</v>
+        <v>6.771401878393976</v>
       </c>
       <c r="P2" t="n">
-        <v>373.6817032148053</v>
+        <v>373.7121067051208</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30362,34 +30417,34 @@
         <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0538</v>
+        <v>0.0534</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3023474113708615</v>
+        <v>-0.3046532627060103</v>
       </c>
       <c r="J3" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K3" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0872939215923314</v>
+        <v>0.0886949525466596</v>
       </c>
       <c r="M3" t="n">
-        <v>5.286595934039129</v>
+        <v>5.28807236663418</v>
       </c>
       <c r="N3" t="n">
-        <v>45.79024366966517</v>
+        <v>45.77046857793923</v>
       </c>
       <c r="O3" t="n">
-        <v>6.76684887297368</v>
+        <v>6.765387540853756</v>
       </c>
       <c r="P3" t="n">
-        <v>373.6598622022947</v>
+        <v>373.686664958333</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30440,34 +30495,34 @@
         <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0604</v>
+        <v>0.0598</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1023</v>
+        <v>0.1015</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3489931352867134</v>
+        <v>-0.3508108149043695</v>
       </c>
       <c r="J4" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K4" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1229412774487092</v>
+        <v>0.1243632810387489</v>
       </c>
       <c r="M4" t="n">
-        <v>4.854841736992356</v>
+        <v>4.854451692159159</v>
       </c>
       <c r="N4" t="n">
-        <v>41.62729840006251</v>
+        <v>41.58977414379342</v>
       </c>
       <c r="O4" t="n">
-        <v>6.45192207020997</v>
+        <v>6.449013424066771</v>
       </c>
       <c r="P4" t="n">
-        <v>371.0673683294717</v>
+        <v>371.0884966748274</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30518,34 +30573,34 @@
         <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0482</v>
+        <v>0.048</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0696</v>
+        <v>0.0692</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3712447791042641</v>
+        <v>-0.3729419472271471</v>
       </c>
       <c r="J5" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K5" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1639190829248007</v>
+        <v>0.1655394662318037</v>
       </c>
       <c r="M5" t="n">
-        <v>4.381611223186225</v>
+        <v>4.381179886388978</v>
       </c>
       <c r="N5" t="n">
-        <v>33.67852104647925</v>
+        <v>33.65081138020813</v>
       </c>
       <c r="O5" t="n">
-        <v>5.80331982975945</v>
+        <v>5.800931940663339</v>
       </c>
       <c r="P5" t="n">
-        <v>370.7801204550535</v>
+        <v>370.7998479988289</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30596,34 +30651,34 @@
         <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0495</v>
+        <v>0.0493</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0801</v>
+        <v>0.0794</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3586809291059398</v>
+        <v>-0.360025526484623</v>
       </c>
       <c r="J6" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K6" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1477482382387263</v>
+        <v>0.1490779391733629</v>
       </c>
       <c r="M6" t="n">
-        <v>4.596814297468314</v>
+        <v>4.593422006425199</v>
       </c>
       <c r="N6" t="n">
-        <v>35.55295273227101</v>
+        <v>35.51009321901551</v>
       </c>
       <c r="O6" t="n">
-        <v>5.962629682637604</v>
+        <v>5.95903458783514</v>
       </c>
       <c r="P6" t="n">
-        <v>368.4468882735907</v>
+        <v>368.4625219234472</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30674,34 +30729,34 @@
         <v>0.095</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0733</v>
+        <v>0.0726</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1356</v>
+        <v>0.134</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.314147049831883</v>
+        <v>-0.3149683996197305</v>
       </c>
       <c r="J7" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K7" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L7" t="n">
-        <v>0.124154931804116</v>
+        <v>0.1251054010340352</v>
       </c>
       <c r="M7" t="n">
-        <v>4.627632640982387</v>
+        <v>4.622746630906405</v>
       </c>
       <c r="N7" t="n">
-        <v>33.35360575388949</v>
+        <v>33.29833091585449</v>
       </c>
       <c r="O7" t="n">
-        <v>5.775258068163663</v>
+        <v>5.770470597434363</v>
       </c>
       <c r="P7" t="n">
-        <v>366.0075848219558</v>
+        <v>366.0171320280789</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30752,34 +30807,34 @@
         <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07489999999999999</v>
+        <v>0.0741</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1164</v>
+        <v>0.1151</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3372253668727374</v>
+        <v>-0.337546829711901</v>
       </c>
       <c r="J8" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K8" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1402322548082726</v>
+        <v>0.1409105868057061</v>
       </c>
       <c r="M8" t="n">
-        <v>4.596310354442463</v>
+        <v>4.58900969522604</v>
       </c>
       <c r="N8" t="n">
-        <v>33.40313350890038</v>
+        <v>33.34046339978727</v>
       </c>
       <c r="O8" t="n">
-        <v>5.779544403229409</v>
+        <v>5.774120140747616</v>
       </c>
       <c r="P8" t="n">
-        <v>366.5927273783719</v>
+        <v>366.5964639983015</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30830,34 +30885,34 @@
         <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0699</v>
+        <v>0.0694</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0959</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2121081102305676</v>
+        <v>-0.2124616450442845</v>
       </c>
       <c r="J9" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K9" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06106145133786645</v>
+        <v>0.06145802323640526</v>
       </c>
       <c r="M9" t="n">
-        <v>4.606938195037499</v>
+        <v>4.602267296909542</v>
       </c>
       <c r="N9" t="n">
-        <v>33.14347973100468</v>
+        <v>33.08605711426676</v>
       </c>
       <c r="O9" t="n">
-        <v>5.757037409206638</v>
+        <v>5.752048079968278</v>
       </c>
       <c r="P9" t="n">
-        <v>365.7138123588616</v>
+        <v>365.7179307286027</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30905,37 +30960,37 @@
         <v>0.7996230734595655</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0698</v>
+        <v>0.0689</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1035</v>
+        <v>0.1027</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.08616266172846801</v>
+        <v>-0.08383695319458453</v>
       </c>
       <c r="J10" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K10" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01037126036689728</v>
+        <v>0.009919767731742302</v>
       </c>
       <c r="M10" t="n">
-        <v>4.668746792701827</v>
+        <v>4.64061804447246</v>
       </c>
       <c r="N10" t="n">
-        <v>33.93848736143652</v>
+        <v>33.67043142353127</v>
       </c>
       <c r="O10" t="n">
-        <v>5.825674841718899</v>
+        <v>5.802622805553646</v>
       </c>
       <c r="P10" t="n">
-        <v>364.685193959823</v>
+        <v>364.596462400052</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30986,34 +31041,34 @@
         <v>0.075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.064</v>
+        <v>0.0633</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09229999999999999</v>
+        <v>0.0915</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03162251436370844</v>
+        <v>0.03121241006002041</v>
       </c>
       <c r="J11" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K11" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001451984184487443</v>
+        <v>0.00141983340519003</v>
       </c>
       <c r="M11" t="n">
-        <v>4.576549651556309</v>
+        <v>4.569996668552301</v>
       </c>
       <c r="N11" t="n">
-        <v>32.94680995856598</v>
+        <v>32.88584271919562</v>
       </c>
       <c r="O11" t="n">
-        <v>5.739931180647202</v>
+        <v>5.734617922686359</v>
       </c>
       <c r="P11" t="n">
-        <v>364.8289000348847</v>
+        <v>364.8336670055191</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31067,31 +31122,31 @@
         <v>0.0396</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0492</v>
+        <v>0.0491</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05351641209286048</v>
+        <v>0.05479613833951001</v>
       </c>
       <c r="J12" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K12" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004356910757745469</v>
+        <v>0.004580835230505897</v>
       </c>
       <c r="M12" t="n">
-        <v>4.56679432112893</v>
+        <v>4.56339274303547</v>
       </c>
       <c r="N12" t="n">
-        <v>31.35541148380731</v>
+        <v>31.31627191943277</v>
       </c>
       <c r="O12" t="n">
-        <v>5.599590296066964</v>
+        <v>5.596094345115419</v>
       </c>
       <c r="P12" t="n">
-        <v>368.0718821945978</v>
+        <v>368.0570069119367</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31129,7 +31184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M522"/>
+  <dimension ref="A1:M523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31252,7 +31307,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-45.76131687845553,170.68493625159968</t>
+          <t>-45.761321348950815,170.68493553470526</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -31319,7 +31374,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-45.761330826400766,170.6849340148886</t>
+          <t>-45.76133583335543,170.68493321196638</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -31386,7 +31441,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-45.76129479420872,170.68493979305634</t>
+          <t>-45.76129980116348,170.6849389901353</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -31453,7 +31508,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-45.761295598897895,170.6849396640155</t>
+          <t>-45.76129837060499,170.68493921954132</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -31520,7 +31575,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-45.761262785461916,170.6849449260123</t>
+          <t>-45.76126627244832,170.68494436683588</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -31587,7 +31642,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-45.76124275764243,170.68494813769087</t>
+          <t>-45.76124463525051,170.6849478365961</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -31654,7 +31709,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-45.761267345367216,170.68494419478154</t>
+          <t>-45.76126922297528,170.6849438936865</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -31721,7 +31776,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-45.761293095420505,170.68494006547598</t>
+          <t>-45.76129398951957,170.68493992209724</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -31788,7 +31843,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-45.76132832292342,170.68493441634965</t>
+          <t>-45.76132876997295,170.68493434466018</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -31855,7 +31910,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-45.76135094362928,170.68493078886078</t>
+          <t>-45.76135103303918,170.68493077452288</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -31922,7 +31977,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-45.761358096421596,170.68492964182803</t>
+          <t>-45.76135845406121,170.68492958447638</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -31989,7 +32044,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-45.76143391601856,170.6849174832608</t>
+          <t>-45.76143257487006,170.68491769833008</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -32056,7 +32111,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-45.76141961043446,170.68491977733288</t>
+          <t>-45.761425422078005,170.68491884536624</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -32123,7 +32178,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-45.76143829710369,170.68491678070092</t>
+          <t>-45.76143865474328,170.6849167233491</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -32190,7 +32245,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-45.76143829710369,170.68491678070092</t>
+          <t>-45.76143865474328,170.6849167233491</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -32257,7 +32312,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-45.761408255376985,170.68492159825172</t>
+          <t>-45.76140727186805,170.68492175596904</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -32324,7 +32379,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-45.76142980316314,170.68491814280665</t>
+          <t>-45.76142855142452,170.68491834353796</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -32391,7 +32446,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-45.76142399151959,170.68491907477343</t>
+          <t>-45.76142211391168,170.68491937587038</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -32458,7 +32513,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-45.761437224184874,170.6849169527564</t>
+          <t>-45.761435704216574,170.68491719650166</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -32525,7 +32580,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-45.761475491621816,170.6849108161062</t>
+          <t>-45.761476206901,170.68491070140234</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -32592,7 +32647,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-45.76145832492122,170.68491356899716</t>
+          <t>-45.76145966606972,170.68491335392764</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -32659,7 +32714,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-45.761425869127514,170.68491877367651</t>
+          <t>-45.76142792555522,170.68491844390363</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -32726,7 +32781,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-45.76142256096117,170.68491930418062</t>
+          <t>-45.76142461738891,170.68491897440782</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -32793,7 +32848,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-45.76139752618877,170.68492331880415</t>
+          <t>-45.76139949320661,170.6849230033696</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -32860,7 +32915,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-45.76139752618877,170.68492331880415</t>
+          <t>-45.76139949320661,170.6849230033696</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -32927,7 +32982,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-45.76141791164633,170.68492004975388</t>
+          <t>-45.76141934220474,170.68491982034672</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -32994,7 +33049,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-45.76155122180447,170.68489867181972</t>
+          <t>-45.76154961242635,170.6848989299041</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -33061,7 +33116,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-45.76162507437653,170.68488682859578</t>
+          <t>-45.761624180277614,170.68488697197643</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -33128,7 +33183,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-45.76157151785058,170.68489541708735</t>
+          <t>-45.76157393191771,170.68489502996042</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -33195,7 +33250,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-45.76155202649352,170.68489854277752</t>
+          <t>-45.76155542406954,170.68489799793264</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -33262,7 +33317,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-45.76152430942583,170.6849029875621</t>
+          <t>-45.761527438772205,170.68490248573187</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -33329,7 +33384,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-45.761488992516455,170.6849086510708</t>
+          <t>-45.76149167481339,170.6849082209312</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -33396,7 +33451,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-45.76147513398222,170.6849108734581</t>
+          <t>-45.761478173918775,170.68491038596682</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -33463,7 +33518,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-45.76146494125376,170.68491250798732</t>
+          <t>-45.76146664004184,170.68491223556586</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -33530,7 +33585,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-45.761464136564676,170.68491263702907</t>
+          <t>-45.761463689515175,170.68491270871897</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -33597,7 +33652,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-45.76143436306806,170.684917411571</t>
+          <t>-45.76143346896906,170.68491755495054</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -33664,7 +33719,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-45.76144464520659,170.6849157627058</t>
+          <t>-45.76144553930557,170.6849156193262</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -33731,7 +33786,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-45.76139922497691,170.6849230463834</t>
+          <t>-45.76139913556701,170.68492306072133</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -33798,7 +33853,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-45.761419163384936,170.68491984902263</t>
+          <t>-45.76141907397504,170.6849198633606</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -33865,7 +33920,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-45.76145975547962,170.68491333958966</t>
+          <t>-45.76146002370931,170.68491329657576</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -33932,7 +33987,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-45.76145975547962,170.68491333958966</t>
+          <t>-45.76146002370931,170.68491329657576</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -33999,7 +34054,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-45.76143481011758,170.68491733988122</t>
+          <t>-45.761435704216574,170.68491719650166</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -34066,7 +34121,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-45.76143481011758,170.68491733988122</t>
+          <t>-45.761435704216574,170.68491719650166</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -34133,7 +34188,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-45.76141871633544,170.68491992071236</t>
+          <t>-45.76141952102454,170.68491979167086</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -34200,7 +34255,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-45.76142855142452,170.68491834353796</t>
+          <t>-45.76142873024432,170.68491831486207</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -34267,7 +34322,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-45.76142855142452,170.68491834353796</t>
+          <t>-45.76142873024432,170.68491831486207</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -34334,7 +34389,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-45.761437671234376,170.6849168810666</t>
+          <t>-45.76143776064428,170.68491686672868</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -34468,7 +34523,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-45.76143168077105,170.68491784170962</t>
+          <t>-45.76143114431165,170.68491792773733</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -34535,7 +34590,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-45.76143847592347,170.684916752025</t>
+          <t>-45.76143793946408,170.68491683805274</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -34602,7 +34657,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-45.76143945943237,170.68491659430748</t>
+          <t>-45.76143954884228,170.6849165799695</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -34669,7 +34724,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-45.761467265911136,170.68491213520002</t>
+          <t>-45.761466371812155,170.6849122785798</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -34736,7 +34791,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-45.76146610358244,170.68491232159369</t>
+          <t>-45.76146494125376,170.68491250798732</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -34803,7 +34858,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-45.76146967997841,170.6849117480747</t>
+          <t>-45.76146887528932,170.68491187711646</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -34870,7 +34925,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-45.76146985879821,170.68491171939874</t>
+          <t>-45.76146905410912,170.68491184844055</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -34937,7 +34992,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-45.76144902629168,170.68491506014564</t>
+          <t>-45.76144848983227,170.68491514617344</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -35004,7 +35059,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-45.76146154367761,170.68491305283027</t>
+          <t>-45.76146082839841,170.684913167534</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -35071,7 +35126,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-45.76146154367761,170.68491305283027</t>
+          <t>-45.76146082839841,170.684913167534</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -35138,7 +35193,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-45.76146154367761,170.68491305283027</t>
+          <t>-45.76146082839841,170.684913167534</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -35205,7 +35260,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-45.76148827723728,170.6849087657747</t>
+          <t>-45.7614872937284,170.68490892349254</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -35272,7 +35327,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-45.76148827723728,170.6849087657747</t>
+          <t>-45.7614872937284,170.68490892349254</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -35339,7 +35394,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-45.76147432929313,170.68491100249992</t>
+          <t>-45.76147415047333,170.68491103117586</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -35406,7 +35461,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-45.7614612754479,170.68491309584417</t>
+          <t>-45.76146136485781,170.6849130815062</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -35473,7 +35528,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-45.761472541095166,170.68491128925947</t>
+          <t>-45.76147263050506,170.6849112749215</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -35540,7 +35595,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-45.761478173918775,170.68491038596682</t>
+          <t>-45.761477637459386,170.6849104719947</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -35607,7 +35662,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-45.76148631021951,170.68490908121038</t>
+          <t>-45.761486846678906,170.68490899518247</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -35674,7 +35729,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-45.76147871037817,170.68491029993893</t>
+          <t>-45.761479872706836,170.68491011354516</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -35741,7 +35796,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-45.76147772686928,170.6849104576567</t>
+          <t>-45.76147942565736,170.68491018523505</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -35808,7 +35863,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-45.76142479620869,170.6849189457319</t>
+          <t>-45.76142533266811,170.6849188597042</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -35875,7 +35930,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-45.761380806537026,170.6849259999969</t>
+          <t>-45.761381611226156,170.6849258709556</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -35942,7 +35997,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-45.76140566248984,170.68492201405195</t>
+          <t>-45.76140754009777,170.68492171295523</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -36009,7 +36064,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-45.76134781428263,170.6849312906875</t>
+          <t>-45.76135040716986,170.68493087488824</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -36076,7 +36131,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-45.76135452002544,170.68493021534445</t>
+          <t>-45.76135764937207,170.6849297135176</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -36143,7 +36198,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-45.761376067812165,170.68492675990683</t>
+          <t>-45.76137964420828,170.68492618638993</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -36210,7 +36265,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-45.76136238809696,170.68492895360825</t>
+          <t>-45.76136498098417,170.6849285378087</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -36277,7 +36332,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-45.761372402006145,170.68492734776157</t>
+          <t>-45.76137517371315,170.68492690328603</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -36344,7 +36399,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-45.761372402006145,170.68492734776157</t>
+          <t>-45.76137517371315,170.68492690328603</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -36411,7 +36466,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-45.76139842028779,170.6849231754248</t>
+          <t>-45.76140047671553,170.6849228456523</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -36478,7 +36533,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-45.761393949792684,170.68492389232148</t>
+          <t>-45.761395380351125,170.68492366291457</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -36545,7 +36600,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-45.76138313119449,170.68492562721084</t>
+          <t>-45.76138402529351,170.6849254838316</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -36612,7 +36667,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-45.761405841309646,170.6849219853761</t>
+          <t>-45.7614034272423,170.6849223725004</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -36679,7 +36734,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-45.76138465116284,170.68492538346612</t>
+          <t>-45.761382684144984,170.68492569890049</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -36746,7 +36801,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-45.76130516575787,170.68493812986253</t>
+          <t>-45.76130400342909,170.68493831625497</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -36813,7 +36868,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-45.76130382460928,170.6849383449307</t>
+          <t>-45.761303466969636,170.68493840228226</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -36880,7 +36935,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-45.761262785461916,170.6849449260123</t>
+          <t>-45.76126359015109,170.6849447969716</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -37014,7 +37069,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-45.76129354247004,170.6849399937866</t>
+          <t>-45.76129336365023,170.68494002246237</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -37081,7 +37136,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-45.76130650690645,170.68493791479432</t>
+          <t>-45.76130641749656,170.6849379291322</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -37215,7 +37270,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-45.76132573003617,170.68493483214857</t>
+          <t>-45.76132537239654,170.68493488950014</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -37282,7 +37337,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-45.76141934220474,170.68491982034672</t>
+          <t>-45.7614158552186,170.6849203795266</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -37349,7 +37404,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-45.76141934220474,170.68491982034672</t>
+          <t>-45.7614158552186,170.6849203795266</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -37416,7 +37471,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-45.7614153187592,170.68492046555428</t>
+          <t>-45.761411384723544,170.68492109642378</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -37483,7 +37538,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-45.76144437697688,170.6849158057197</t>
+          <t>-45.761441158220485,170.68491632188625</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -37550,7 +37605,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-45.76140262255318,170.68492250154185</t>
+          <t>-45.76140181786406,170.6849226305833</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -37617,7 +37672,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-45.76139940379671,170.68492301770752</t>
+          <t>-45.76140002966603,170.684922917342</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -37684,7 +37739,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-45.7614158552186,170.6849203795266</t>
+          <t>-45.76141862692553,170.68491993505032</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -37751,7 +37806,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>-45.761446969863975,170.6849153899188</t>
+          <t>-45.761448400422374,170.68491516051142</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -37818,7 +37873,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>-45.76149185363319,170.6849081922552</t>
+          <t>-45.761492300682676,170.68490812056527</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -37885,7 +37940,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-45.76150401337926,170.68490624228835</t>
+          <t>-45.761503566329765,170.68490631397833</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -37952,7 +38007,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>-45.76150750036525,170.6849056831065</t>
+          <t>-45.76150490747823,170.68490609890839</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -38019,7 +38074,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>-45.76146824942002,170.6849119774823</t>
+          <t>-45.76146574594286,170.6849123789456</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -38086,7 +38141,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>-45.761490423074825,170.684908421663</t>
+          <t>-45.761489260746146,170.68490860805684</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -38153,7 +38208,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>-45.76145904020043,170.68491345429342</t>
+          <t>-45.76145948724991,170.68491338260358</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -38220,7 +38275,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>-45.76146145426771,170.68491306716822</t>
+          <t>-45.76146154367761,170.68491305283027</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -38287,7 +38342,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>-45.76146878587942,170.68491189145448</t>
+          <t>-45.76146816001012,170.6849119918203</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -38354,7 +38409,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>-45.76147039525759,170.6849116333709</t>
+          <t>-45.761469769388306,170.68491173373673</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -38421,7 +38476,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>-45.76145367560646,170.6849143145715</t>
+          <t>-45.76145394383615,170.6849142715576</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -38488,7 +38543,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>-45.761425064438406,170.68491890271807</t>
+          <t>-45.761425779717605,170.68491878801444</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -38555,7 +38610,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>-45.76143230664036,170.68491774134395</t>
+          <t>-45.761433290149256,170.68491758362646</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -38622,7 +38677,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>-45.76144348287789,170.68491594909932</t>
+          <t>-45.76144464520659,170.6849157627058</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -38689,7 +38744,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>-45.76147558103172,170.6849108017682</t>
+          <t>-45.761477011590095,170.68491057236056</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -38756,7 +38811,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>-45.76152055421018,170.68490358975836</t>
+          <t>-45.761520375390404,170.68490361843436</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -38823,7 +38878,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>-45.7615122390898,170.6849049231926</t>
+          <t>-45.76151286495907,170.68490482282655</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -38890,7 +38945,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>-45.761508573284004,170.68490551105054</t>
+          <t>-45.761509377973084,170.68490538200854</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -38957,7 +39012,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>-45.76150794741473,170.6849056114165</t>
+          <t>-45.761509377973084,170.68490538200854</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -39024,7 +39079,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>-45.761499989933874,170.6849068874981</t>
+          <t>-45.761500526393256,170.6849068014701</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -39091,7 +39146,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>-45.76150928856319,170.68490539634655</t>
+          <t>-45.76151045089184,170.68490520995257</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -39158,7 +39213,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>-45.76150928856319,170.68490539634655</t>
+          <t>-45.76151045089184,170.68490520995257</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -39225,7 +39280,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>-45.761515279026284,170.68490443570053</t>
+          <t>-45.76151662017473,170.68490422063053</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -39292,7 +39347,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>-45.76150839446422,170.68490553972651</t>
+          <t>-45.76150928856319,170.68490539634655</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -39359,7 +39414,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>-45.76150839446422,170.68490553972651</t>
+          <t>-45.76150928856319,170.68490539634655</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -39426,7 +39481,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>-45.76149194304308,170.68490817791724</t>
+          <t>-45.761492747732156,170.68490804887534</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -39493,7 +39548,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>-45.761490244255015,170.684908450339</t>
+          <t>-45.76148970779564,170.68490853636692</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -39560,7 +39615,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>-45.76150544393761,170.68490601288042</t>
+          <t>-45.76150633803658,170.68490586950045</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -39627,7 +39682,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>-45.76153003165919,170.68490206992956</t>
+          <t>-45.76153092575816,170.6849019265495</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -39694,7 +39749,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>-45.761533518645145,170.68490151074715</t>
+          <t>-45.76153360805504,170.68490149640914</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -39761,7 +39816,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>-45.76151349082835,170.68490472246057</t>
+          <t>-45.76151331200855,170.68490475113657</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -39828,7 +39883,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>-45.76152967401961,170.68490212728162</t>
+          <t>-45.76152976342951,170.6849021129436</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -39895,7 +39950,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>-45.761530478708664,170.68490199823952</t>
+          <t>-45.76153083634827,170.6849019408875</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -39962,7 +40017,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>-45.76150758977515,170.6849056687685</t>
+          <t>-45.761508126234524,170.68490558274053</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -40029,7 +40084,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>-45.76150302987039,170.68490640000627</t>
+          <t>-45.761504460428746,170.68490617059837</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -40096,7 +40151,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>-45.76149194304308,170.68490817791724</t>
+          <t>-45.76149399947074,170.6849078481435</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -40163,7 +40218,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>-45.761499185244794,170.68490701654002</t>
+          <t>-45.761501062852645,170.68490671544217</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -40230,7 +40285,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>-45.761491764223294,170.6849082065932</t>
+          <t>-45.76149435711033,170.68490779079153</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -40297,7 +40352,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>-45.7614914065837,170.68490826394515</t>
+          <t>-45.761494178290526,170.6849078194675</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -40364,7 +40419,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>-45.76151125558092,170.68490508091057</t>
+          <t>-45.761513133188764,170.68490477981257</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -40431,7 +40486,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>-45.7615277070019,170.68490244271783</t>
+          <t>-45.7615298528394,170.68490209860562</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -40498,7 +40553,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>-45.76150758977515,170.6849056687685</t>
+          <t>-45.761509646202775,170.68490533899455</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -40565,7 +40620,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>-45.76151071912154,170.68490516693856</t>
+          <t>-45.76151000384236,170.68490528164256</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -40632,7 +40687,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>-45.761476206901,170.68491070140234</t>
+          <t>-45.76147567044162,170.68491078743025</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -40699,7 +40754,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>-45.76146261659639,170.6849128807746</t>
+          <t>-45.76146064957861,170.68491319620998</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -40766,7 +40821,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>-45.76146261659639,170.6849128807746</t>
+          <t>-45.76146064957861,170.68491319620998</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -40833,7 +40888,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>-45.76142095158297,170.6849195622637</t>
+          <t>-45.76142211391168,170.68491937587038</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -40900,7 +40955,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>-45.761409149475995,170.6849214548723</t>
+          <t>-45.76141066944432,170.6849212111273</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -40967,7 +41022,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>-45.7613834888341,170.68492556985913</t>
+          <t>-45.76138456175295,170.68492539780405</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -41034,7 +41089,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>-45.76136417629503,170.68492866684994</t>
+          <t>-45.76136507039408,170.6849285234708</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -41101,7 +41156,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>-45.76138295237469,170.6849256558867</t>
+          <t>-45.76138384647371,170.68492551250745</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -41168,7 +41223,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>-45.76139189336494,170.68492422209388</t>
+          <t>-45.761392340414446,170.68492415040424</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -41235,7 +41290,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>-45.76140986475521,170.68492134016878</t>
+          <t>-45.76141058003442,170.68492122546525</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -41302,7 +41357,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>-45.76141236823245,170.6849209387064</t>
+          <t>-45.76141344115127,170.6849207666511</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -41369,7 +41424,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>-45.76141701754731,170.68492019313334</t>
+          <t>-45.76141791164633,170.68492004975388</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -41436,7 +41491,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>-45.76141889515524,170.68491989203645</t>
+          <t>-45.761420146893855,170.68491969130523</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -41503,7 +41558,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>-45.76141826928593,170.6849199924021</t>
+          <t>-45.76142005748396,170.68491970564315</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -41570,7 +41625,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>-45.76141540816909,170.68492045121636</t>
+          <t>-45.76141737518692,170.68492013578154</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -41637,7 +41692,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>-45.76142032571366,170.6849196626293</t>
+          <t>-45.761422024501776,170.6849193902083</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -41704,7 +41759,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>-45.76143311132946,170.68491761230237</t>
+          <t>-45.761434899527465,170.68491732554324</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -41771,7 +41826,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>-45.76144339346798,170.68491596343725</t>
+          <t>-45.76144500284618,170.68491570535397</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -41838,7 +41893,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>-45.76144428756698,170.68491582005768</t>
+          <t>-45.761445896945176,170.68491556197435</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -41905,7 +41960,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>-45.76144044294128,170.68491643658993</t>
+          <t>-45.76144240995908,170.68491612115483</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -41972,7 +42027,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>-45.761447953372866,170.6849152322012</t>
+          <t>-45.76145009921047,170.68491488809008</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -42039,7 +42094,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>-45.76148559494033,170.68490919591426</t>
+          <t>-45.76148836664718,170.68490875143672</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -42106,7 +42161,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>-45.76150714272566,170.6849057404585</t>
+          <t>-45.7615090203335,170.68490543936053</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -42173,7 +42228,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>-45.76150070521305,170.68490677279414</t>
+          <t>-45.761502046361514,170.68490655772425</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -42240,7 +42295,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>-45.76151214967989,170.68490493753058</t>
+          <t>-45.761512596729375,170.68490486584056</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -42307,7 +42362,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>-45.76147960447715,170.6849101565591</t>
+          <t>-45.76148040916623,170.68491002751728</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -42374,7 +42429,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>-45.761484790251245,170.68490932495612</t>
+          <t>-45.76148541612053,170.68490922459023</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -42441,7 +42496,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>-45.761490065435225,170.68490847901498</t>
+          <t>-45.761489618385745,170.6849085507049</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -42508,7 +42563,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>-45.76148550553043,170.68490921025224</t>
+          <t>-45.761484969071034,170.68490929628015</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -42575,7 +42630,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>-45.76148979720552,170.68490852202893</t>
+          <t>-45.761488813696666,170.6849086797468</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -42642,7 +42697,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>-45.76148112444542,170.68490991281342</t>
+          <t>-45.761480766805825,170.68490997016534</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -42709,7 +42764,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>-45.76149355242125,170.68490791983342</t>
+          <t>-45.761493373601446,170.6849079485094</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -42776,7 +42831,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>-45.761497754686445,170.68490724594787</t>
+          <t>-45.76149748645673,170.68490728896185</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -42843,7 +42898,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>-45.761504102789154,170.68490622795036</t>
+          <t>-45.76150374514956,170.68490628530233</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -42910,7 +42965,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>-45.76150517570792,170.6849060558944</t>
+          <t>-45.761505622757404,170.68490598420442</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -42977,7 +43032,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>-45.76150535452771,170.6849060272184</t>
+          <t>-45.76150553334752,170.6849059985424</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -43111,7 +43166,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>-45.76150222518131,170.68490652904825</t>
+          <t>-45.7615025828209,170.68490647169625</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -43178,7 +43233,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>-45.76149963229429,170.68490694485004</t>
+          <t>-45.761500526393256,170.6849068014701</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -43245,7 +43300,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>-45.76149686058746,170.68490738932778</t>
+          <t>-45.761497397046845,170.68490730329984</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -43312,7 +43367,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>-45.76149453593011,170.68490776211553</t>
+          <t>-45.76149480415981,170.6849077191016</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -43379,7 +43434,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>-45.761484522021554,170.68490936797008</t>
+          <t>-45.76148523730074,170.6849092532662</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -43446,7 +43501,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>-45.761484522021554,170.68490936797008</t>
+          <t>-45.76148523730074,170.6849092532662</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -43513,7 +43568,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>-45.76149212186288,170.68490814924127</t>
+          <t>-45.76149256891237,170.68490807755128</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -43580,7 +43635,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>-45.761493731241046,170.68490789115745</t>
+          <t>-45.76149435711033,170.68490779079153</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -43647,7 +43702,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>-45.761499006425005,170.684907045216</t>
+          <t>-45.76149972170418,170.68490693051206</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -43714,7 +43769,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>-45.76149820173592,170.68490717425792</t>
+          <t>-45.76149838055572,170.68490714558195</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -43781,7 +43836,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>-45.76149480415981,170.6849077191016</t>
+          <t>-45.761495519438995,170.68490760439767</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -43848,7 +43903,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>-45.76150374514956,170.68490628530233</t>
+          <t>-45.76150383455946,170.68490627096432</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -43915,7 +43970,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>-45.76149605589838,170.6849075183697</t>
+          <t>-45.76149596648849,170.6849075327077</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -43982,7 +44037,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>-45.76148631021951,170.68490908121038</t>
+          <t>-45.76148639962942,170.6849090668724</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -44049,7 +44104,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>-45.76147334578426,170.68491116021767</t>
+          <t>-45.76147227286547,170.68491133227337</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -44116,7 +44171,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>-45.76149712881716,170.68490734631382</t>
+          <t>-45.76149587707859,170.6849075470457</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -44183,7 +44238,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>-45.76149873819529,170.68490708822998</t>
+          <t>-45.76149730763695,170.68490731763782</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -44250,7 +44305,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>-45.761498559375504,170.68490711690595</t>
+          <t>-45.76149730763695,170.68490731763782</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -44317,7 +44372,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>-45.76149346301135,170.6849079341714</t>
+          <t>-45.76149194304308,170.68490817791724</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -44384,7 +44439,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>-45.761475491621816,170.6849108161062</t>
+          <t>-45.76147441870303,170.68491098816196</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -44451,7 +44506,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>-45.7614702164378,170.68491166204686</t>
+          <t>-45.76146950115861,170.68491177675065</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -44518,7 +44573,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>-45.76147459752283,170.684910959486</t>
+          <t>-45.76147468693273,170.684910945148</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -44585,7 +44640,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>-45.76149382065094,170.68490787681947</t>
+          <t>-45.76149444652022,170.68490777645354</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -44652,7 +44707,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>-45.76149641353798,170.68490746101776</t>
+          <t>-45.761496592357766,170.68490743234176</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -44719,7 +44774,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>-45.761490423074825,170.684908421663</t>
+          <t>-45.7614912277639,170.68490829262115</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -44786,7 +44841,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>-45.76149033366492,170.684908436001</t>
+          <t>-45.761490601894614,170.68490839298707</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -44853,7 +44908,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>-45.761490601894614,170.68490839298707</t>
+          <t>-45.761490512484706,170.68490840732503</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -44920,7 +44975,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>-45.7615024040011,170.68490650037225</t>
+          <t>-45.76150285105059,170.6849064286823</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -44987,7 +45042,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>-45.761505622757404,170.68490598420442</t>
+          <t>-45.76150544393761,170.68490601288042</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -45054,7 +45109,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>-45.76150991443246,170.68490529598057</t>
+          <t>-45.76151018266216,170.68490525296656</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -45121,7 +45176,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>-45.761510897941335,170.68490513826256</t>
+          <t>-45.76151134499082,170.68490506657258</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -45188,7 +45243,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>-45.761510897941335,170.68490513826256</t>
+          <t>-45.76151134499082,170.68490506657258</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -45255,7 +45310,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>-45.76150687449597,170.68490578347246</t>
+          <t>-45.76150723213556,170.6849057261205</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -45322,7 +45377,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>-45.76150088403285,170.68490674411814</t>
+          <t>-45.76150133108233,170.68490667242818</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -45389,7 +45444,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>-45.761504371018844,170.68490618493635</t>
+          <t>-45.76150481806833,170.6849061132464</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -45456,7 +45511,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>-45.76150276164069,170.68490644302028</t>
+          <t>-45.76150294046048,170.68490641434428</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -45523,7 +45578,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>-45.76149686058746,170.68490738932778</t>
+          <t>-45.761497397046845,170.68490730329984</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -45590,7 +45645,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>-45.76149703940725,170.6849073606518</t>
+          <t>-45.76149757586664,170.68490727462387</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -45657,7 +45712,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>-45.76149873819529,170.68490708822998</t>
+          <t>-45.76149927465468,170.684907002202</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -45724,7 +45779,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>-45.76150061580316,170.68490678713212</t>
+          <t>-45.76150115226254,170.68490670110418</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -45791,7 +45846,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>-45.761511434400724,170.68490505223457</t>
+          <t>-45.76151179204031,170.68490499488257</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -45858,7 +45913,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>-45.76147906801775,170.684910242587</t>
+          <t>-45.761478620968255,170.68491031427692</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -45925,7 +45980,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>-45.76148264441369,170.68490966906774</t>
+          <t>-45.76148318087308,170.68490958303983</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -45992,7 +46047,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>-45.76147379283374,170.6849110885278</t>
+          <t>-45.761473971653544,170.68491105985183</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -46059,7 +46114,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>-45.76147432929313,170.68491100249992</t>
+          <t>-45.761473971653544,170.68491105985183</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -46126,7 +46181,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>-45.76147236227537,170.68491131793542</t>
+          <t>-45.76147263050506,170.6849112749215</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -46193,7 +46248,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>-45.76147236227537,170.68491131793542</t>
+          <t>-45.76147263050506,170.6849112749215</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -46260,7 +46315,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>-45.76147459752283,170.684910959486</t>
+          <t>-45.76147432929313,170.68491100249992</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -46327,7 +46382,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>-45.76147781627918,170.68491044331873</t>
+          <t>-45.76147727981979,170.6849105293466</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -46394,7 +46449,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>-45.761482823233486,170.68490964039174</t>
+          <t>-45.761483091463184,170.6849095973778</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -46461,7 +46516,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>-45.761500079343776,170.6849068731601</t>
+          <t>-45.76150061580316,170.68490678713212</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -46528,7 +46583,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>-45.76149444652022,170.68490777645354</t>
+          <t>-45.76149498297961,170.6849076904256</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -46595,7 +46650,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>-45.7614988276052,170.68490707389196</t>
+          <t>-45.76149927465468,170.684907002202</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -46662,7 +46717,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>-45.76150133108233,170.68490667242818</t>
+          <t>-45.761501867541725,170.68490658640022</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -46729,7 +46784,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>-45.761505622757404,170.68490598420442</t>
+          <t>-45.761505980397,170.68490592685242</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -46796,7 +46851,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>-45.761508662693906,170.6849054967125</t>
+          <t>-45.761508752103815,170.68490548237452</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -46863,7 +46918,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>-45.76152207417843,170.68490334601228</t>
+          <t>-45.761522700047706,170.68490324564624</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -46930,7 +46985,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>-45.761512775549164,170.6849048371646</t>
+          <t>-45.761513848467935,170.68490466510855</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -46997,7 +47052,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>-45.76150910974339,170.68490542502252</t>
+          <t>-45.76150955679287,170.68490535333254</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -47131,7 +47186,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>-45.76149569825879,170.68490757572167</t>
+          <t>-45.76149605589838,170.6849075183697</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -47265,7 +47320,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>-45.761508126234524,170.68490558274053</t>
+          <t>-45.76150803682463,170.6849055970785</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -47466,7 +47521,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>-45.76150633803658,170.68490586950045</t>
+          <t>-45.76150624862669,170.68490588383847</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -47533,7 +47588,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>-45.761514742566895,170.68490452172855</t>
+          <t>-45.7615148319768,170.68490450739054</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -47600,7 +47655,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>-45.76151232849969,170.68490490885458</t>
+          <t>-45.761512596729375,170.68490486584056</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -47667,7 +47722,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>-45.76151304377887,170.68490479415058</t>
+          <t>-45.761513133188764,170.68490477981257</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -47734,7 +47789,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>-45.761514742566895,170.68490452172855</t>
+          <t>-45.76151545784607,170.68490440702453</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -47801,7 +47856,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>-45.761513759058026,170.68490467944656</t>
+          <t>-45.76151438492731,170.68490457908055</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -47868,7 +47923,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>-45.761512596729375,170.68490486584056</t>
+          <t>-45.76151322259865,170.68490476547458</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -47935,7 +47990,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>-45.76151027207206,170.68490523862857</t>
+          <t>-45.761510897941335,170.68490513826256</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -48002,7 +48057,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>-45.76152430942583,170.6849029875621</t>
+          <t>-45.76152493529511,170.68490288719607</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -48069,7 +48124,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>-45.76152457765552,170.6849029445481</t>
+          <t>-45.76152618703366,170.68490268646397</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -48136,7 +48191,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>-45.76152180594873,170.6849033890263</t>
+          <t>-45.761523057687285,170.6849031882942</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -48203,7 +48258,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>-45.76151974952111,170.68490371880043</t>
+          <t>-45.76152091184978,170.68490353240634</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -48270,7 +48325,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>-45.76152359414667,170.68490310226616</t>
+          <t>-45.76152493529511,170.68490288719607</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -48337,7 +48392,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>-45.76151250731947,170.68490488017858</t>
+          <t>-45.76151411669762,170.68490462209456</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -48404,7 +48459,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>-45.76152600821387,170.68490271513997</t>
+          <t>-45.761527617591994,170.6849024570558</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -48471,7 +48526,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>-45.76152886933054,170.6849022563237</t>
+          <t>-45.76153003165919,170.68490206992956</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -48538,7 +48593,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>-45.76151653076485,170.6849042349685</t>
+          <t>-45.76151688840442,170.68490417761652</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -48605,7 +48660,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>-45.76150624862669,170.68490588383847</t>
+          <t>-45.76150633803658,170.68490586950045</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -48672,7 +48727,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>-45.761500347573474,170.6849068301461</t>
+          <t>-45.76150061580316,170.68490678713212</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -48739,7 +48794,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>-45.7614821079543,170.68490975509562</t>
+          <t>-45.761483091463184,170.6849095973778</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -48806,7 +48861,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>-45.76147432929313,170.68491100249992</t>
+          <t>-45.76147450811293,170.68491097382395</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -48873,7 +48928,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>-45.7614701270279,170.68491167638481</t>
+          <t>-45.761470842307084,170.68491156168102</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -48940,7 +48995,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>-45.76147450811293,170.68491097382395</t>
+          <t>-45.76147495516243,170.68491090213408</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -49007,7 +49062,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>-45.76148559494033,170.68490919591426</t>
+          <t>-45.761486220809616,170.6849090955484</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -49141,7 +49196,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>-45.76147513398222,170.6849108734581</t>
+          <t>-45.761474865752525,170.68491091647203</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -49208,7 +49263,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>-45.76147039525759,170.6849116333709</t>
+          <t>-45.76147003761799,170.6849116907228</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -49275,7 +49330,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>-45.76148550553043,170.68490921025224</t>
+          <t>-45.76148523730074,170.6849092532662</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -49342,7 +49397,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>-45.76146628240225,170.68491229291774</t>
+          <t>-45.76146655063194,170.68491224990382</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -49409,7 +49464,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>-45.76147459752283,170.684910959486</t>
+          <t>-45.76147468693273,170.684910945148</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -49476,7 +49531,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>-45.76147719040989,170.6849105436846</t>
+          <t>-45.761477011590095,170.68491057236056</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -49610,7 +49665,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>-45.761487383138295,170.68490890915456</t>
+          <t>-45.76148639962942,170.6849090668724</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -49677,7 +49732,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>-45.761459397840014,170.68491339694154</t>
+          <t>-45.761458503741025,170.68491354032125</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -49744,7 +49799,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>-45.76145465911536,170.68491415685384</t>
+          <t>-45.76145430147575,170.68491421420572</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -49811,7 +49866,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>-45.76141540816909,170.68492045121636</t>
+          <t>-45.761416570497815,170.68492026482303</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -49878,7 +49933,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>-45.76143060785225,170.68491801376507</t>
+          <t>-45.76143087608194,170.6849179707512</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -49945,7 +50000,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>-45.76144330405808,170.6849159777752</t>
+          <t>-45.76144428756698,170.68491582005768</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -50012,7 +50067,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>-45.76144491343628,170.68491571969193</t>
+          <t>-45.761446343994685,170.68491549028457</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -50079,7 +50134,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>-45.76144053235119,170.68491642225194</t>
+          <t>-45.76144142645018,170.68491627887238</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -50146,7 +50201,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>-45.76144321464818,170.6849159921132</t>
+          <t>-45.761444555796686,170.68491577704378</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -50213,7 +50268,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>-45.761448847471875,170.68491508882158</t>
+          <t>-45.76144992039067,170.68491491676602</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -50280,7 +50335,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>-45.76145930843011,170.68491341127952</t>
+          <t>-45.761460470758806,170.68491322488592</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -50347,7 +50402,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>-45.76146503066366,170.68491249364936</t>
+          <t>-45.76146664004184,170.68491223556586</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -50414,7 +50469,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>-45.761456000263834,170.68491394178434</t>
+          <t>-45.76145796728162,170.68491362634904</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -50481,7 +50536,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>-45.76145626849353,170.68491389877045</t>
+          <t>-45.76145769905193,170.68491366936294</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -50548,7 +50603,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>-45.76144741691348,170.68491531822897</t>
+          <t>-45.76144911570158,170.6849150458077</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -50615,7 +50670,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>-45.761438833563076,170.68491669467318</t>
+          <t>-45.76144071117098,170.68491639357606</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -50682,7 +50737,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>-45.76144133704029,170.68491629321034</t>
+          <t>-45.76144276759869,170.684916063803</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -50749,7 +50804,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>-45.76144437697688,170.6849158057197</t>
+          <t>-45.761445896945176,170.68491556197435</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -50816,7 +50871,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>-45.76144053235119,170.68491642225194</t>
+          <t>-45.76144223113929,170.68491614983077</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -50883,7 +50938,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>-45.76144723809367,170.68491534690492</t>
+          <t>-45.76144893688178,170.68491507448363</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -50950,7 +51005,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>-45.761449741570864,170.68491494544196</t>
+          <t>-45.761451261539165,170.68491470169656</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -51017,7 +51072,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>-45.76144509225608,170.684915691016</t>
+          <t>-45.761446433404586,170.68491547594658</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -51084,7 +51139,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>-45.76142756791563,170.68491850125545</t>
+          <t>-45.76142908788393,170.68491825751025</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -51151,7 +51206,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>-45.76142890906413,170.68491828618616</t>
+          <t>-45.76143007139283,170.68491809979278</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -51218,7 +51273,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>-45.76143257487006,170.68491769833008</t>
+          <t>-45.761433379559165,170.6849175692885</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -51285,7 +51340,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>-45.761430965491854,170.68491795641324</t>
+          <t>-45.76143194900075,170.68491779869578</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -51352,7 +51407,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>-45.761434988937374,170.6849173112053</t>
+          <t>-45.761435346576974,170.6849172538535</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -51419,7 +51474,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>-45.76143400542847,170.6849174689228</t>
+          <t>-45.76143507834727,170.68491729686735</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -51486,7 +51541,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>-45.76143901238288,170.68491666599726</t>
+          <t>-45.76144026412148,170.68491646526584</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -51553,7 +51608,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>-45.76144008530168,170.68491649394176</t>
+          <t>-45.76144071117098,170.68491639357606</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -51620,7 +51675,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>-45.76144339346798,170.68491596343725</t>
+          <t>-45.761443661697676,170.68491592042338</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -51687,7 +51742,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>-45.761435793626475,170.6849171821637</t>
+          <t>-45.76143606185616,170.68491713914986</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -51754,7 +51809,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>-45.76141907397504,170.6849198633606</t>
+          <t>-45.76141943161465,170.6849198060088</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -51821,7 +51876,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>-45.76142068335326,170.6849196052775</t>
+          <t>-45.76142157745228,170.68491946189806</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -51888,7 +51943,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>-45.76144232054918,170.68491613549278</t>
+          <t>-45.761443661697676,170.68491592042338</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -51955,7 +52010,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>-45.761450725079776,170.68491478772435</t>
+          <t>-45.761451350949066,170.6849146873586</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -52022,7 +52077,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>-45.761450725079776,170.68491478772435</t>
+          <t>-45.761451350949066,170.6849146873586</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -52089,7 +52144,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>-45.761458503741025,170.68491354032125</t>
+          <t>-45.76145895079053,170.68491346863138</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -52156,7 +52211,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>-45.761441158220485,170.68491632188625</t>
+          <t>-45.76144160526999,170.68491625019647</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -52223,7 +52278,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>-45.761429981982936,170.68491811413074</t>
+          <t>-45.761430429032444,170.68491804244096</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -52290,7 +52345,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>-45.7614088812463,170.68492149788614</t>
+          <t>-45.76140986475521,170.68492134016878</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -52357,7 +52412,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>-45.76141290469186,170.68492085267874</t>
+          <t>-45.76141433525028,170.68492062327167</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -52424,7 +52479,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>-45.76141907397504,170.6849198633606</t>
+          <t>-45.76141978925426,170.684919748657</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -52491,7 +52546,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>-45.76140467898092,170.68492217176927</t>
+          <t>-45.76140593071955,170.68492197103814</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -52558,7 +52613,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>-45.76141084826413,170.6849211824514</t>
+          <t>-45.761411742363144,170.684921039072</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -52625,7 +52680,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>-45.76141424584038,170.6849206376096</t>
+          <t>-45.761415229349296,170.6849204798922</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -52692,7 +52747,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>-45.761423008010674,170.6849192324909</t>
+          <t>-45.761423723289894,170.6849191177873</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -52759,7 +52814,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>-45.76141791164633,170.68492004975388</t>
+          <t>-45.76141853751563,170.68491994938825</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -52826,7 +52881,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>-45.76140092376505,170.68492277396263</t>
+          <t>-45.76140056612544,170.68492283131437</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -52893,7 +52948,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>-45.76139010516689,170.68492450885248</t>
+          <t>-45.76139046280649,170.6849244515008</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -53027,7 +53082,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>-45.76140253314326,170.68492251587978</t>
+          <t>-45.761402354323465,170.68492254455563</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -53094,7 +53149,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>-45.761416481087906,170.68492027916102</t>
+          <t>-45.761416123448306,170.68492033651276</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -53161,7 +53216,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>-45.761415497578994,170.68492043687837</t>
+          <t>-45.7614153187592,170.68492046555428</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -53228,7 +53283,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>-45.76141290469186,170.68492085267874</t>
+          <t>-45.761412994101754,170.68492083834082</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -53362,7 +53417,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>-45.7614093282958,170.68492142619644</t>
+          <t>-45.7614097753453,170.6849213545067</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -53429,7 +53484,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>-45.76141049062451,170.6849212398032</t>
+          <t>-45.76141075885423,170.68492119678936</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -53496,7 +53551,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>-45.76139743677888,170.68492333314208</t>
+          <t>-45.76139824146799,170.6849232041007</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -53563,7 +53618,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>-45.76139743677888,170.68492333314208</t>
+          <t>-45.76139824146799,170.6849232041007</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -53630,7 +53685,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>-45.76140467898092,170.68492217176927</t>
+          <t>-45.76140548367003,170.6849220427278</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -53697,7 +53752,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>-45.76140754009777,170.68492171295523</t>
+          <t>-45.761409149475995,170.6849214548723</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -53764,7 +53819,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>-45.761410222394815,170.68492128281702</t>
+          <t>-45.76141210000276,170.68492098172024</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -53831,7 +53886,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>-45.76140217550367,170.68492257323152</t>
+          <t>-45.761403516652194,170.68492235816245</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -53898,7 +53953,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>-45.76140190727397,170.68492261624533</t>
+          <t>-45.76140280137298,170.68492247286596</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -53965,7 +54020,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>-45.76138626054109,170.68492512538342</t>
+          <t>-45.76138778050943,170.68492488163866</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -54032,7 +54087,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>-45.761389836937184,170.6849245518663</t>
+          <t>-45.761390999265906,170.6849243654732</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -54099,7 +54154,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>-45.761380448897405,170.6849260573486</t>
+          <t>-45.761381879455854,170.6849258279418</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -54166,7 +54221,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>-45.7613710608576,170.68492756283035</t>
+          <t>-45.761372223186335,170.6849273764374</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -54233,7 +54288,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>-45.76136936206943,170.6849278352508</t>
+          <t>-45.76137043498827,170.6849276631958</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -54300,7 +54355,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>-45.76136730564165,170.68492816502288</t>
+          <t>-45.7613684679704,170.68492797863</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -54367,7 +54422,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>-45.7613708820378,170.68492759150618</t>
+          <t>-45.761371686726925,170.6849274624649</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -54434,7 +54489,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>-45.76136623272282,170.6849283370779</t>
+          <t>-45.76136685859215,170.6849282367125</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -54501,7 +54556,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>-45.76136730564165,170.68492816502288</t>
+          <t>-45.761368110330785,170.68492803598164</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -54568,7 +54623,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>-45.76136963029915,170.68492779223706</t>
+          <t>-45.761369719709045,170.68492777789913</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -54635,7 +54690,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>-45.76137445843391,170.6849270179894</t>
+          <t>-45.76137436902402,170.68492703232732</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -54702,7 +54757,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>-45.76138250532517,170.68492572757634</t>
+          <t>-45.761382684144984,170.68492569890049</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -54769,7 +54824,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>-45.7613865287708,170.68492508236966</t>
+          <t>-45.76138643936089,170.68492509670756</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -54836,7 +54891,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>-45.7613906416263,170.68492442282493</t>
+          <t>-45.7613903733966,170.68492446583872</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -54970,7 +55025,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>-45.76140083435513,170.68492278830058</t>
+          <t>-45.76140065553534,170.68492281697644</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -55037,7 +55092,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>-45.761405126030425,170.68492210007958</t>
+          <t>-45.761405036620516,170.68492211441753</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -55104,7 +55159,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>-45.761405751899744,170.68492199971402</t>
+          <t>-45.76140566248984,170.68492201405195</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -55171,7 +55226,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>-45.76140163904426,170.68492265925914</t>
+          <t>-45.76140172845417,170.6849226449212</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -55238,7 +55293,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>-45.76139788382837,170.68492326145244</t>
+          <t>-45.76139797323828,170.68492324711448</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -55305,7 +55360,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>-45.76140745068787,170.6849217272932</t>
+          <t>-45.76140709304826,170.68492178464493</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -55372,7 +55427,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>-45.761405573079934,170.6849220283899</t>
+          <t>-45.761405126030425,170.68492210007958</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -55439,7 +55494,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>-45.76141335174137,170.68492078098902</t>
+          <t>-45.76141281528195,170.6849208670167</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -55506,7 +55561,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>-45.76144097940069,170.6849163505622</t>
+          <t>-45.761439995891784,170.68491650827974</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -55573,7 +55628,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>-45.761425779717605,170.68491878801444</t>
+          <t>-45.76142569030771,170.6849188023524</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -55640,7 +55695,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>-45.76140539426013,170.68492205706576</t>
+          <t>-45.76140450016111,170.68492220044513</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -55707,7 +55762,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>-45.76139609563033,170.6849235482111</t>
+          <t>-45.76139591681054,170.68492357688697</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -55774,7 +55829,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>-45.76139019457679,170.68492449451458</t>
+          <t>-45.76139001575699,170.68492452319043</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -55841,7 +55896,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>-45.761378213649834,170.6849264157967</t>
+          <t>-45.761377677190424,170.68492650182424</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -55908,7 +55963,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>-45.761378213649834,170.6849264157967</t>
+          <t>-45.761377677190424,170.68492650182424</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -55975,7 +56030,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>-45.76136596449311,170.68492838009163</t>
+          <t>-45.76136498098417,170.6849285378087</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -56042,7 +56097,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>-45.76137928656867,170.68492624374161</t>
+          <t>-45.761378392469645,170.68492638712084</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -56109,7 +56164,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>-45.761362745736584,170.6849288962566</t>
+          <t>-45.76136283514649,170.68492888191867</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -56176,7 +56231,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>-45.76138965811738,170.68492458054214</t>
+          <t>-45.761389300477774,170.68492463789386</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -56243,7 +56298,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>-45.76138491939253,170.68492534045234</t>
+          <t>-45.76138518762225,170.68492529743855</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -56310,7 +56365,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>-45.76138491939253,170.68492534045234</t>
+          <t>-45.76138518762225,170.68492529743855</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -56377,7 +56432,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>-45.7613867075906,170.6849250536938</t>
+          <t>-45.76138715464011,170.68492498200413</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -56444,7 +56499,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>-45.761382773554885,170.68492568456256</t>
+          <t>-45.76138339942421,170.6849255841971</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -56511,7 +56566,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>-45.76139797323828,170.68492324711448</t>
+          <t>-45.76139842028779,170.6849231754248</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -56578,7 +56633,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>-45.76141084826413,170.6849211824514</t>
+          <t>-45.761411474133425,170.68492108208582</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -56645,7 +56700,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>-45.76142640558692,170.6849186876488</t>
+          <t>-45.76142649499682,170.68491867331085</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -56779,7 +56834,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>-45.76144464520659,170.6849157627058</t>
+          <t>-45.76144500284618,170.68491570535397</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -56846,7 +56901,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>-45.761451440358954,170.68491467302061</t>
+          <t>-45.76145206622827,170.68491457265486</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -56913,7 +56968,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>-45.761450725079776,170.68491478772435</t>
+          <t>-45.76145117212927,170.6849147160345</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -56980,7 +57035,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>-45.76144857924217,170.68491513183548</t>
+          <t>-45.76144938393127,170.68491500279382</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -57047,7 +57102,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>-45.76145081448967,170.6849147733864</t>
+          <t>-45.76145161917876,170.6849146443447</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -57114,7 +57169,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>-45.761453407376756,170.6849143575854</t>
+          <t>-45.76145394383615,170.6849142715576</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -57181,7 +57236,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>-45.761472451685265,170.68491130359746</t>
+          <t>-45.76147343519416,170.6849111458797</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -57248,7 +57303,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>-45.76146270600628,170.68491286643663</t>
+          <t>-45.76146395774487,170.68491266570504</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -57315,7 +57370,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>-45.76147209404567,170.68491136094934</t>
+          <t>-45.76147280932486,170.68491124624555</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -57382,7 +57437,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>-45.76146967997841,170.6849117480747</t>
+          <t>-45.76147075289718,170.684911576019</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -57449,7 +57504,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>-45.76146789178043,170.6849120348342</t>
+          <t>-45.76146923292891,170.68491181976458</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -57516,7 +57571,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>-45.761463600105266,170.68491272305693</t>
+          <t>-45.76146467302407,170.68491255100125</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -57583,7 +57638,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>-45.76144160526999,170.68491625019647</t>
+          <t>-45.76144312523829,170.68491600645115</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -57650,7 +57705,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>-45.761434184248266,170.6849174402469</t>
+          <t>-45.76143597244627,170.6849171534878</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -57717,7 +57772,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>-45.761427031456215,170.68491858728314</t>
+          <t>-45.761428462014635,170.68491835787594</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -57784,7 +57839,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>-45.76142139863247,170.68491949057395</t>
+          <t>-45.761423544470084,170.6849191464632</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -57851,7 +57906,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>-45.76139949320661,170.6849230033696</t>
+          <t>-45.76140083435513,170.68492278830058</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -57918,7 +57973,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>-45.76139216159464,170.6849241790801</t>
+          <t>-45.76139332392338,170.68492399268698</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -57985,7 +58040,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>-45.76140163904426,170.68492265925914</t>
+          <t>-45.761402443733374,170.6849225302177</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -58052,7 +58107,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>-45.761412994101754,170.68492083834082</t>
+          <t>-45.76141344115127,170.6849207666511</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -58119,7 +58174,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>-45.761412994101754,170.68492083834082</t>
+          <t>-45.76141344115127,170.6849207666511</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -58186,7 +58241,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>-45.76142130922256,170.6849195049119</t>
+          <t>-45.76142166686216,170.6849194475601</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -58253,7 +58308,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>-45.76142157745228,170.68491946189806</t>
+          <t>-45.761422829190884,170.68491926116678</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -58320,7 +58375,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>-45.76142220332157,170.68491936153242</t>
+          <t>-45.761423008010674,170.6849192324909</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -58387,7 +58442,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>-45.761414603479984,170.68492058025782</t>
+          <t>-45.7614153187592,170.68492046555428</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -58454,7 +58509,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>-45.76141594462851,170.68492036518867</t>
+          <t>-45.76141639167801,170.68492029349895</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -58521,7 +58576,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>-45.76141987866415,170.68491973431907</t>
+          <t>-45.76142068335326,170.6849196052775</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -58588,7 +58643,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>-45.761425869127514,170.68491877367651</t>
+          <t>-45.76142658440671,170.6849186589729</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -58655,7 +58710,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>-45.76144053235119,170.68491642225194</t>
+          <t>-45.76144097940069,170.6849163505622</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -58722,7 +58777,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>-45.76145796728162,170.68491362634904</t>
+          <t>-45.76145859315091,170.68491352598326</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -58789,7 +58844,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>-45.76145251327775,170.68491450096502</t>
+          <t>-45.761453049737156,170.68491441493725</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -58856,7 +58911,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>-45.76145251327775,170.68491450096502</t>
+          <t>-45.761453049737156,170.68491441493725</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -58923,7 +58978,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>-45.76145483793515,170.68491412817792</t>
+          <t>-45.76145573203414,170.68491398479824</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -58990,7 +59045,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>-45.76146190131719,170.68491299547838</t>
+          <t>-45.761462527186495,170.6849128951126</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -59057,7 +59112,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>-45.76146681886164,170.6849122068899</t>
+          <t>-45.76146708709133,170.68491216387596</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -59124,7 +59179,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>-45.76146985879821,170.68491171939874</t>
+          <t>-45.761469769388306,170.68491173373673</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -59191,7 +59246,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>-45.761462080136994,170.68491296680244</t>
+          <t>-45.76146225895679,170.68491293812647</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -59325,7 +59380,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>-45.761472451685265,170.68491130359746</t>
+          <t>-45.76147263050506,170.6849112749215</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -59392,7 +59447,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>-45.761470305847695,170.68491164770887</t>
+          <t>-45.76147048466749,170.68491161903293</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -59459,7 +59514,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>-45.76146708709133,170.68491216387596</t>
+          <t>-45.76146699768143,170.68491217821395</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -59593,7 +59648,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>-45.76147218345557,170.6849113466114</t>
+          <t>-45.76147164699617,170.6849114326392</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -59660,7 +59715,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>-45.76146824942002,170.6849119774823</t>
+          <t>-45.761467355321024,170.68491212086204</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -59727,7 +59782,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>-45.76147441870303,170.68491098816196</t>
+          <t>-45.761473614013944,170.68491111720374</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -59794,7 +59849,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>-45.76147808450887,170.68491040030477</t>
+          <t>-45.76147719040989,170.6849105436846</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -59861,7 +59916,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>-45.761483806742376,170.68490948267396</t>
+          <t>-45.76148300205329,170.6849096117158</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -59928,7 +59983,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>-45.76148443261165,170.68490938230806</t>
+          <t>-45.76148389615227,170.68490946833595</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -59995,7 +60050,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>-45.76149846996563,170.68490713124393</t>
+          <t>-45.76149730763695,170.68490731763782</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -60062,7 +60117,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>-45.76149462534001,170.68490774777754</t>
+          <t>-45.76149346301135,170.6849079341714</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -60129,7 +60184,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>-45.76148291264338,170.68490962605378</t>
+          <t>-45.761482197364195,170.68490974075763</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -60196,7 +60251,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>-45.7614825550038,170.6849096834057</t>
+          <t>-45.761481929134504,170.6849097837716</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -60263,7 +60318,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>-45.76148031975634,170.68491004185526</t>
+          <t>-45.76148058798602,170.68490999884133</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -60330,7 +60385,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>-45.76147790568908,170.68491042898074</t>
+          <t>-45.76147844214846,170.68491034295286</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -60397,7 +60452,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>-45.76148675726899,170.68490900952045</t>
+          <t>-45.7614871149086,170.6849089521685</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -60464,7 +60519,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>-45.761484969071034,170.68490929628015</t>
+          <t>-45.761485058480936,170.68490928194217</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -60531,7 +60586,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>-45.76148389615227,170.68490946833595</t>
+          <t>-45.76148407497206,170.68490943966</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -60598,7 +60653,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>-45.76149399947074,170.6849078481435</t>
+          <t>-45.76149444652022,170.68490777645354</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -60665,7 +60720,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>-45.76149256891237,170.68490807755128</t>
+          <t>-45.761492837142065,170.68490803453736</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -60732,7 +60787,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>-45.761494178290526,170.6849078194675</t>
+          <t>-45.76149453593011,170.68490776211553</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -60799,7 +60854,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>-45.76149292655196,170.68490802019934</t>
+          <t>-45.76149319478164,170.6849079771854</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -60866,7 +60921,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>-45.761501867541725,170.68490658640022</t>
+          <t>-45.761502493411,170.68490648603427</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -60933,7 +60988,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>-45.761501062852645,170.68490671544217</t>
+          <t>-45.76150150990213,170.68490664375219</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -61000,7 +61055,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>-45.76150016875366,170.68490685882207</t>
+          <t>-45.76150079462295,170.68490675845615</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -61067,7 +61122,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>-45.7615058015772,170.68490595552845</t>
+          <t>-45.76150624862669,170.68490588383847</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -61134,7 +61189,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>-45.761508215644426,170.6849055684025</t>
+          <t>-45.76150848387411,170.68490552538853</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -61201,7 +61256,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>-45.761517067224226,170.68490414894052</t>
+          <t>-45.76151688840442,170.68490417761652</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -61402,7 +61457,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>-45.76150642744648,170.68490585516244</t>
+          <t>-45.76150669567617,170.6849058121485</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -61469,7 +61524,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>-45.761503655739666,170.68490629964032</t>
+          <t>-45.76150383455946,170.68490627096432</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -61536,7 +61591,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>-45.76150070521305,170.68490677279414</t>
+          <t>-45.76150079462295,170.68490675845615</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -61670,7 +61725,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>-45.76150401337926,170.68490624228835</t>
+          <t>-45.761504102789154,170.68490622795036</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -61737,7 +61792,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>-45.761503655739666,170.68490629964032</t>
+          <t>-45.76150383455946,170.68490627096432</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -61804,7 +61859,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>-45.76151214967989,170.68490493753058</t>
+          <t>-45.76151206026999,170.68490495186856</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -61871,7 +61926,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>-45.761509825022564,170.68490531031856</t>
+          <t>-45.76151000384236,170.68490528164256</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -61938,7 +61993,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>-45.76151250731947,170.68490488017858</t>
+          <t>-45.76151214967989,170.68490493753058</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -62005,7 +62060,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>-45.76151563666587,170.68490437834856</t>
+          <t>-45.76151545784607,170.68490440702453</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -62072,7 +62127,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>-45.76151098735124,170.68490512392455</t>
+          <t>-45.76151054030175,170.68490519561456</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -62139,7 +62194,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>-45.761504102789154,170.68490622795036</t>
+          <t>-45.761503923969364,170.68490625662633</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -62206,7 +62261,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>-45.76149587707859,170.6849075470457</t>
+          <t>-45.761495519438995,170.68490760439767</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -62273,7 +62328,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>-45.76148604198982,170.68490912422433</t>
+          <t>-45.76148550553043,170.68490921025224</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -62340,7 +62395,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>-45.76146342128548,170.68491275173287</t>
+          <t>-45.76146351069537,170.68491273739488</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -62407,7 +62462,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>-45.761463600105266,170.68491272305693</t>
+          <t>-45.76146333187559,170.68491276607082</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -62474,7 +62529,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>-45.761453317966854,170.68491437192336</t>
+          <t>-45.76145367560646,170.6849143145715</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -62541,7 +62596,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>-45.76145895079053,170.68491346863138</t>
+          <t>-45.76145912961032,170.68491343995544</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -62608,7 +62663,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>-45.76145582144403,170.6849139704603</t>
+          <t>-45.761456000263834,170.68491394178434</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -62675,7 +62730,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>-45.76145439088565,170.68491419986773</t>
+          <t>-45.76145465911536,170.68491415685384</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -62742,7 +62797,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>-45.76145394383615,170.6849142715576</t>
+          <t>-45.76145367560646,170.6849143145715</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -62876,7 +62931,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>-45.761451350949066,170.6849146873586</t>
+          <t>-45.761450903899565,170.6849147590484</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -62943,7 +62998,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>-45.761448400422374,170.68491516051142</t>
+          <t>-45.76144866865207,170.68491511749752</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -63077,7 +63132,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>-45.76146708709133,170.68491216387596</t>
+          <t>-45.76146672945174,170.68491222122785</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -63412,7 +63467,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>-45.76145635790345,170.68491388443246</t>
+          <t>-45.761456447313336,170.6849138700945</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -63479,7 +63534,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>-45.76145591085394,170.68491395612233</t>
+          <t>-45.76145626849353,170.68491389877045</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -63546,7 +63601,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>-45.76145734141233,170.68491372671483</t>
+          <t>-45.76145796728162,170.68491362634904</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -63613,7 +63668,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>-45.76146154367761,170.68491305283027</t>
+          <t>-45.76146181190729,170.68491300981634</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -63680,7 +63735,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>-45.761457252002444,170.68491374105278</t>
+          <t>-45.761458146101425,170.6849135976731</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -63747,7 +63802,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>-45.761456447313336,170.6849138700945</t>
+          <t>-45.76145752023212,170.68491369803888</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -63814,7 +63869,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>-45.76145823551133,170.68491358333515</t>
+          <t>-45.76145886138061,170.68491348296934</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -63881,7 +63936,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>-45.76145912961032,170.68491343995544</t>
+          <t>-45.76145966606972,170.68491335392764</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -63948,7 +64003,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>-45.761460470758806,170.68491322488592</t>
+          <t>-45.761461007218195,170.6849131388581</t>
         </is>
       </c>
       <c r="K490" t="inlineStr">
@@ -64015,7 +64070,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>-45.76146467302407,170.68491255100125</t>
+          <t>-45.761465298893356,170.68491245063544</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -64082,7 +64137,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>-45.76145582144403,170.6849139704603</t>
+          <t>-45.761456536723244,170.68491385575655</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -64149,7 +64204,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>-45.76145206622827,170.68491457265486</t>
+          <t>-45.76145322855695,170.68491438626134</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -64216,7 +64271,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>-45.76143185959085,170.6849178130337</t>
+          <t>-45.76143275368987,170.68491766965417</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -64283,7 +64338,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>-45.761444466386784,170.68491579138174</t>
+          <t>-45.761445271075885,170.6849156623401</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -64350,7 +64405,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>-45.761447953372866,170.6849152322012</t>
+          <t>-45.76144902629168,170.68491506014564</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -64417,7 +64472,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>-45.76141496111959,170.68492052290605</t>
+          <t>-45.761416123448306,170.68492033651276</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -64484,7 +64539,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>-45.76138214768557,170.68492578492805</t>
+          <t>-45.761382862964794,170.68492567022463</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -64551,7 +64606,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>-45.761409238885896,170.68492144053437</t>
+          <t>-45.76140950711561,170.68492139752055</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -64618,7 +64673,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>-45.76140047671553,170.6849228456523</t>
+          <t>-45.76140101317495,170.6849227596247</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -64685,7 +64740,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>-45.76139663208974,170.6849234621835</t>
+          <t>-45.76139752618877,170.68492331880415</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -64752,7 +64807,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>-45.76141129531363,170.6849211107617</t>
+          <t>-45.761411742363144,170.684921039072</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -64886,7 +64941,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>-45.76140369547199,170.68492232948657</t>
+          <t>-45.7614033378324,170.68492238683834</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -64953,7 +65008,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>-45.76139332392338,170.68492399268698</t>
+          <t>-45.761393949792684,170.68492389232148</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -65020,7 +65075,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>-45.76141031180473,170.6849212684791</t>
+          <t>-45.76141066944432,170.6849212111273</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -65087,7 +65142,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>-45.76139797323828,170.68492324711448</t>
+          <t>-45.76139850969769,170.68492316108686</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -65154,7 +65209,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>-45.76139117808572,170.68492433679734</t>
+          <t>-45.76139153572533,170.68492427944562</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -65221,7 +65276,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>-45.761388495788644,170.6849247669352</t>
+          <t>-45.76138894283815,170.6849246952456</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -65288,7 +65343,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>-45.76138447234303,170.68492541214198</t>
+          <t>-45.76138474057273,170.6849253691282</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -65355,7 +65410,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>-45.76138375706381,170.68492552684538</t>
+          <t>-45.76138429352323,170.6849254408178</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -65422,7 +65477,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>-45.76139287687386,170.68492406437664</t>
+          <t>-45.76139314510357,170.68492402136283</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -65489,7 +65544,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>-45.7613987779274,170.68492311807307</t>
+          <t>-45.76139922497691,170.6849230463834</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -65556,7 +65611,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>-45.76141004357501,170.6849213114929</t>
+          <t>-45.761410222394815,170.68492128281702</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -65623,7 +65678,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>-45.7614087918364,170.68492151222407</t>
+          <t>-45.761409238885896,170.68492144053437</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -65690,7 +65745,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>-45.761409149475995,170.6849214548723</t>
+          <t>-45.7614090600661,170.68492146921025</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -65757,7 +65812,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>-45.76141075885423,170.68492119678936</t>
+          <t>-45.761410937674036,170.68492116811348</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -65824,7 +65879,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>-45.76141496111959,170.68492052290605</t>
+          <t>-45.7614150505295,170.6849205085681</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -65891,7 +65946,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>-45.76142193509188,170.68491940454626</t>
+          <t>-45.76142211391168,170.68491937587038</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -65958,7 +66013,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>-45.76143606185616,170.68491713914986</t>
+          <t>-45.76143615126607,170.68491712481188</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -66025,7 +66080,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>-45.76143007139283,170.68491809979278</t>
+          <t>-45.76143016080274,170.68491808545483</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -66072,7 +66127,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>-45.760992366524356,170.6814428566304</t>
+          <t>-45.76099013682865,170.68144386743262</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
@@ -66087,12 +66142,12 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>-45.761400656240134,170.68403778073304</t>
+          <t>-45.76139596425057,170.68403899608575</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>-45.76142917729383,170.68491824317232</t>
+          <t>-45.76142908788393,170.68491825751025</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -66108,6 +66163,73 @@
       <c r="M522" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-45.76003870468739,170.67819516738848</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-45.76031167339936,170.6789870840243</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-45.760554552386964,170.67980269918397</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-45.76081034149861,170.68061102692607</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>-45.76101157620993,170.68143414817723</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>-45.7611654227271,170.68229842051946</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>-45.76131324952751,170.68316559669663</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>-45.76142030947924,170.6840326900079</t>
+        </is>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>-45.76145358619655,170.68491432890946</t>
+        </is>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>-45.76147885599984,170.6857976943275</t>
+        </is>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>-45.76141874163962,170.68669287422728</t>
+        </is>
+      </c>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
